--- a/instance/zyjk/SAAS/iSwagger/i_sassuser_swagger_case.xlsx
+++ b/instance/zyjk/SAAS/iSwagger/i_sassuser_swagger_case.xlsx
@@ -8,16 +8,16 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hypertension" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cuser" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cms" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="saasuser" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="auth" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ecg" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="oss" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ecg" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="oss" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cms" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="saasuser" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="auth" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="case" sheetId="8" state="visible" r:id="rId8"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="说明" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -262,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -360,9 +360,6 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -387,9 +384,6 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -407,9 +401,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -432,9 +423,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -450,11 +438,14 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -592,7 +583,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1304,7 +1295,7 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>{'addTime': '', 'addUser': '', 'addUserId': '', 'createId': 0, 'createTime': '', 'dataJson': '', 'diastolicPressure': '', 'formFinish': 0, 'id': 0, 'infoId': '', 'isDelete': 0, 'medicalInfoImg': '', 'pid': '', 'planDataJson': '', 'planId': 0, 'planName': '', 'status': '', 'systolicPressure': '', 'updateId': 0, 'updateTime': ''}</t>
+          <t>{"addTime": "", "addUser": "", "addUserId": "", "createId": 0, "createTime": "", "dataJson": "", "diastolicPressure": "", "formFinish": 0, "id": 0, "infoId": "", "isDelete": 0, "medicalInfoImg": "", "pid": "", "planDataJson": "", "planId": 0, "planName": "", "status": "", "systolicPressure": "", "updateId": 0, "updateTime": ""}</t>
         </is>
       </c>
     </row>
@@ -1337,7 +1328,7 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>{'addTime': '', 'addUser': '', 'addUserId': '', 'createId': 0, 'createTime': '', 'dataJson': '', 'diastolicPressure': '', 'formFinish': 0, 'id': 0, 'infoId': '', 'isDelete': 0, 'medicalInfoImg': '', 'pid': '', 'planDataJson': '', 'planId': 0, 'planName': '', 'status': '', 'systolicPressure': '', 'updateId': 0, 'updateTime': ''}</t>
+          <t>{"addTime": "", "addUser": "", "addUserId": "", "createId": 0, "createTime": "", "dataJson": "", "diastolicPressure": "", "formFinish": 0, "id": 0, "infoId": "", "isDelete": 0, "medicalInfoImg": "", "pid": "", "planDataJson": "", "planId": 0, "planName": "", "status": "", "systolicPressure": "", "updateId": 0, "updateTime": ""}</t>
         </is>
       </c>
     </row>
@@ -1444,7 +1435,7 @@
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>{'docIdList': [], 'strDateBegin': '', 'strDateEnd': ''}</t>
+          <t>{"docIdList": [], "strDateBegin": "", "strDateEnd": ""}</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1532,7 @@
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>{'belongDoctorId': 0, 'belongDoctorName': '', 'birthday': '', 'itemId': 0, 'orgId': 0, 'patientName': '', 'phone': '', 'sex': ''}</t>
+          <t>{"belongDoctorId": 0, "belongDoctorName": "", "birthday": "", "itemId": 0, "orgId": 0, "patientName": "", "phone": "", "sex": ""}</t>
         </is>
       </c>
     </row>
@@ -1574,7 +1565,7 @@
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>{'belongDoctorId': 0, 'belongDoctorName': '', 'birthday': '', 'patientId': '', 'patientName': '', 'phone': '', 'sex': ''}</t>
+          <t>{"belongDoctorId": 0, "belongDoctorName": "", "birthday": "", "patientId": "", "patientName": "", "phone": "", "sex": ""}</t>
         </is>
       </c>
     </row>
@@ -1607,7 +1598,7 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>{'currPage': 0, 'doctorName': '', 'endAge': 0, 'pageSize': 0, 'patientName': '', 'startAge': 0}</t>
+          <t>{"currPage": 0, "doctorName": "", "endAge": 0, "pageSize": 0, "patientName": "", "startAge": 0}</t>
         </is>
       </c>
     </row>
@@ -1668,7 +1659,7 @@
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>{'diastolicBloodPressure': 0, 'empiId': '', 'heartRate': 0, 'id': 0, 'isDelete': 0, 'measurementDate': '', 'measuringTime': '', 'rank': '', 'state': 0, 'systolicPressure': 0}</t>
+          <t>{"diastolicBloodPressure": 0, "empiId": "", "heartRate": 0, "id": 0, "isDelete": 0, "measurementDate": "", "measuringTime": "", "rank": "", "state": 0, "systolicPressure": 0}</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1810,7 @@
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>{'diastolicBloodPressure': 0, 'empiId': '', 'heartRate': 0, 'id': 0, 'isDelete': 0, 'measurementDate': '', 'measuringTime': '', 'rank': '', 'state': 0, 'systolicPressure': 0}</t>
+          <t>{"diastolicBloodPressure": 0, "empiId": "", "heartRate": 0, "id": 0, "isDelete": 0, "measurementDate": "", "measuringTime": "", "rank": "", "state": 0, "systolicPressure": 0}</t>
         </is>
       </c>
     </row>
@@ -1852,7 +1843,7 @@
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>{'age': '', 'ageAtOnsetOfMaternalHypertension': '', 'ageAtOnsetOfSiblingStroke': '', 'ageAtOnsetOfSisterStroke': '', 'ageBrothersCoronaryHeartDisease': '', 'ageFatherCoronaryHeartDisease': '', 'ageOfMaternalStrokeOnset': '', 'ageOfOnsetOfPaternalHypertension': '', 'ageOfOnsetOfSisterHypertension': '', 'ageOfOnsetOfStrokeInTheFather': '', 'ageSisterCoronaryHeartDisease': '', 'armBloodPressureIndex': '', 'bloodGlucose2HoursPostprandial': '', 'bloodHomocysteine': '', 'brotherHypertensionOnsetAge': '', 'carotidAtheroscleroticPlaque': '', 'carotidUltrasoundImt': '', 'clinicalDiseases': '', 'createId': 0, 'createTime': '', 'diastolicBloodPressure': 0, 'empiId': '', 'fastingPlasmaGlucose': '', 'femoralArteryPulseWaveVelocity': '', 'hba1c': '', 'heartRate': 0, 'height': '', 'highDensityLipoproteinCholesterol': '', 'hoursUrinaryMicroalbumin': '', 'id': 0, 'isDelete': 0, 'isFamilyCoronaryHeartDisease': '', 'isFamilyHasHadAStroke': '', 'isFamilyHaveHighBloodPressure': '', 'leftVentricularHypertrophy': '', 'lowDensityLipoproteinCholesterol': '', 'managementLevel': '', 'managementLevelShow': '', 'measurementDate': '', 'measurementResult': '', 'measurementResultShow': '', 'montherCoronaryHeartDisease': '', 'name': '', 'serumCreatinine': '', 'sex': '', 'smoking': '', 'state': 0, 'systolicPressure': 0, 'totalCholesterol': '', 'updateId': 0, 'updateTime': '', 'urinaryTraceAlbumin': '', 'waistCircumference': '', 'weight': ''}</t>
+          <t>{"age": "", "ageAtOnsetOfMaternalHypertension": "", "ageAtOnsetOfSiblingStroke": "", "ageAtOnsetOfSisterStroke": "", "ageBrothersCoronaryHeartDisease": "", "ageFatherCoronaryHeartDisease": "", "ageOfMaternalStrokeOnset": "", "ageOfOnsetOfPaternalHypertension": "", "ageOfOnsetOfSisterHypertension": "", "ageOfOnsetOfStrokeInTheFather": "", "ageSisterCoronaryHeartDisease": "", "armBloodPressureIndex": "", "bloodGlucose2HoursPostprandial": "", "bloodHomocysteine": "", "brotherHypertensionOnsetAge": "", "carotidAtheroscleroticPlaque": "", "carotidUltrasoundImt": "", "clinicalDiseases": "", "createId": 0, "createTime": "", "diastolicBloodPressure": 0, "empiId": "", "fastingPlasmaGlucose": "", "femoralArteryPulseWaveVelocity": "", "hba1c": "", "heartRate": 0, "height": "", "highDensityLipoproteinCholesterol": "", "hoursUrinaryMicroalbumin": "", "id": 0, "isDelete": 0, "isFamilyCoronaryHeartDisease": "", "isFamilyHasHadAStroke": "", "isFamilyHaveHighBloodPressure": "", "leftVentricularHypertrophy": "", "lowDensityLipoproteinCholesterol": "", "managementLevel": "", "managementLevelShow": "", "measurementDate": "", "measurementResult": "", "measurementResultShow": "", "montherCoronaryHeartDisease": "", "name": "", "serumCreatinine": "", "sex": "", "smoking": "", "state": 0, "systolicPressure": 0, "totalCholesterol": "", "updateId": 0, "updateTime": "", "urinaryTraceAlbumin": "", "waistCircumference": "", "weight": ""}</t>
         </is>
       </c>
     </row>
@@ -1993,7 +1984,7 @@
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>{'age': '', 'ageAtOnsetOfMaternalHypertension': '', 'ageAtOnsetOfSiblingStroke': '', 'ageAtOnsetOfSisterStroke': '', 'ageBrothersCoronaryHeartDisease': '', 'ageFatherCoronaryHeartDisease': '', 'ageOfMaternalStrokeOnset': '', 'ageOfOnsetOfPaternalHypertension': '', 'ageOfOnsetOfSisterHypertension': '', 'ageOfOnsetOfStrokeInTheFather': '', 'ageSisterCoronaryHeartDisease': '', 'armBloodPressureIndex': '', 'bloodGlucose2HoursPostprandial': '', 'bloodHomocysteine': '', 'brotherHypertensionOnsetAge': '', 'carotidAtheroscleroticPlaque': '', 'carotidUltrasoundImt': '', 'clinicalDiseases': '', 'createId': 0, 'createTime': '', 'diastolicBloodPressure': 0, 'empiId': '', 'fastingPlasmaGlucose': '', 'femoralArteryPulseWaveVelocity': '', 'hba1c': '', 'heartRate': 0, 'height': '', 'highDensityLipoproteinCholesterol': '', 'hoursUrinaryMicroalbumin': '', 'id': 0, 'isDelete': 0, 'isFamilyCoronaryHeartDisease': '', 'isFamilyHasHadAStroke': '', 'isFamilyHaveHighBloodPressure': '', 'leftVentricularHypertrophy': '', 'lowDensityLipoproteinCholesterol': '', 'managementLevel': '', 'managementLevelShow': '', 'measurementDate': '', 'measurementResult': '', 'measurementResultShow': '', 'montherCoronaryHeartDisease': '', 'name': '', 'serumCreatinine': '', 'sex': '', 'smoking': '', 'state': 0, 'systolicPressure': 0, 'totalCholesterol': '', 'updateId': 0, 'updateTime': '', 'urinaryTraceAlbumin': '', 'waistCircumference': '', 'weight': ''}</t>
+          <t>{"age": "", "ageAtOnsetOfMaternalHypertension": "", "ageAtOnsetOfSiblingStroke": "", "ageAtOnsetOfSisterStroke": "", "ageBrothersCoronaryHeartDisease": "", "ageFatherCoronaryHeartDisease": "", "ageOfMaternalStrokeOnset": "", "ageOfOnsetOfPaternalHypertension": "", "ageOfOnsetOfSisterHypertension": "", "ageOfOnsetOfStrokeInTheFather": "", "ageSisterCoronaryHeartDisease": "", "armBloodPressureIndex": "", "bloodGlucose2HoursPostprandial": "", "bloodHomocysteine": "", "brotherHypertensionOnsetAge": "", "carotidAtheroscleroticPlaque": "", "carotidUltrasoundImt": "", "clinicalDiseases": "", "createId": 0, "createTime": "", "diastolicBloodPressure": 0, "empiId": "", "fastingPlasmaGlucose": "", "femoralArteryPulseWaveVelocity": "", "hba1c": "", "heartRate": 0, "height": "", "highDensityLipoproteinCholesterol": "", "hoursUrinaryMicroalbumin": "", "id": 0, "isDelete": 0, "isFamilyCoronaryHeartDisease": "", "isFamilyHasHadAStroke": "", "isFamilyHaveHighBloodPressure": "", "leftVentricularHypertrophy": "", "lowDensityLipoproteinCholesterol": "", "managementLevel": "", "managementLevelShow": "", "measurementDate": "", "measurementResult": "", "measurementResultShow": "", "montherCoronaryHeartDisease": "", "name": "", "serumCreatinine": "", "sex": "", "smoking": "", "state": 0, "systolicPressure": 0, "totalCholesterol": "", "updateId": 0, "updateTime": "", "urinaryTraceAlbumin": "", "waistCircumference": "", "weight": ""}</t>
         </is>
       </c>
     </row>
@@ -2144,7 +2135,7 @@
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>{'doctorDesignatedFlag': 0, 'doctorId': 0, 'doctorName': '', 'idCardNo': '', 'itemId': '', 'name': '', 'orgId': 0, 'phone': ''}</t>
+          <t>{"doctorDesignatedFlag": 0, "doctorId": 0, "doctorName": "", "idCardNo": "", "itemId": "", "name": "", "orgId": 0, "phone": ""}</t>
         </is>
       </c>
     </row>
@@ -2177,7 +2168,7 @@
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>{'empiId': '', 'idCardNo': '', 'name': '', 'phone': ''}</t>
+          <t>{"empiId": "", "idCardNo": "", "name": "", "phone": ""}</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2358,7 @@
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>{'age': '', 'avatar': '', 'belongDocId': 0, 'birthday': '', 'code': '', 'dateAdded': '', 'empiId': '', 'followId': 0, 'grading': '', 'idCardNo': '', 'itemId': '', 'name': '', 'phone': '', 'sex': '', 'status': ''}</t>
+          <t>{"age": "", "avatar": "", "belongDocId": 0, "birthday": "", "code": "", "dateAdded": "", "empiId": "", "followId": 0, "grading": "", "idCardNo": "", "itemId": "", "name": "", "phone": "", "sex": "", "status": ""}</t>
         </is>
       </c>
     </row>
@@ -2432,7 +2423,7 @@
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>{'age': '', 'avatar': '', 'belongDocId': 0, 'birthday': '', 'code': '', 'dateAdded': '', 'empiId': '', 'followId': 0, 'grading': '', 'idCardNo': '', 'itemId': '', 'name': '', 'phone': '', 'sex': '', 'status': ''}</t>
+          <t>{"age": "", "avatar": "", "belongDocId": 0, "birthday": "", "code": "", "dateAdded": "", "empiId": "", "followId": 0, "grading": "", "idCardNo": "", "itemId": "", "name": "", "phone": "", "sex": "", "status": ""}</t>
         </is>
       </c>
     </row>
@@ -2551,7 +2542,7 @@
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>{'accCode': '', 'addr': '', 'age': '', 'applicationStatus': '', 'birthCity': '', 'birthDistrict': '', 'birthPlace': '', 'birthProvince': '', 'birthday': '', 'bloodType': '', 'cardNo': '', 'cardType': 0, 'cellphone': '', 'city': '', 'contactName': '', 'country': '', 'createId': 0, 'createTime': '', 'deathDate': '', 'deathIdentifier': 0, 'district': '', 'docId': 0, 'docName': '', 'education': '', 'email': '', 'empiId': '', 'externalNo': '', 'firmAddr': '', 'firmCity': '', 'firmDistrict': '', 'firmName': '', 'firmPhone': '', 'firmPostalCode': '', 'firmProvince': '', 'firstName': '', 'firstVisitDate': '', 'grading': '', 'healthCardNo': '', 'height': '', 'id': 0, 'idCardNo': '', 'infoSource': '', 'inputCode1': '', 'inputCode2': '', 'isDelete': 0, 'isMerged': 0, 'isSplited': 0, 'job': '', 'language': '', 'lastName': '', 'marriage': '', 'medicare': '', 'name': '', 'nation': '', 'nativeCity': '', 'nativeProvince': '', 'nowAddr': '', 'nowCity': '', 'nowDistrict': '', 'nowPostalCode': '', 'nowProvince': '', 'orgId': 0, 'pciSurgeryTime': '', 'personalPreference': '', 'phone': '', 'pidCard': '', 'province': '', 'recentVisitDate': '', 'registerAddr': '', 'registerCity': '', 'registerDistrict': '', 'registerPostalCode': '', 'registerProvince': '', 'relation': '', 'religion': '', 'remark': '', 'secrecyLevel': '', 'sex': 0, 'surgicalSite': '', 'telephone': '', 'updateId': 0, 'updateTime': '', 'weight': ''}</t>
+          <t>{"accCode": "", "addr": "", "age": "", "applicationStatus": "", "birthCity": "", "birthDistrict": "", "birthPlace": "", "birthProvince": "", "birthday": "", "bloodType": "", "cardNo": "", "cardType": 0, "cellphone": "", "city": "", "contactName": "", "country": "", "createId": 0, "createTime": "", "deathDate": "", "deathIdentifier": 0, "district": "", "docId": 0, "docName": "", "education": "", "email": "", "empiId": "", "externalNo": "", "firmAddr": "", "firmCity": "", "firmDistrict": "", "firmName": "", "firmPhone": "", "firmPostalCode": "", "firmProvince": "", "firstName": "", "firstVisitDate": "", "grading": "", "healthCardNo": "", "height": "", "id": 0, "idCardNo": "", "infoSource": "", "inputCode1": "", "inputCode2": "", "isDelete": 0, "isMerged": 0, "isSplited": 0, "job": "", "language": "", "lastName": "", "marriage": "", "medicare": "", "name": "", "nation": "", "nativeCity": "", "nativeProvince": "", "nowAddr": "", "nowCity": "", "nowDistrict": "", "nowPostalCode": "", "nowProvince": "", "orgId": 0, "pciSurgeryTime": "", "personalPreference": "", "phone": "", "pidCard": "", "province": "", "recentVisitDate": "", "registerAddr": "", "registerCity": "", "registerDistrict": "", "registerPostalCode": "", "registerProvince": "", "relation": "", "religion": "", "remark": "", "secrecyLevel": "", "sex": 0, "surgicalSite": "", "telephone": "", "updateId": 0, "updateTime": "", "weight": ""}</t>
         </is>
       </c>
     </row>
@@ -2584,7 +2575,7 @@
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>{'beginAge': 0, 'currentPage': 0, 'docName': '', 'endAge': 0, 'followUpComplete': '', 'groupType': '', 'name': '', 'orgId': 0, 'orgIdList': [], 'pageSize': 0, 'statusList': []}</t>
+          <t>{"beginAge": 0, "currentPage": 0, "docName": "", "endAge": 0, "followUpComplete": "", "groupType": "", "name": "", "orgId": 0, "orgIdList": [], "pageSize": 0, "statusList": []}</t>
         </is>
       </c>
     </row>
@@ -2799,7 +2790,7 @@
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>{'currPage': 0, 'followId': '', 'followUpComplete': '', 'itemId': 0, 'pageSize': 0, 'patientName': '', 'riskLevel': ''}</t>
+          <t>{"currPage": 0, "followId": "", "followUpComplete": "", "itemId": 0, "pageSize": 0, "patientName": "", "riskLevel": ""}</t>
         </is>
       </c>
     </row>
@@ -2832,7 +2823,7 @@
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>{'beginAge': 0, 'currentPage': 0, 'docName': '', 'endAge': 0, 'followUpComplete': '', 'groupType': '', 'name': '', 'orgId': 0, 'orgIdList': [], 'pageSize': 0, 'statusList': []}</t>
+          <t>{"beginAge": 0, "currentPage": 0, "docName": "", "endAge": 0, "followUpComplete": "", "groupType": "", "name": "", "orgId": 0, "orgIdList": [], "pageSize": 0, "statusList": []}</t>
         </is>
       </c>
     </row>
@@ -2962,7 +2953,7 @@
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>{'age': '', 'avatar': '', 'belongDocId': 0, 'birthday': '', 'completeTag': '', 'dateAdded': '', 'empiId': '', 'fatFlag': '', 'followId': 0, 'followUpStatus': '', 'formFinish': '', 'grading': '', 'gradingName': '', 'historyState': '', 'id': 0, 'idCardNo': '', 'itemId': '', 'name': '', 'phone': '', 'referralDocId': 0, 'riskLevel': '', 'riskLevelName': '', 'sex': '', 'sexName': '', 'state': 0, 'status': ''}</t>
+          <t>{"age": "", "avatar": "", "belongDocId": 0, "birthday": "", "completeTag": "", "dateAdded": "", "empiId": "", "fatFlag": "", "followId": 0, "followUpStatus": "", "formFinish": "", "grading": "", "gradingName": "", "historyState": "", "id": 0, "idCardNo": "", "itemId": "", "name": "", "phone": "", "referralDocId": 0, "riskLevel": "", "riskLevelName": "", "sex": "", "sexName": "", "state": 0, "status": ""}</t>
         </is>
       </c>
     </row>
@@ -2995,7 +2986,7 @@
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>{'age': '', 'avatar': '', 'belongDocId': 0, 'birthday': '', 'completeTag': '', 'dateAdded': '', 'empiId': '', 'fatFlag': '', 'followId': 0, 'followUpStatus': '', 'formFinish': '', 'grading': '', 'gradingName': '', 'historyState': '', 'id': 0, 'idCardNo': '', 'itemId': '', 'name': '', 'phone': '', 'referralDocId': 0, 'riskLevel': '', 'riskLevelName': '', 'sex': '', 'sexName': '', 'state': 0, 'status': ''}</t>
+          <t>{"age": "", "avatar": "", "belongDocId": 0, "birthday": "", "completeTag": "", "dateAdded": "", "empiId": "", "fatFlag": "", "followId": 0, "followUpStatus": "", "formFinish": "", "grading": "", "gradingName": "", "historyState": "", "id": 0, "idCardNo": "", "itemId": "", "name": "", "phone": "", "referralDocId": 0, "riskLevel": "", "riskLevelName": "", "sex": "", "sexName": "", "state": 0, "status": ""}</t>
         </is>
       </c>
     </row>
@@ -3028,7 +3019,7 @@
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>{'orgId': 0, 'orgName': ''}</t>
+          <t>{"orgId": 0, "orgName": ""}</t>
         </is>
       </c>
     </row>
@@ -3061,7 +3052,7 @@
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>{'age': '', 'avatar': '', 'belongDocId': 0, 'birthday': '', 'completeTag': '', 'dateAdded': '', 'empiId': '', 'fatFlag': '', 'followId': 0, 'followUpStatus': '', 'formFinish': '', 'grading': '', 'gradingName': '', 'historyState': '', 'id': 0, 'idCardNo': '', 'itemId': '', 'name': '', 'phone': '', 'referralDocId': 0, 'riskLevel': '', 'riskLevelName': '', 'sex': '', 'sexName': '', 'state': 0, 'status': ''}</t>
+          <t>{"age": "", "avatar": "", "belongDocId": 0, "birthday": "", "completeTag": "", "dateAdded": "", "empiId": "", "fatFlag": "", "followId": 0, "followUpStatus": "", "formFinish": "", "grading": "", "gradingName": "", "historyState": "", "id": 0, "idCardNo": "", "itemId": "", "name": "", "phone": "", "referralDocId": 0, "riskLevel": "", "riskLevelName": "", "sex": "", "sexName": "", "state": 0, "status": ""}</t>
         </is>
       </c>
     </row>
@@ -3155,7 +3146,7 @@
       <c r="F2" s="0" t="inlineStr"/>
       <c r="G2" s="0" t="inlineStr">
         <is>
-          <t>{'breviary': '', 'createType': 0, 'docId': 0, 'docName': '', 'messageContent': '', 'messageTime': '', 'messageType': 0, 'patientId': '', 'patientName': ''}</t>
+          <t>{"breviary": "", "createType": 0, "docId": 0, "docName": "", "messageContent": "", "messageTime": "", "messageType": 0, "patientId": "", "patientName": ""}</t>
         </is>
       </c>
     </row>
@@ -3188,7 +3179,7 @@
       <c r="F3" s="0" t="inlineStr"/>
       <c r="G3" s="0" t="inlineStr">
         <is>
-          <t>{'breviary': '', 'createType': 0, 'docId': 0, 'docName': '', 'messageContent': '', 'messageTime': '', 'messageType': 0, 'patientId': '', 'patientName': ''}</t>
+          <t>{"breviary": "", "createType": 0, "docId": 0, "docName": "", "messageContent": "", "messageTime": "", "messageType": 0, "patientId": "", "patientName": ""}</t>
         </is>
       </c>
     </row>
@@ -3221,7 +3212,7 @@
       <c r="F4" s="0" t="inlineStr"/>
       <c r="G4" s="0" t="inlineStr">
         <is>
-          <t>{'bucket': '', 'isCover': '', 'name': '', 'password': '', 'size': 0, 'userName': ''}</t>
+          <t>{"bucket": "", "isCover": "", "name": "", "password": "", "size": 0, "userName": ""}</t>
         </is>
       </c>
     </row>
@@ -3574,7 +3565,7 @@
       <c r="F15" s="0" t="inlineStr"/>
       <c r="G15" s="0" t="inlineStr">
         <is>
-          <t>{'createId': 0, 'createTime': '', 'distance': '', 'duration': '', 'empiId': '', 'endTime': '', 'exerciseCode': '', 'exerciseName': '', 'id': 0, 'isDelete': 0, 'pathOfParticle': '', 'recordingTime': '', 'speed': '', 'startTime': '', 'totalTime': 0, 'updateId': 0, 'updateTime': '', 'userId': 0}</t>
+          <t>{"createId": 0, "createTime": "", "distance": "", "duration": "", "empiId": "", "endTime": "", "exerciseCode": "", "exerciseName": "", "id": 0, "isDelete": 0, "pathOfParticle": "", "recordingTime": "", "speed": "", "startTime": "", "totalTime": 0, "updateId": 0, "updateTime": "", "userId": 0}</t>
         </is>
       </c>
     </row>
@@ -3607,7 +3598,7 @@
       <c r="F16" s="0" t="inlineStr"/>
       <c r="G16" s="0" t="inlineStr">
         <is>
-          <t>{'createId': 0, 'createTime': '', 'empiId': '', 'hdlcholesterol': '?', 'id': 0, 'isDelete': 0, 'ldlcholesterol': '?', 'rank': '', 'recordingTime': '', 'totalCholesterol': '?', 'triglyceride': '?', 'updateId': 0, 'updateTime': '', 'userId': 0}</t>
+          <t>{"createId": 0, "createTime": "", "empiId": "", "hdlcholesterol": "?", "id": 0, "isDelete": 0, "ldlcholesterol": "?", "rank": "", "recordingTime": "", "totalCholesterol": "?", "triglyceride": "?", "updateId": 0, "updateTime": "", "userId": 0}</t>
         </is>
       </c>
     </row>
@@ -3736,7 +3727,7 @@
       <c r="F20" s="0" t="inlineStr"/>
       <c r="G20" s="0" t="inlineStr">
         <is>
-          <t>{'createId': 0, 'createTime': '', 'diastolicBloodPressure': 0, 'empiId': '', 'heartRate': 0, 'id': 0, 'isDelete': 0, 'measurementDate': '', 'measuringTime': '', 'rank': '', 'systolicPressure': 0, 'updateId': 0, 'updateTime': '', 'userId': 0}</t>
+          <t>{"createId": 0, "createTime": "", "diastolicBloodPressure": 0, "empiId": "", "heartRate": 0, "id": 0, "isDelete": 0, "measurementDate": "", "measuringTime": "", "rank": "", "systolicPressure": 0, "updateId": 0, "updateTime": "", "userId": 0}</t>
         </is>
       </c>
     </row>
@@ -3948,7 +3939,7 @@
       <c r="F27" s="0" t="inlineStr"/>
       <c r="G27" s="0" t="inlineStr">
         <is>
-          <t>{'createId': 0, 'createTime': '', 'diastolicBloodPressure': 0, 'empiId': '', 'heartRate': 0, 'id': 0, 'isDelete': 0, 'measurementDate': '', 'measuringTime': '', 'rank': '', 'systolicPressure': 0, 'updateId': 0, 'updateTime': '', 'userId': 0}</t>
+          <t>{"createId": 0, "createTime": "", "diastolicBloodPressure": 0, "empiId": "", "heartRate": 0, "id": 0, "isDelete": 0, "measurementDate": "", "measuringTime": "", "rank": "", "systolicPressure": 0, "updateId": 0, "updateTime": "", "userId": 0}</t>
         </is>
       </c>
     </row>
@@ -3981,7 +3972,7 @@
       <c r="F28" s="0" t="inlineStr"/>
       <c r="G28" s="0" t="inlineStr">
         <is>
-          <t>{'createId': 0, 'createTime': '', 'diastolicBloodPressure': 0, 'empiId': '', 'heartRate': 0, 'id': 0, 'isDelete': 0, 'measurementDate': '', 'measuringTime': '', 'rank': '', 'systolicPressure': 0, 'updateId': 0, 'updateTime': '', 'userId': 0}</t>
+          <t>{"createId": 0, "createTime": "", "diastolicBloodPressure": 0, "empiId": "", "heartRate": 0, "id": 0, "isDelete": 0, "measurementDate": "", "measuringTime": "", "rank": "", "systolicPressure": 0, "updateId": 0, "updateTime": "", "userId": 0}</t>
         </is>
       </c>
     </row>
@@ -4014,7 +4005,7 @@
       <c r="F29" s="0" t="inlineStr"/>
       <c r="G29" s="0" t="inlineStr">
         <is>
-          <t>{'bloodSugar': '?', 'bloodSugarType': 0, 'createId': 0, 'createTime': '', 'empiId': '', 'id': 0, 'isDelete': 0, 'rank': '', 'recordingTime': '', 'updateId': 0, 'updateTime': '', 'userId': 0}</t>
+          <t>{"bloodSugar": "?", "bloodSugarType": 0, "createId": 0, "createTime": "", "empiId": "", "id": 0, "isDelete": 0, "rank": "", "recordingTime": "", "updateId": 0, "updateTime": "", "userId": 0}</t>
         </is>
       </c>
     </row>
@@ -4143,7 +4134,7 @@
       <c r="F33" s="0" t="inlineStr"/>
       <c r="G33" s="0" t="inlineStr">
         <is>
-          <t>{'bmi': '?', 'bodyFatRate': '?', 'createId': 0, 'createTime': '', 'empiId': '', 'height': 0, 'id': 0, 'isDelete': 0, 'rank': '', 'recordingTime': '', 'updateId': 0, 'updateTime': '', 'userId': 0, 'weight': '?'}</t>
+          <t>{"bmi": "?", "bodyFatRate": "?", "createId": 0, "createTime": "", "empiId": "", "height": 0, "id": 0, "isDelete": 0, "rank": "", "recordingTime": "", "updateId": 0, "updateTime": "", "userId": 0, "weight": "?"}</t>
         </is>
       </c>
     </row>
@@ -4235,7 +4226,7 @@
       <c r="F36" s="0" t="inlineStr"/>
       <c r="G36" s="0" t="inlineStr">
         <is>
-          <t>{'createId': 0, 'createTime': '', 'empiId': '', 'endSleep': '', 'id': 0, 'isDelete': 0, 'recordingTime': '', 'sleepDuration': '', 'startSleep': '', 'updateId': 0, 'updateTime': '', 'userId': 0}</t>
+          <t>{"createId": 0, "createTime": "", "empiId": "", "endSleep": "", "id": 0, "isDelete": 0, "recordingTime": "", "sleepDuration": "", "startSleep": "", "updateId": 0, "updateTime": "", "userId": 0}</t>
         </is>
       </c>
     </row>
@@ -4891,7 +4882,7 @@
       <c r="F57" s="0" t="inlineStr"/>
       <c r="G57" s="0" t="inlineStr">
         <is>
-          <t>{'code': '', 'empiId': '', 'idCardNo': '', 'name': '', 'phone': ''}</t>
+          <t>{"code": "", "empiId": "", "idCardNo": "", "name": "", "phone": ""}</t>
         </is>
       </c>
     </row>
@@ -4924,7 +4915,7 @@
       <c r="F58" s="0" t="inlineStr"/>
       <c r="G58" s="0" t="inlineStr">
         <is>
-          <t>{'empiId': '', 'idCardNo': '', 'name': ''}</t>
+          <t>{"empiId": "", "idCardNo": "", "name": ""}</t>
         </is>
       </c>
     </row>
@@ -4957,7 +4948,7 @@
       <c r="F59" s="0" t="inlineStr"/>
       <c r="G59" s="0" t="inlineStr">
         <is>
-          <t>{'createId': 0, 'createTime': '', 'dosage': '', 'drugName': '', 'id': 0, 'medicationTime': '', 'updateId': 0, 'updateTime': '', 'userId': 0}</t>
+          <t>{"createId": 0, "createTime": "", "dosage": "", "drugName": "", "id": 0, "medicationTime": "", "updateId": 0, "updateTime": "", "userId": 0}</t>
         </is>
       </c>
     </row>
@@ -5088,7 +5079,7 @@
       <c r="F64" s="0" t="inlineStr"/>
       <c r="G64" s="0" t="inlineStr">
         <is>
-          <t>{'beforeMedicationTime': '', 'medicationTime': '', 'reminderList': []}</t>
+          <t>{"beforeMedicationTime": "", "medicationTime": "", "reminderList": []}</t>
         </is>
       </c>
     </row>
@@ -5157,6 +5148,1351 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>summary</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>paths</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>consumes</t>
+        </is>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
+          <t>query</t>
+        </is>
+      </c>
+      <c r="G1" s="0" t="inlineStr">
+        <is>
+          <t>body</t>
+        </is>
+      </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>parameters [参数名称，参数说明，请求类型，是否必须，数据类型，schema]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>随访模块接口</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>获取app端患者对应的随访信息</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>/ecg/ecgFollowInfo/selectPIdByRemindMsg</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>随访模块接口</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>更新患者为已读状态</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>/ecg/ecgFollowInfo/updatePatientRemind</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>put</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F3" s="0" t="inlineStr"/>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>{"hospitalName": "", "id": 0, "isRead": 0, "remindCount": 0, "remindTime": ""}</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>患者项目关系表接口</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>新增</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>/ecg/ecgPatientItemRelation/create</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="inlineStr">
+        <is>
+          <t>createId={integer}&amp;createTime={string}&amp;empId={string}&amp;id={integer}&amp;isDelete={integer}&amp;itemId={integer}&amp;updateId={integer}&amp;updateTime={string}</t>
+        </is>
+      </c>
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>[{'name': 'createId', 'in': 'query', 'description': '创建者ID', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'createTime', 'in': 'query', 'description': '创建时间', 'required': False, 'type': 'string', 'format': 'date-time'}, {'name': 'empId', 'in': 'query', 'description': '患者empId（对应患者信息表中的empId）', 'required': False, 'type': 'string'}, {'name': 'id', 'in': 'query', 'description': '主键', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'isDelete', 'in': 'query', 'description': '是否删除', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'itemId', 'in': 'query', 'description': '项目id', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'updateId', 'in': 'query', 'description': '编辑者ID', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'updateTime', 'in': 'query', 'description': '编辑时间', 'required': False, 'type': 'string', 'format': 'date-time'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>患者项目关系表接口</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>删除</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>/ecg/ecgPatientItemRelation/delete/{id}</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>delete</t>
+        </is>
+      </c>
+      <c r="F5" s="0" t="inlineStr"/>
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>[{'name': 'id', 'in': 'path', 'description': '数据对象id', 'required': False, 'type': 'string'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>患者项目关系表接口</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>分页查询</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>/ecg/ecgPatientItemRelation/page</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>[{'name': 'currPage', 'description': '当前页', 'required': False, 'schema': {'type': 'integer', 'format': 'int32'}}, {'name': 'pageSize', 'description': '每页显示数量', 'required': False, 'schema': {'type': 'integer', 'format': 'int32'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>患者项目关系表接口</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>通过ID获取一条数据</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>/ecg/ecgPatientItemRelation/read/{id}</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="inlineStr"/>
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>[{'name': 'id', 'in': 'path', 'description': '数据对象id', 'required': False, 'type': 'string'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>患者项目关系表接口</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>更新</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>/ecg/ecgPatientItemRelation/update</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>put</t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F8" s="0" t="inlineStr">
+        <is>
+          <t>createId={integer}&amp;createTime={string}&amp;empId={string}&amp;id={integer}&amp;isDelete={integer}&amp;itemId={integer}&amp;updateId={integer}&amp;updateTime={string}</t>
+        </is>
+      </c>
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>[{'name': 'createId', 'in': 'query', 'description': '创建者ID', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'createTime', 'in': 'query', 'description': '创建时间', 'required': False, 'type': 'string', 'format': 'date-time'}, {'name': 'empId', 'in': 'query', 'description': '患者empId（对应患者信息表中的empId）', 'required': False, 'type': 'string'}, {'name': 'id', 'in': 'query', 'description': '主键', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'isDelete', 'in': 'query', 'description': '是否删除', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'itemId', 'in': 'query', 'description': '项目id', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'updateId', 'in': 'query', 'description': '编辑者ID', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'updateTime', 'in': 'query', 'description': '编辑时间', 'required': False, 'type': 'string', 'format': 'date-time'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>test1测试用表</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>新增</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>/ecg/genTest1/create</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F9" s="0" t="inlineStr">
+        <is>
+          <t>id={integer}&amp;testName={string}</t>
+        </is>
+      </c>
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>[{'name': 'id', 'in': 'query', 'description': '主健id', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'testName', 'in': 'query', 'description': '测试字段值', 'required': False, 'type': 'string'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>test1测试用表</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>删除</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>/ecg/genTest1/delete/{id}</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>delete</t>
+        </is>
+      </c>
+      <c r="F10" s="0" t="inlineStr"/>
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>[{'name': 'id', 'in': 'path', 'description': '数据对象id', 'required': False, 'type': 'string'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>test1测试用表</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>分页查询</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>/ecg/genTest1/page</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>[{'name': 'currPage', 'description': '当前页', 'required': False, 'schema': {'type': 'integer', 'format': 'int32'}}, {'name': 'pageSize', 'description': '每页显示数量', 'required': False, 'schema': {'type': 'integer', 'format': 'int32'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>test1测试用表</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>通过ID获取一条数据</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>/ecg/genTest1/read/{id}</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F12" s="0" t="inlineStr"/>
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>[{'name': 'id', 'in': 'path', 'description': '数据对象id', 'required': False, 'type': 'string'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>test1测试用表</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>更新</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>/ecg/genTest1/update</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>put</t>
+        </is>
+      </c>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F13" s="0" t="inlineStr">
+        <is>
+          <t>id={integer}&amp;testName={string}</t>
+        </is>
+      </c>
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>[{'name': 'id', 'in': 'query', 'description': '主健id', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'testName', 'in': 'query', 'description': '测试字段值', 'required': False, 'type': 'string'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>测试用表2</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>新增</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>/ecg/genTest2/create</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F14" s="0" t="inlineStr">
+        <is>
+          <t>id={integer}&amp;testName={string}</t>
+        </is>
+      </c>
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>[{'name': 'id', 'in': 'query', 'description': '主健id', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'testName', 'in': 'query', 'description': '测试字段名', 'required': False, 'type': 'string'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>测试用表2</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>删除</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>/ecg/genTest2/delete/{id}</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>delete</t>
+        </is>
+      </c>
+      <c r="F15" s="0" t="inlineStr"/>
+      <c r="H15" s="0" t="inlineStr">
+        <is>
+          <t>[{'name': 'id', 'in': 'path', 'description': '数据对象id', 'required': False, 'type': 'string'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>测试用表2</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>分页查询</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>/ecg/genTest2/page</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H16" s="0" t="inlineStr">
+        <is>
+          <t>[{'name': 'currPage', 'description': '当前页', 'required': False, 'schema': {'type': 'integer', 'format': 'int32'}}, {'name': 'pageSize', 'description': '每页显示数量', 'required': False, 'schema': {'type': 'integer', 'format': 'int32'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>测试用表2</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>通过ID获取一条数据</t>
+        </is>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>/ecg/genTest2/read/{id}</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F17" s="0" t="inlineStr"/>
+      <c r="H17" s="0" t="inlineStr">
+        <is>
+          <t>[{'name': 'id', 'in': 'path', 'description': '数据对象id', 'required': False, 'type': 'string'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>测试用表2</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>更新</t>
+        </is>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>/ecg/genTest2/update</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>put</t>
+        </is>
+      </c>
+      <c r="E18" s="0" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F18" s="0" t="inlineStr">
+        <is>
+          <t>id={integer}&amp;testName={string}</t>
+        </is>
+      </c>
+      <c r="H18" s="0" t="inlineStr">
+        <is>
+          <t>[{'name': 'id', 'in': 'query', 'description': '主健id', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'testName', 'in': 'query', 'description': '测试字段名', 'required': False, 'type': 'string'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>心电报告表接口</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>手机端查看当前登陆人心电报告</t>
+        </is>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>/ecg/report/mobileTerminalGetReport</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>心电报告表接口</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>同步心电报告</t>
+        </is>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>/ecg/report/transEcgReport</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E20" s="0" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F20" s="0" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>患者、账号关系表接口</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>绑定用户</t>
+        </is>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>/ecg/tBandingWxRelation/bandingPatient</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E21" s="0" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F21" s="0" t="inlineStr">
+        <is>
+          <t>healthCardNo={*string}&amp;name={*string}</t>
+        </is>
+      </c>
+      <c r="H21" s="0" t="inlineStr">
+        <is>
+          <t>[{'name': 'healthCardNo', 'in': 'query', 'description': 'healthCardNo', 'required': True, 'type': 'string'}, {'name': 'name', 'in': 'query', 'description': 'name', 'required': True, 'type': 'string'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>患者、账号关系表接口</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>撤销绑定</t>
+        </is>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>/ecg/tBandingWxRelation/cancelBanding</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E22" s="0" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F22" s="0" t="inlineStr">
+        <is>
+          <t>empiId={string}</t>
+        </is>
+      </c>
+      <c r="H22" s="0" t="inlineStr">
+        <is>
+          <t>[{'name': 'empiId', 'in': 'query', 'description': 'ecg用户id', 'required': False, 'type': 'string'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>患者、账号关系表接口</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>获取动态验证码</t>
+        </is>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>/ecg/tBandingWxRelation/getMsgCode</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F23" s="0" t="inlineStr">
+        <is>
+          <t>phone={*string}</t>
+        </is>
+      </c>
+      <c r="H23" s="0" t="inlineStr">
+        <is>
+          <t>[{'name': 'phone', 'in': 'query', 'description': '手机号码', 'required': True, 'type': 'string'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>患者、账号关系表接口</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>根据身份证和姓名查询患者</t>
+        </is>
+      </c>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>/ecg/tBandingWxRelation/getPatientByRule</t>
+        </is>
+      </c>
+      <c r="D24" s="0" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F24" s="0" t="inlineStr">
+        <is>
+          <t>healthCardNo={string}&amp;name={string}</t>
+        </is>
+      </c>
+      <c r="H24" s="0" t="inlineStr">
+        <is>
+          <t>[{'name': 'healthCardNo', 'in': 'query', 'description': '健康卡号', 'required': False, 'type': 'string'}, {'name': 'name', 'in': 'query', 'description': '姓名', 'required': False, 'type': 'string'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>患者、账号关系表接口</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>通过手机验证码查询绑定患者信息</t>
+        </is>
+      </c>
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t>/ecg/tBandingWxRelation/getPatientByRuleAndPhoneCode</t>
+        </is>
+      </c>
+      <c r="D25" s="0" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F25" s="0" t="inlineStr">
+        <is>
+          <t>code={*string}&amp;healthCardNo={*string}&amp;name={*string}&amp;phoneNumber={*string}</t>
+        </is>
+      </c>
+      <c r="H25" s="0" t="inlineStr">
+        <is>
+          <t>[{'name': 'code', 'in': 'query', 'description': '验证码', 'required': True, 'type': 'string'}, {'name': 'healthCardNo', 'in': 'query', 'description': '健康卡号', 'required': True, 'type': 'string'}, {'name': 'name', 'in': 'query', 'description': '姓名', 'required': True, 'type': 'string'}, {'name': 'phoneNumber', 'in': 'query', 'description': '手机号码', 'required': True, 'type': 'string'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>患者、账号关系表接口</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>是否绑定绑定用户</t>
+        </is>
+      </c>
+      <c r="C26" s="0" t="inlineStr">
+        <is>
+          <t>/ecg/tBandingWxRelation/isBanding</t>
+        </is>
+      </c>
+      <c r="D26" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E26" s="0" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>医生短信服务信息表接口</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>发送异常心电短信通知</t>
+        </is>
+      </c>
+      <c r="C27" s="0" t="inlineStr">
+        <is>
+          <t>/ecg/tDocMsgInfo/sendNoticeMsg</t>
+        </is>
+      </c>
+      <c r="D27" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E27" s="0" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F27" s="0" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>心电异常提醒接口</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t>保存异常心电报告数据到云服务</t>
+        </is>
+      </c>
+      <c r="C28" s="0" t="inlineStr">
+        <is>
+          <t>/ecg/tEcgRemindInfo/saveAbnormalReport</t>
+        </is>
+      </c>
+      <c r="D28" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E28" s="0" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F28" s="0" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>接口</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t>定时获取短信通知记录</t>
+        </is>
+      </c>
+      <c r="C29" s="0" t="inlineStr">
+        <is>
+          <t>/ecg/tMsgRecord/recordList</t>
+        </is>
+      </c>
+      <c r="D29" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E29" s="0" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F29" s="0" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>接口</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>更新短信记录状态</t>
+        </is>
+      </c>
+      <c r="C30" s="0" t="inlineStr">
+        <is>
+          <t>/ecg/tMsgRecord/recordStatus</t>
+        </is>
+      </c>
+      <c r="D30" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E30" s="0" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F30" s="0" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>患者信息表接口</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t>新增</t>
+        </is>
+      </c>
+      <c r="C31" s="0" t="inlineStr">
+        <is>
+          <t>/ecg/tPatientInfo/create</t>
+        </is>
+      </c>
+      <c r="D31" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E31" s="0" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F31" s="0" t="inlineStr">
+        <is>
+          <t>EMail={string}&amp;PIdCard={string}&amp;accCode={string}&amp;addr={string}&amp;age={string}&amp;birthCity={string}&amp;birthDistrict={string}&amp;birthPlace={string}&amp;birthProvince={string}&amp;birthday={string}&amp;bloodType={string}&amp;cardNo={string}&amp;cardType={integer}&amp;cellphone={string}&amp;city={string}&amp;contactName={string}&amp;country={string}&amp;createIdEcg={integer}&amp;createTimeEcg={string}&amp;deathDate={string}&amp;deathIdentifier={integer}&amp;district={string}&amp;docId={string}&amp;education={string}&amp;empiId={string}&amp;externalNo={string}&amp;firmAddr={string}&amp;firmCity={string}&amp;firmDistrict={string}&amp;firmName={string}&amp;firmPhone={string}&amp;firmPostalCode={string}&amp;firmProvince={string}&amp;firstName={string}&amp;firstVisitDate={string}&amp;followPlanId={integer}&amp;followUpName={string}&amp;healthCardNo={string}&amp;height={string}&amp;id={integer}&amp;idCardNo={string}&amp;infoSource={string}&amp;inputCode1={string}&amp;inputCode2={string}&amp;isDeleteEcg={integer}&amp;isMerged={integer}&amp;isSplited={integer}&amp;itemId={integer}&amp;job={string}&amp;language={string}&amp;lastName={string}&amp;marriage={string}&amp;medicare={string}&amp;name={string}&amp;nation={string}&amp;nativeCity={string}&amp;nativeProvince={string}&amp;nowAddr={string}&amp;nowCity={string}&amp;nowDistrict={string}&amp;nowPostalCode={string}&amp;nowProvince={string}&amp;personalPreference={string}&amp;phone={string}&amp;province={string}&amp;recentVisitDate={string}&amp;registerAddr={string}&amp;registerCity={string}&amp;registerDistrict={string}&amp;registerPostalCode={string}&amp;registerProvince={string}&amp;relation={string}&amp;religion={string}&amp;remark={string}&amp;secrecyLevel={string}&amp;sex={integer}&amp;sexStr={string}&amp;telephone={string}&amp;updateIdEcg={integer}&amp;updateTimeEcg={string}&amp;versionsId={integer}&amp;weight={string}</t>
+        </is>
+      </c>
+      <c r="H31" s="0" t="inlineStr">
+        <is>
+          <t>[{'name': 'EMail', 'in': 'query', 'required': False, 'type': 'string'}, {'name': 'PIdCard', 'in': 'query', 'required': False, 'type': 'string'}, {'name': 'accCode', 'in': 'query', 'description': '付费类型', 'required': False, 'type': 'string'}, {'name': 'addr', 'in': 'query', 'description': '具体地址', 'required': False, 'type': 'string'}, {'name': 'age', 'in': 'query', 'description': '年龄', 'required': False, 'type': 'string'}, {'name': 'birthCity', 'in': 'query', 'description': '出生地市', 'required': False, 'type': 'string'}, {'name': 'birthDistrict', 'in': 'query', 'description': '出生地区县', 'required': False, 'type': 'string'}, {'name': 'birthPlace', 'in': 'query', 'description': '出生地', 'required': False, 'type': 'string'}, {'name': 'birthProvince', 'in': 'query', 'description': '出生地州省', 'required': False, 'type': 'string'}, {'name': 'birthday', 'in': 'query', 'description': '出生日期', 'required': False, 'type': 'string'}, {'name': 'bloodType', 'in': 'query', 'description': '血型', 'required': False, 'type': 'string'}, {'name': 'cardNo', 'in': 'query', 'description': '卡号', 'required': False, 'type': 'string'}, {'name': 'cardType', 'in': 'query', 'description': '卡类型', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'cellphone', 'in': 'query', 'description': '手机', 'required': False, 'type': 'string'}, {'name': 'city', 'in': 'query', 'description': '市', 'required': False, 'type': 'string'}, {'name': 'contactName', 'in': 'query', 'description': '联系姓名', 'required': False, 'type': 'string'}, {'name': 'country', 'in': 'query', 'description': '国家', 'required': False, 'type': 'string'}, {'name': 'createIdEcg', 'in': 'query', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'createTimeEcg', 'in': 'query', 'required': False, 'type': 'string', 'format': 'date-time'}, {'name': 'deathDate', 'in': 'query', 'description': '死亡日期', 'required': False, 'type': 'string'}, {'name': 'deathIdentifier', 'in': 'query', 'description': '死亡标识符', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'district', 'in': 'query', 'description': '区县', 'required': False, 'type': 'string'}, {'name': 'docId', 'in': 'query', 'description': '医生id', 'required': False, 'type': 'string'}, {'name': 'education', 'in': 'query', 'description': '学历', 'required': False, 'type': 'string'}, {'name': 'empiId', 'in': 'query', 'description': 'EMPI索引', 'required': False, 'type': 'string'}, {'name': 'externalNo', 'in': 'query', 'description': '外部编号', 'required': False, 'type': 'string'}, {'name': 'firmAddr', 'in': 'query', 'description': '单位具体地址', 'required': False, 'type': 'string'}, {'name': 'firmCity', 'in': 'query', 'description': '单位市', 'required': False, 'type': 'string'}, {'name': 'firmDistrict', 'in': 'query', 'description': '单位区县', 'required': False, 'type': 'string'}, {'name': 'firmName', 'in': 'query', 'description': '单位名称', 'required': False, 'type': 'string'}, {'name': 'firmPhone', 'in': 'query', 'description': '单位电话', 'required': False, 'type': 'string'}, {'name': 'firmPostalCode', 'in': 'query', 'description': '单位邮政编码', 'required': False, 'type': 'string'}, {'name': 'firmProvince', 'in': 'query', 'description': '单位州省', 'required': False, 'type': 'string'}, {'name': 'firstName', 'in': 'query', 'description': '名', 'required': False, 'type': 'string'}, {'name': 'firstVisitDate', 'in': 'query', 'description': '首次就诊日期', 'required': False, 'type': 'string', 'format': 'date-time'}, {'name': 'followPlanId', 'in': 'query', 'description': '用于前端放入随访方案id', 'required': False, 'type': 'integer', 'format': 'int64'}, {'name': 'followUpName', 'in': 'query', 'description': '用于前端放入随访方案名称', 'required': False, 'type': 'string'}, {'name': 'healthCardNo', 'in': 'query', 'description': '健康卡号', 'required': False, 'type': 'string'}, {'name': 'height', 'in': 'query', 'description': '身高', 'required': False, 'type': 'string'}, {'name': 'id', 'in': 'query', 'description': '主键id', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'idCardNo', 'in': 'query', 'description': '身份证号', 'required': False, 'type': 'string'}, {'name': 'infoSource', 'in': 'query', 'description': '信息来源', 'required': False, 'type': 'string'}, {'name': 'inputCode1', 'in': 'query', 'description': '输入码1', 'required': False, 'type': 'string'}, {'name': 'inputCode2', 'in': 'query', 'description': '输入码2', 'required': False, 'type': 'string'}, {'name': 'isDeleteEcg', 'in': 'query', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'isMerged', 'in': 'query', 'description': '是否有合并纪录', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'isSplited', 'in': 'query', 'description': '是否有拆分纪录', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'itemId', 'in': 'query', 'description': '用于前端放入项目id', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'job', 'in': 'query', 'description': '职业', 'required': False, 'type': 'string'}, {'name': 'language', 'in': 'query', 'description': '语言', 'required': False, 'type': 'string'}, {'name': 'lastName', 'in': 'query', 'description': '姓', 'required': False, 'type': 'string'}, {'name': 'marriage', 'in': 'query', 'description': '婚姻', 'required': False, 'type': 'string'}, {'name': 'medicare', 'in': 'query', 'description': '医保卡号', 'required': False, 'type': 'string'}, {'name': 'name', 'in': 'query', 'description': '姓名', 'required': False, 'type': 'string'}, {'name': 'nation', 'in': 'query', 'description': '民族', 'required': False, 'type': 'string'}, {'name': 'nativeCity', 'in': 'query', 'description': '籍贯市', 'required': False, 'type': 'string'}, {'name': 'nativeProvince', 'in': 'query', 'description': '籍贯省', 'required': False, 'type': 'string'}, {'name': 'nowAddr', 'in': 'query', 'description': '现住址具体地址', 'required': False, 'type': 'string'}, {'name': 'nowCity', 'in': 'query', 'description': '现住址市', 'required': False, 'type': 'string'}, {'name': 'nowDistrict', 'in': 'query', 'description': '现住址区县', 'required': False, 'type': 'string'}, {'name': 'nowPostalCode', 'in': 'query', 'description': '现住址邮政编码', 'required': False, 'type': 'string'}, {'name': 'nowProvince', 'in': 'query', 'description': '现住址州省', 'required': False, 'type': 'string'}, {'name': 'personalPreference', 'in': 'query', 'description': '个人偏好', 'required': False, 'type': 'string'}, {'name': 'phone', 'in': 'query', 'description': '电话', 'required': False, 'type': 'string'}, {'name': 'province', 'in': 'query', 'description': '州省', 'required': False, 'type': 'string'}, {'name': 'recentVisitDate', 'in': 'query', 'description': '最近就诊日期', 'required': False, 'type': 'string', 'format': 'date-time'}, {'name': 'registerAddr', 'in': 'query', 'description': '户口具体地址', 'required': False, 'type': 'string'}, {'name': 'registerCity', 'in': 'query', 'description': '户口市', 'required': False, 'type': 'string'}, {'name': 'registerDistrict', 'in': 'query', 'description': '户口区县', 'required': False, 'type': 'string'}, {'name': 'registerPostalCode', 'in': 'query', 'description': '户口邮政编码', 'required': False, 'type': 'string'}, {'name': 'registerProvince', 'in': 'query', 'description': '户口州省', 'required': False, 'type': 'string'}, {'name': 'relation', 'in': 'query', 'description': '联系关系', 'required': False, 'type': 'string'}, {'name': 'religion', 'in': 'query', 'description': '宗教信仰', 'required': False, 'type': 'string'}, {'name': 'remark', 'in': 'query', 'description': '备注', 'required': False, 'type': 'string'}, {'name': 'secrecyLevel', 'in': 'query', 'description': '保密级别', 'required': False, 'type': 'string'}, {'name': 'sex', 'in': 'query', 'description': '性别', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'sexStr', 'in': 'query', 'description': '性别字符串', 'required': False, 'type': 'string'}, {'name': 'telephone', 'in': 'query', 'description': '联系电话', 'required': False, 'type': 'string'}, {'name': 'updateIdEcg', 'in': 'query', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'updateTimeEcg', 'in': 'query', 'required': False, 'type': 'string', 'format': 'date-time'}, {'name': 'versionsId', 'in': 'query', 'description': '用于前端放入版本id', 'required': False, 'type': 'integer', 'format': 'int64'}, {'name': 'weight', 'in': 'query', 'description': '体重', 'required': False, 'type': 'string'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>患者信息表接口</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t>删除</t>
+        </is>
+      </c>
+      <c r="C32" s="0" t="inlineStr">
+        <is>
+          <t>/ecg/tPatientInfo/delete/{id}</t>
+        </is>
+      </c>
+      <c r="D32" s="0" t="inlineStr">
+        <is>
+          <t>delete</t>
+        </is>
+      </c>
+      <c r="F32" s="0" t="inlineStr"/>
+      <c r="H32" s="0" t="inlineStr">
+        <is>
+          <t>[{'name': 'id', 'in': 'path', 'description': '数据对象id', 'required': False, 'type': 'string'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>患者信息表接口</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="inlineStr">
+        <is>
+          <t>分页查询</t>
+        </is>
+      </c>
+      <c r="C33" s="0" t="inlineStr">
+        <is>
+          <t>/ecg/tPatientInfo/page</t>
+        </is>
+      </c>
+      <c r="D33" s="0" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H33" s="0" t="inlineStr">
+        <is>
+          <t>[{'name': 'currPage', 'description': '当前页', 'required': False, 'schema': {'type': 'integer', 'format': 'int32'}}, {'name': 'pageSize', 'description': '每页显示数量', 'required': False, 'schema': {'type': 'integer', 'format': 'int32'}}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>患者信息表接口</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="inlineStr">
+        <is>
+          <t>通过ID获取一条数据</t>
+        </is>
+      </c>
+      <c r="C34" s="0" t="inlineStr">
+        <is>
+          <t>/ecg/tPatientInfo/read/{id}</t>
+        </is>
+      </c>
+      <c r="D34" s="0" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F34" s="0" t="inlineStr"/>
+      <c r="H34" s="0" t="inlineStr">
+        <is>
+          <t>[{'name': 'id', 'in': 'path', 'description': '数据对象id', 'required': False, 'type': 'string'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>患者信息表接口</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="inlineStr">
+        <is>
+          <t>更新</t>
+        </is>
+      </c>
+      <c r="C35" s="0" t="inlineStr">
+        <is>
+          <t>/ecg/tPatientInfo/update</t>
+        </is>
+      </c>
+      <c r="D35" s="0" t="inlineStr">
+        <is>
+          <t>put</t>
+        </is>
+      </c>
+      <c r="E35" s="0" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F35" s="0" t="inlineStr">
+        <is>
+          <t>EMail={string}&amp;PIdCard={string}&amp;accCode={string}&amp;addr={string}&amp;age={string}&amp;birthCity={string}&amp;birthDistrict={string}&amp;birthPlace={string}&amp;birthProvince={string}&amp;birthday={string}&amp;bloodType={string}&amp;cardNo={string}&amp;cardType={integer}&amp;cellphone={string}&amp;city={string}&amp;contactName={string}&amp;country={string}&amp;createIdEcg={integer}&amp;createTimeEcg={string}&amp;deathDate={string}&amp;deathIdentifier={integer}&amp;district={string}&amp;docId={string}&amp;education={string}&amp;empiId={string}&amp;externalNo={string}&amp;firmAddr={string}&amp;firmCity={string}&amp;firmDistrict={string}&amp;firmName={string}&amp;firmPhone={string}&amp;firmPostalCode={string}&amp;firmProvince={string}&amp;firstName={string}&amp;firstVisitDate={string}&amp;followPlanId={integer}&amp;followUpName={string}&amp;healthCardNo={string}&amp;height={string}&amp;id={integer}&amp;idCardNo={string}&amp;infoSource={string}&amp;inputCode1={string}&amp;inputCode2={string}&amp;isDeleteEcg={integer}&amp;isMerged={integer}&amp;isSplited={integer}&amp;itemId={integer}&amp;job={string}&amp;language={string}&amp;lastName={string}&amp;marriage={string}&amp;medicare={string}&amp;name={string}&amp;nation={string}&amp;nativeCity={string}&amp;nativeProvince={string}&amp;nowAddr={string}&amp;nowCity={string}&amp;nowDistrict={string}&amp;nowPostalCode={string}&amp;nowProvince={string}&amp;personalPreference={string}&amp;phone={string}&amp;province={string}&amp;recentVisitDate={string}&amp;registerAddr={string}&amp;registerCity={string}&amp;registerDistrict={string}&amp;registerPostalCode={string}&amp;registerProvince={string}&amp;relation={string}&amp;religion={string}&amp;remark={string}&amp;secrecyLevel={string}&amp;sex={integer}&amp;sexStr={string}&amp;telephone={string}&amp;updateIdEcg={integer}&amp;updateTimeEcg={string}&amp;versionsId={integer}&amp;weight={string}</t>
+        </is>
+      </c>
+      <c r="H35" s="0" t="inlineStr">
+        <is>
+          <t>[{'name': 'EMail', 'in': 'query', 'required': False, 'type': 'string'}, {'name': 'PIdCard', 'in': 'query', 'required': False, 'type': 'string'}, {'name': 'accCode', 'in': 'query', 'description': '付费类型', 'required': False, 'type': 'string'}, {'name': 'addr', 'in': 'query', 'description': '具体地址', 'required': False, 'type': 'string'}, {'name': 'age', 'in': 'query', 'description': '年龄', 'required': False, 'type': 'string'}, {'name': 'birthCity', 'in': 'query', 'description': '出生地市', 'required': False, 'type': 'string'}, {'name': 'birthDistrict', 'in': 'query', 'description': '出生地区县', 'required': False, 'type': 'string'}, {'name': 'birthPlace', 'in': 'query', 'description': '出生地', 'required': False, 'type': 'string'}, {'name': 'birthProvince', 'in': 'query', 'description': '出生地州省', 'required': False, 'type': 'string'}, {'name': 'birthday', 'in': 'query', 'description': '出生日期', 'required': False, 'type': 'string'}, {'name': 'bloodType', 'in': 'query', 'description': '血型', 'required': False, 'type': 'string'}, {'name': 'cardNo', 'in': 'query', 'description': '卡号', 'required': False, 'type': 'string'}, {'name': 'cardType', 'in': 'query', 'description': '卡类型', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'cellphone', 'in': 'query', 'description': '手机', 'required': False, 'type': 'string'}, {'name': 'city', 'in': 'query', 'description': '市', 'required': False, 'type': 'string'}, {'name': 'contactName', 'in': 'query', 'description': '联系姓名', 'required': False, 'type': 'string'}, {'name': 'country', 'in': 'query', 'description': '国家', 'required': False, 'type': 'string'}, {'name': 'createIdEcg', 'in': 'query', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'createTimeEcg', 'in': 'query', 'required': False, 'type': 'string', 'format': 'date-time'}, {'name': 'deathDate', 'in': 'query', 'description': '死亡日期', 'required': False, 'type': 'string'}, {'name': 'deathIdentifier', 'in': 'query', 'description': '死亡标识符', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'district', 'in': 'query', 'description': '区县', 'required': False, 'type': 'string'}, {'name': 'docId', 'in': 'query', 'description': '医生id', 'required': False, 'type': 'string'}, {'name': 'education', 'in': 'query', 'description': '学历', 'required': False, 'type': 'string'}, {'name': 'empiId', 'in': 'query', 'description': 'EMPI索引', 'required': False, 'type': 'string'}, {'name': 'externalNo', 'in': 'query', 'description': '外部编号', 'required': False, 'type': 'string'}, {'name': 'firmAddr', 'in': 'query', 'description': '单位具体地址', 'required': False, 'type': 'string'}, {'name': 'firmCity', 'in': 'query', 'description': '单位市', 'required': False, 'type': 'string'}, {'name': 'firmDistrict', 'in': 'query', 'description': '单位区县', 'required': False, 'type': 'string'}, {'name': 'firmName', 'in': 'query', 'description': '单位名称', 'required': False, 'type': 'string'}, {'name': 'firmPhone', 'in': 'query', 'description': '单位电话', 'required': False, 'type': 'string'}, {'name': 'firmPostalCode', 'in': 'query', 'description': '单位邮政编码', 'required': False, 'type': 'string'}, {'name': 'firmProvince', 'in': 'query', 'description': '单位州省', 'required': False, 'type': 'string'}, {'name': 'firstName', 'in': 'query', 'description': '名', 'required': False, 'type': 'string'}, {'name': 'firstVisitDate', 'in': 'query', 'description': '首次就诊日期', 'required': False, 'type': 'string', 'format': 'date-time'}, {'name': 'followPlanId', 'in': 'query', 'description': '用于前端放入随访方案id', 'required': False, 'type': 'integer', 'format': 'int64'}, {'name': 'followUpName', 'in': 'query', 'description': '用于前端放入随访方案名称', 'required': False, 'type': 'string'}, {'name': 'healthCardNo', 'in': 'query', 'description': '健康卡号', 'required': False, 'type': 'string'}, {'name': 'height', 'in': 'query', 'description': '身高', 'required': False, 'type': 'string'}, {'name': 'id', 'in': 'query', 'description': '主键id', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'idCardNo', 'in': 'query', 'description': '身份证号', 'required': False, 'type': 'string'}, {'name': 'infoSource', 'in': 'query', 'description': '信息来源', 'required': False, 'type': 'string'}, {'name': 'inputCode1', 'in': 'query', 'description': '输入码1', 'required': False, 'type': 'string'}, {'name': 'inputCode2', 'in': 'query', 'description': '输入码2', 'required': False, 'type': 'string'}, {'name': 'isDeleteEcg', 'in': 'query', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'isMerged', 'in': 'query', 'description': '是否有合并纪录', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'isSplited', 'in': 'query', 'description': '是否有拆分纪录', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'itemId', 'in': 'query', 'description': '用于前端放入项目id', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'job', 'in': 'query', 'description': '职业', 'required': False, 'type': 'string'}, {'name': 'language', 'in': 'query', 'description': '语言', 'required': False, 'type': 'string'}, {'name': 'lastName', 'in': 'query', 'description': '姓', 'required': False, 'type': 'string'}, {'name': 'marriage', 'in': 'query', 'description': '婚姻', 'required': False, 'type': 'string'}, {'name': 'medicare', 'in': 'query', 'description': '医保卡号', 'required': False, 'type': 'string'}, {'name': 'name', 'in': 'query', 'description': '姓名', 'required': False, 'type': 'string'}, {'name': 'nation', 'in': 'query', 'description': '民族', 'required': False, 'type': 'string'}, {'name': 'nativeCity', 'in': 'query', 'description': '籍贯市', 'required': False, 'type': 'string'}, {'name': 'nativeProvince', 'in': 'query', 'description': '籍贯省', 'required': False, 'type': 'string'}, {'name': 'nowAddr', 'in': 'query', 'description': '现住址具体地址', 'required': False, 'type': 'string'}, {'name': 'nowCity', 'in': 'query', 'description': '现住址市', 'required': False, 'type': 'string'}, {'name': 'nowDistrict', 'in': 'query', 'description': '现住址区县', 'required': False, 'type': 'string'}, {'name': 'nowPostalCode', 'in': 'query', 'description': '现住址邮政编码', 'required': False, 'type': 'string'}, {'name': 'nowProvince', 'in': 'query', 'description': '现住址州省', 'required': False, 'type': 'string'}, {'name': 'personalPreference', 'in': 'query', 'description': '个人偏好', 'required': False, 'type': 'string'}, {'name': 'phone', 'in': 'query', 'description': '电话', 'required': False, 'type': 'string'}, {'name': 'province', 'in': 'query', 'description': '州省', 'required': False, 'type': 'string'}, {'name': 'recentVisitDate', 'in': 'query', 'description': '最近就诊日期', 'required': False, 'type': 'string', 'format': 'date-time'}, {'name': 'registerAddr', 'in': 'query', 'description': '户口具体地址', 'required': False, 'type': 'string'}, {'name': 'registerCity', 'in': 'query', 'description': '户口市', 'required': False, 'type': 'string'}, {'name': 'registerDistrict', 'in': 'query', 'description': '户口区县', 'required': False, 'type': 'string'}, {'name': 'registerPostalCode', 'in': 'query', 'description': '户口邮政编码', 'required': False, 'type': 'string'}, {'name': 'registerProvince', 'in': 'query', 'description': '户口州省', 'required': False, 'type': 'string'}, {'name': 'relation', 'in': 'query', 'description': '联系关系', 'required': False, 'type': 'string'}, {'name': 'religion', 'in': 'query', 'description': '宗教信仰', 'required': False, 'type': 'string'}, {'name': 'remark', 'in': 'query', 'description': '备注', 'required': False, 'type': 'string'}, {'name': 'secrecyLevel', 'in': 'query', 'description': '保密级别', 'required': False, 'type': 'string'}, {'name': 'sex', 'in': 'query', 'description': '性别', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'sexStr', 'in': 'query', 'description': '性别字符串', 'required': False, 'type': 'string'}, {'name': 'telephone', 'in': 'query', 'description': '联系电话', 'required': False, 'type': 'string'}, {'name': 'updateIdEcg', 'in': 'query', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'updateTimeEcg', 'in': 'query', 'required': False, 'type': 'string', 'format': 'date-time'}, {'name': 'versionsId', 'in': 'query', 'description': '用于前端放入版本id', 'required': False, 'type': 'integer', 'format': 'int64'}, {'name': 'weight', 'in': 'query', 'description': '体重', 'required': False, 'type': 'string'}]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>summary</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>paths</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>consumes</t>
+        </is>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
+          <t>query</t>
+        </is>
+      </c>
+      <c r="G1" s="0" t="inlineStr">
+        <is>
+          <t>body</t>
+        </is>
+      </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>parameters [参数名称，参数说明，请求类型，是否必须，数据类型，schema]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>文件服务器-文件管理</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>获取文件访问路径</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>/oss/file/getUrl</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F2" s="0" t="inlineStr">
+        <is>
+          <t>key={string}</t>
+        </is>
+      </c>
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>[{'name': 'key', 'in': 'query', 'description': '文件唯一键', 'required': False, 'type': 'string'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>文件服务器-文件管理</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>存储文件</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>/oss/file/storage</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>multipart/form-data</t>
+        </is>
+      </c>
+      <c r="F3" s="0" t="inlineStr">
+        <is>
+          <t>ossToken={string}</t>
+        </is>
+      </c>
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>[{'name': 'files', 'in': 'formData', 'description': 'files', 'required': True, 'type': 'file'}, {'name': 'ossToken', 'in': 'query', 'description': 'ossToken', 'required': False, 'type': 'string'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>文件服务器-文件管理</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>缩略图片上传接口</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>/oss/file/thumbnailStorage</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>multipart/form-data</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="inlineStr">
+        <is>
+          <t>ossToken={string}&amp;scale={number}&amp;size={integer}</t>
+        </is>
+      </c>
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>[{'name': 'files', 'in': 'formData', 'description': 'files', 'required': True, 'type': 'file'}, {'name': 'ossToken', 'in': 'query', 'description': 'ossToken', 'required': False, 'type': 'string'}, {'name': 'scale', 'in': 'query', 'description': 'scale', 'required': False, 'type': 'number', 'format': 'double'}, {'name': 'size', 'in': 'query', 'description': 'size', 'required': False, 'type': 'integer', 'format': 'int32'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>文件服务器-用户管理</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>生成上传文件用到的token</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>/oss/user/createToken</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F5" s="0" t="inlineStr"/>
+      <c r="G5" s="0" t="inlineStr">
+        <is>
+          <t>{"bucket": "", "isCover": "", "name": "", "password": "", "size": 0, "userName": ""}</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>文件服务器-用户管理</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>账户注册</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>/oss/user/register</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F6" s="0" t="inlineStr">
+        <is>
+          <t>password={string}</t>
+        </is>
+      </c>
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>[{'name': 'password', 'in': 'query', 'description': '注册上传密码', 'required': False, 'type': 'string'}]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5241,7 +6577,7 @@
       <c r="F2" s="0" t="inlineStr"/>
       <c r="G2" s="0" t="inlineStr">
         <is>
-          <t>{'code': '', 'commonMistake': '', 'cover': '', 'createId': 0, 'createTime': '', 'duration': '', 'id': 0, 'movementGist': '', 'movementName': '', 'repetition': '', 'updateId': 0, 'updateTime': '', 'video': ''}</t>
+          <t>{"code": "", "commonMistake": "", "cover": "", "createId": 0, "createTime": "", "duration": "", "id": 0, "movementGist": "", "movementName": "", "repetition": "", "updateId": 0, "updateTime": "", "video": ""}</t>
         </is>
       </c>
     </row>
@@ -5357,7 +6693,7 @@
       <c r="F6" s="0" t="inlineStr"/>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>{'code': '', 'commonMistake': '', 'cover': '', 'createId': 0, 'createTime': '', 'duration': '', 'id': 0, 'movementGist': '', 'movementName': '', 'repetition': '', 'updateId': 0, 'updateTime': '', 'video': ''}</t>
+          <t>{"code": "", "commonMistake": "", "cover": "", "createId": 0, "createTime": "", "duration": "", "id": 0, "movementGist": "", "movementName": "", "repetition": "", "updateId": 0, "updateTime": "", "video": ""}</t>
         </is>
       </c>
     </row>
@@ -5390,7 +6726,7 @@
       <c r="F7" s="0" t="inlineStr"/>
       <c r="G7" s="0" t="inlineStr">
         <is>
-          <t>{'code': '', 'cover': '', 'createId': 0, 'createTime': '', 'duration': '', 'id': 0, 'movementGroupName': '', 'numbers': '', 'type': 0, 'updateId': 0, 'updateTime': ''}</t>
+          <t>{"code": "", "cover": "", "createId": 0, "createTime": "", "duration": "", "id": 0, "movementGroupName": "", "numbers": "", "type": 0, "updateId": 0, "updateTime": ""}</t>
         </is>
       </c>
     </row>
@@ -5506,7 +6842,7 @@
       <c r="F11" s="0" t="inlineStr"/>
       <c r="G11" s="0" t="inlineStr">
         <is>
-          <t>{'code': '', 'cover': '', 'createId': 0, 'createTime': '', 'duration': '', 'id': 0, 'movementGroupName': '', 'numbers': '', 'type': 0, 'updateId': 0, 'updateTime': ''}</t>
+          <t>{"code": "", "cover": "", "createId": 0, "createTime": "", "duration": "", "id": 0, "movementGroupName": "", "numbers": "", "type": 0, "updateId": 0, "updateTime": ""}</t>
         </is>
       </c>
     </row>
@@ -5539,7 +6875,7 @@
       <c r="F12" s="0" t="inlineStr"/>
       <c r="G12" s="0" t="inlineStr">
         <is>
-          <t>{'createId': 0, 'createTime': '', 'groupId': 0, 'id': 0, 'movementId': 0, 'movementName': '', 'repetition': '', 'restDuration': '', 'updateId': 0, 'updateTime': ''}</t>
+          <t>{"createId": 0, "createTime": "", "groupId": 0, "id": 0, "movementId": 0, "movementName": "", "repetition": "", "restDuration": "", "updateId": 0, "updateTime": ""}</t>
         </is>
       </c>
     </row>
@@ -5655,7 +6991,7 @@
       <c r="F16" s="0" t="inlineStr"/>
       <c r="G16" s="0" t="inlineStr">
         <is>
-          <t>{'createId': 0, 'createTime': '', 'groupId': 0, 'id': 0, 'movementId': 0, 'movementName': '', 'repetition': '', 'restDuration': '', 'updateId': 0, 'updateTime': ''}</t>
+          <t>{"createId": 0, "createTime": "", "groupId": 0, "id": 0, "movementId": 0, "movementName": "", "repetition": "", "restDuration": "", "updateId": 0, "updateTime": ""}</t>
         </is>
       </c>
     </row>
@@ -6002,7 +7338,7 @@
       <c r="F27" s="0" t="inlineStr"/>
       <c r="G27" s="0" t="inlineStr">
         <is>
-          <t>{'articleContent': '', 'articleIntro': '', 'articleName': '', 'author': '', 'cover': '', 'createId': 0, 'createTime': '', 'editName': '', 'editTime': '', 'id': 0, 'issueTime': '', 'issuer': '', 'projectId': 0, 'state': 0, 'updateId': 0, 'updateTime': '', 'viewCount': 0}</t>
+          <t>{"articleContent": "", "articleIntro": "", "articleName": "", "author": "", "cover": "", "createId": 0, "createTime": "", "editName": "", "editTime": "", "id": 0, "issueTime": "", "issuer": "", "projectId": 0, "state": 0, "updateId": 0, "updateTime": "", "viewCount": 0}</t>
         </is>
       </c>
     </row>
@@ -6035,7 +7371,7 @@
       <c r="F28" s="0" t="inlineStr"/>
       <c r="G28" s="0" t="inlineStr">
         <is>
-          <t>{'bucket': '', 'isCover': '', 'name': '', 'password': '', 'size': 0, 'userName': ''}</t>
+          <t>{"bucket": "", "isCover": "", "name": "", "password": "", "size": 0, "userName": ""}</t>
         </is>
       </c>
     </row>
@@ -6165,7 +7501,7 @@
       <c r="F32" s="0" t="inlineStr"/>
       <c r="G32" s="0" t="inlineStr">
         <is>
-          <t>{'articleContent': '', 'articleIntro': '', 'articleName': '', 'author': '', 'cover': '', 'createId': 0, 'createTime': '', 'editName': '', 'editTime': '', 'id': 0, 'issueTime': '', 'issuer': '', 'projectId': 0, 'state': 0, 'updateId': 0, 'updateTime': '', 'viewCount': 0}</t>
+          <t>{"articleContent": "", "articleIntro": "", "articleName": "", "author": "", "cover": "", "createId": 0, "createTime": "", "editName": "", "editTime": "", "id": 0, "issueTime": "", "issuer": "", "projectId": 0, "state": 0, "updateId": 0, "updateTime": "", "viewCount": 0}</t>
         </is>
       </c>
     </row>
@@ -6322,7 +7658,7 @@
       <c r="F37" s="0" t="inlineStr"/>
       <c r="G37" s="0" t="inlineStr">
         <is>
-          <t>{'articleContent': '', 'articleIntro': '', 'articleName': '', 'author': '', 'cover': '', 'createId': 0, 'createTime': '', 'editName': '', 'editTime': '', 'id': 0, 'issueTime': '', 'issuer': '', 'projectId': 0, 'state': 0, 'updateId': 0, 'updateTime': '', 'viewCount': 0}</t>
+          <t>{"articleContent": "", "articleIntro": "", "articleName": "", "author": "", "cover": "", "createId": 0, "createTime": "", "editName": "", "editTime": "", "id": 0, "issueTime": "", "issuer": "", "projectId": 0, "state": 0, "updateId": 0, "updateTime": "", "viewCount": 0}</t>
         </is>
       </c>
     </row>
@@ -6331,7 +7667,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6416,7 +7752,7 @@
       <c r="F2" s="0" t="inlineStr"/>
       <c r="G2" s="0" t="inlineStr">
         <is>
-          <t>{'breviary': '', 'createType': 0, 'docId': 0, 'docName': '', 'messageContent': '', 'messageTime': '', 'messageType': 0, 'patientId': '', 'patientName': ''}</t>
+          <t>{"breviary": "", "createType": 0, "docId": 0, "docName": "", "messageContent": "", "messageTime": "", "messageType": 0, "patientId": "", "patientName": ""}</t>
         </is>
       </c>
     </row>
@@ -6449,7 +7785,7 @@
       <c r="F3" s="0" t="inlineStr"/>
       <c r="G3" s="0" t="inlineStr">
         <is>
-          <t>{'breviary': '', 'createType': 0, 'docId': 0, 'docName': '', 'messageContent': '', 'messageTime': '', 'messageType': 0, 'patientId': '', 'patientName': ''}</t>
+          <t>{"breviary": "", "createType": 0, "docId": 0, "docName": "", "messageContent": "", "messageTime": "", "messageType": 0, "patientId": "", "patientName": ""}</t>
         </is>
       </c>
     </row>
@@ -6482,7 +7818,7 @@
       <c r="F4" s="0" t="inlineStr"/>
       <c r="G4" s="0" t="inlineStr">
         <is>
-          <t>{'docId': 0, 'id': 0, 'isDocRead': 0, 'isPatientRead': 0, 'patientId': ''}</t>
+          <t>{"docId": 0, "id": 0, "isDocRead": 0, "isPatientRead": 0, "patientId": ""}</t>
         </is>
       </c>
     </row>
@@ -7135,7 +8471,7 @@
       <c r="F25" s="0" t="inlineStr"/>
       <c r="G25" s="0" t="inlineStr">
         <is>
-          <t>{'addTime': '', 'addUser': '', 'addUserId': '', 'createId': 0, 'createTime': '', 'dataJson': '', 'diastolicPressure': '', 'formFinish': 0, 'id': 0, 'infoId': '', 'isDelete': 0, 'medicalInfoImg': '', 'pId': '', 'planId': 0, 'status': '', 'systolicPressure': '', 'updateId': 0, 'updateTime': ''}</t>
+          <t>{"addTime": "", "addUser": "", "addUserId": "", "createId": 0, "createTime": "", "dataJson": "", "diastolicPressure": "", "formFinish": 0, "id": 0, "infoId": "", "isDelete": 0, "medicalInfoImg": "", "pId": "", "planId": 0, "status": "", "systolicPressure": "", "updateId": 0, "updateTime": ""}</t>
         </is>
       </c>
     </row>
@@ -7168,7 +8504,7 @@
       <c r="F26" s="0" t="inlineStr"/>
       <c r="G26" s="0" t="inlineStr">
         <is>
-          <t>{'addTime': '', 'addUser': '', 'addUserId': '', 'createId': 0, 'createTime': '', 'dataJson': '', 'diastolicPressure': '', 'formFinish': 0, 'id': 0, 'infoId': '', 'isDelete': 0, 'medicalInfoImg': '', 'pId': '', 'planId': 0, 'status': '', 'systolicPressure': '', 'updateId': 0, 'updateTime': ''}</t>
+          <t>{"addTime": "", "addUser": "", "addUserId": "", "createId": 0, "createTime": "", "dataJson": "", "diastolicPressure": "", "formFinish": 0, "id": 0, "infoId": "", "isDelete": 0, "medicalInfoImg": "", "pId": "", "planId": 0, "status": "", "systolicPressure": "", "updateId": 0, "updateTime": ""}</t>
         </is>
       </c>
     </row>
@@ -7319,7 +8655,7 @@
       <c r="F31" s="0" t="inlineStr"/>
       <c r="G31" s="0" t="inlineStr">
         <is>
-          <t>{'addTime': '', 'addUser': '', 'addUserId': '', 'createId': 0, 'createTime': '', 'dataJson': '', 'id': 0, 'infoId': 0, 'isDelete': 0, 'planDataJson': '', 'planId': 0, 'planName': '', 'updateId': 0, 'updateTime': ''}</t>
+          <t>{"addTime": "", "addUser": "", "addUserId": "", "createId": 0, "createTime": "", "dataJson": "", "id": 0, "infoId": 0, "isDelete": 0, "planDataJson": "", "planId": 0, "planName": "", "updateId": 0, "updateTime": ""}</t>
         </is>
       </c>
     </row>
@@ -7352,7 +8688,7 @@
       <c r="F32" s="0" t="inlineStr"/>
       <c r="G32" s="0" t="inlineStr">
         <is>
-          <t>{'age': '', 'birthday': '', 'empiId': '', 'followPlanId': 0, 'followUpName': '', 'id': 0, 'idCardNo': '', 'itemId': 0, 'name': '', 'phone': '', 'sex': 0, 'versionsId': 0}</t>
+          <t>{"age": "", "birthday": "", "empiId": "", "followPlanId": 0, "followUpName": "", "id": 0, "idCardNo": "", "itemId": 0, "name": "", "phone": "", "sex": 0, "versionsId": 0}</t>
         </is>
       </c>
     </row>
@@ -7385,7 +8721,7 @@
       <c r="F33" s="0" t="inlineStr"/>
       <c r="G33" s="0" t="inlineStr">
         <is>
-          <t>{'empiId': '', 'followEndTime': '', 'followStartTime': '', 'followUpCount': 0, 'followUpName': '', 'followUpPlan': 0, 'followUpTime': '', 'id': 0, 'lastFollowTime': 0, 'lastRemindTime': '', 'phone': '', 'pname': '', 'relationId': '', 'remindCount': 0, 'sex': ''}</t>
+          <t>{"empiId": "", "followEndTime": "", "followStartTime": "", "followUpCount": 0, "followUpName": "", "followUpPlan": 0, "followUpTime": "", "id": 0, "lastFollowTime": 0, "lastRemindTime": "", "phone": "", "pname": "", "relationId": "", "remindCount": 0, "sex": ""}</t>
         </is>
       </c>
     </row>
@@ -7487,7 +8823,7 @@
       <c r="F36" s="0" t="inlineStr"/>
       <c r="G36" s="0" t="inlineStr">
         <is>
-          <t>{'age': '', 'createId': 0, 'createTime': '', 'docId': '', 'empiId': '', 'followUpCount': 0, 'followUpName': '', 'followUpPlan': '', 'followUpStatus': '', 'followUpTime': '', 'id': 0, 'isDelete': 0, 'itemId': 0, 'lastFollowTime': 0, 'lastRemindTime': '', 'pName': '', 'phone': '', 'pname': '', 'remindCount': 0, 'sex': '', 'updateId': 0, 'updateTime': '', 'versionsId': 0}</t>
+          <t>{"age": "", "createId": 0, "createTime": "", "docId": "", "empiId": "", "followUpCount": 0, "followUpName": "", "followUpPlan": "", "followUpStatus": "", "followUpTime": "", "id": 0, "isDelete": 0, "itemId": 0, "lastFollowTime": 0, "lastRemindTime": "", "pName": "", "phone": "", "pname": "", "remindCount": 0, "sex": "", "updateId": 0, "updateTime": "", "versionsId": 0}</t>
         </is>
       </c>
     </row>
@@ -7793,7 +9129,7 @@
       <c r="F46" s="0" t="inlineStr"/>
       <c r="G46" s="0" t="inlineStr">
         <is>
-          <t>{'addTime': '', 'addUser': '', 'addUserId': '', 'createId': 0, 'createTime': '', 'dataJson': '', 'id': 0, 'infoId': 0, 'isDelete': 0, 'planDataJson': '', 'planId': 0, 'planName': '', 'updateId': 0, 'updateTime': ''}</t>
+          <t>{"addTime": "", "addUser": "", "addUserId": "", "createId": 0, "createTime": "", "dataJson": "", "id": 0, "infoId": 0, "isDelete": 0, "planDataJson": "", "planId": 0, "planName": "", "updateId": 0, "updateTime": ""}</t>
         </is>
       </c>
     </row>
@@ -7826,7 +9162,7 @@
       <c r="F47" s="0" t="inlineStr"/>
       <c r="G47" s="0" t="inlineStr">
         <is>
-          <t>{'addTime': '', 'addUser': '', 'addUserId': '', 'createId': 0, 'createTime': '', 'dataJson': '', 'id': 0, 'infoId': 0, 'isDelete': 0, 'planDataJson': '', 'planId': 0, 'planName': '', 'updateId': 0, 'updateTime': ''}</t>
+          <t>{"addTime": "", "addUser": "", "addUserId": "", "createId": 0, "createTime": "", "dataJson": "", "id": 0, "infoId": 0, "isDelete": 0, "planDataJson": "", "planId": 0, "planName": "", "updateId": 0, "updateTime": ""}</t>
         </is>
       </c>
     </row>
@@ -7859,7 +9195,7 @@
       <c r="F48" s="0" t="inlineStr"/>
       <c r="G48" s="0" t="inlineStr">
         <is>
-          <t>{'currPage': 0, 'dateBegin': '', 'dateEnd': '', 'orgIdList': [], 'pageSize': 0}</t>
+          <t>{"currPage": 0, "dateBegin": "", "dateEnd": "", "orgIdList": [], "pageSize": 0}</t>
         </is>
       </c>
     </row>
@@ -7892,7 +9228,7 @@
       <c r="F49" s="0" t="inlineStr"/>
       <c r="G49" s="0" t="inlineStr">
         <is>
-          <t>{'currPage': 0, 'dateBegin': '', 'dateEnd': '', 'orgIdList': [], 'pageSize': 0}</t>
+          <t>{"currPage": 0, "dateBegin": "", "dateEnd": "", "orgIdList": [], "pageSize": 0}</t>
         </is>
       </c>
     </row>
@@ -7989,7 +9325,7 @@
       <c r="F52" s="0" t="inlineStr"/>
       <c r="G52" s="0" t="inlineStr">
         <is>
-          <t>{'belongDoctorId': 0, 'belongDoctorName': '', 'birthday': '', 'itemId': 0, 'orgId': 0, 'patientName': '', 'phone': '', 'sex': ''}</t>
+          <t>{"belongDoctorId": 0, "belongDoctorName": "", "birthday": "", "itemId": 0, "orgId": 0, "patientName": "", "phone": "", "sex": ""}</t>
         </is>
       </c>
     </row>
@@ -8022,7 +9358,7 @@
       <c r="F53" s="0" t="inlineStr"/>
       <c r="G53" s="0" t="inlineStr">
         <is>
-          <t>{'belongDoctorId': 0, 'belongDoctorName': '', 'birthday': '', 'patientId': '', 'patientName': '', 'phone': '', 'sex': ''}</t>
+          <t>{"belongDoctorId": 0, "belongDoctorName": "", "birthday": "", "patientId": "", "patientName": "", "phone": "", "sex": ""}</t>
         </is>
       </c>
     </row>
@@ -8055,7 +9391,7 @@
       <c r="F54" s="0" t="inlineStr"/>
       <c r="G54" s="0" t="inlineStr">
         <is>
-          <t>{'currPage': 0, 'doctorName': '', 'endAge': 0, 'pageSize': 0, 'patientName': '', 'startAge': 0}</t>
+          <t>{"currPage": 0, "doctorName": "", "endAge": 0, "pageSize": 0, "patientName": "", "startAge": 0}</t>
         </is>
       </c>
     </row>
@@ -8281,7 +9617,7 @@
       <c r="F61" s="0" t="inlineStr"/>
       <c r="G61" s="0" t="inlineStr">
         <is>
-          <t>{'address': '', 'createId': 0, 'createName': '', 'createTime': '', 'dutyId': 0, 'endDate': '', 'id': 0, 'orgName': '', 'orgNo': '', 'parentId': 0, 'parentNo': '', 'pinYin': '', 'relationPhone': '', 'relationid': 0, 'startDate': '', 'status': 0, 'updateId': 0, 'updateName': '', 'updateTime': ''}</t>
+          <t>{"address": "", "createId": 0, "createName": "", "createTime": "", "dutyId": 0, "endDate": "", "id": 0, "orgName": "", "orgNo": "", "parentId": 0, "parentNo": "", "pinYin": "", "relationPhone": "", "relationid": 0, "startDate": "", "status": 0, "updateId": 0, "updateName": "", "updateTime": ""}</t>
         </is>
       </c>
     </row>
@@ -8347,7 +9683,7 @@
       <c r="F63" s="0" t="inlineStr"/>
       <c r="G63" s="0" t="inlineStr">
         <is>
-          <t>{'age': '', 'ageAtOnsetOfMaternalHypertension': '', 'ageAtOnsetOfSiblingStroke': '', 'ageAtOnsetOfSisterStroke': '', 'ageBrothersCoronaryHeartDisease': '', 'ageFatherCoronaryHeartDisease': '', 'ageOfMaternalStrokeOnset': '', 'ageOfOnsetOfPaternalHypertension': '', 'ageOfOnsetOfSisterHypertension': '', 'ageOfOnsetOfStrokeInTheFather': '', 'ageSisterCoronaryHeartDisease': '', 'armBloodPressureIndex': '', 'bloodGlucose2HoursPostprandial': '', 'bloodHomocysteine': '', 'brotherHypertensionOnsetAge': '', 'carotidAtheroscleroticPlaque': '', 'carotidUltrasoundImt': '', 'clinicalDiseases': '', 'createId': 0, 'createTime': '', 'diastolicBloodPressure': 0, 'empiId': '', 'fastingPlasmaGlucose': '', 'femoralArteryPulseWaveVelocity': '', 'hba1c': '', 'heartRate': 0, 'height': '', 'highDensityLipoproteinCholesterol': '', 'hoursUrinaryMicroalbumin': '', 'id': 0, 'isDelete': 0, 'isFamilyCoronaryHeartDisease': '', 'isFamilyHasHadAStroke': '', 'isFamilyHaveHighBloodPressure': '', 'leftVentricularHypertrophy': '', 'lowDensityLipoproteinCholesterol': '', 'managementLevel': '', 'managementLevelShow': '', 'measurementDate': '', 'measurementResult': '', 'measurementResultShow': '', 'montherCoronaryHeartDisease': '', 'serumCreatinine': '', 'sex': '', 'smoking': '', 'state': 0, 'systolicPressure': 0, 'totalCholesterol': '', 'updateId': 0, 'updateTime': '', 'urinaryTraceAlbumin': '', 'waistCircumference': '', 'weight': ''}</t>
+          <t>{"age": "", "ageAtOnsetOfMaternalHypertension": "", "ageAtOnsetOfSiblingStroke": "", "ageAtOnsetOfSisterStroke": "", "ageBrothersCoronaryHeartDisease": "", "ageFatherCoronaryHeartDisease": "", "ageOfMaternalStrokeOnset": "", "ageOfOnsetOfPaternalHypertension": "", "ageOfOnsetOfSisterHypertension": "", "ageOfOnsetOfStrokeInTheFather": "", "ageSisterCoronaryHeartDisease": "", "armBloodPressureIndex": "", "bloodGlucose2HoursPostprandial": "", "bloodHomocysteine": "", "brotherHypertensionOnsetAge": "", "carotidAtheroscleroticPlaque": "", "carotidUltrasoundImt": "", "clinicalDiseases": "", "createId": 0, "createTime": "", "diastolicBloodPressure": 0, "empiId": "", "fastingPlasmaGlucose": "", "femoralArteryPulseWaveVelocity": "", "hba1c": "", "heartRate": 0, "height": "", "highDensityLipoproteinCholesterol": "", "hoursUrinaryMicroalbumin": "", "id": 0, "isDelete": 0, "isFamilyCoronaryHeartDisease": "", "isFamilyHasHadAStroke": "", "isFamilyHaveHighBloodPressure": "", "leftVentricularHypertrophy": "", "lowDensityLipoproteinCholesterol": "", "managementLevel": "", "managementLevelShow": "", "measurementDate": "", "measurementResult": "", "measurementResultShow": "", "montherCoronaryHeartDisease": "", "serumCreatinine": "", "sex": "", "smoking": "", "state": 0, "systolicPressure": 0, "totalCholesterol": "", "updateId": 0, "updateTime": "", "urinaryTraceAlbumin": "", "waistCircumference": "", "weight": ""}</t>
         </is>
       </c>
     </row>
@@ -8483,7 +9819,7 @@
       <c r="F68" s="0" t="inlineStr"/>
       <c r="G68" s="0" t="inlineStr">
         <is>
-          <t>{'age': '', 'ageAtOnsetOfMaternalHypertension': '', 'ageAtOnsetOfSiblingStroke': '', 'ageAtOnsetOfSisterStroke': '', 'ageBrothersCoronaryHeartDisease': '', 'ageFatherCoronaryHeartDisease': '', 'ageOfMaternalStrokeOnset': '', 'ageOfOnsetOfPaternalHypertension': '', 'ageOfOnsetOfSisterHypertension': '', 'ageOfOnsetOfStrokeInTheFather': '', 'ageSisterCoronaryHeartDisease': '', 'armBloodPressureIndex': '', 'bloodGlucose2HoursPostprandial': '', 'bloodHomocysteine': '', 'brotherHypertensionOnsetAge': '', 'carotidAtheroscleroticPlaque': '', 'carotidUltrasoundImt': '', 'clinicalDiseases': '', 'createId': 0, 'createTime': '', 'diastolicBloodPressure': 0, 'empiId': '', 'fastingPlasmaGlucose': '', 'femoralArteryPulseWaveVelocity': '', 'hba1c': '', 'heartRate': 0, 'height': '', 'highDensityLipoproteinCholesterol': '', 'hoursUrinaryMicroalbumin': '', 'id': 0, 'isDelete': 0, 'isFamilyCoronaryHeartDisease': '', 'isFamilyHasHadAStroke': '', 'isFamilyHaveHighBloodPressure': '', 'leftVentricularHypertrophy': '', 'lowDensityLipoproteinCholesterol': '', 'managementLevel': '', 'managementLevelShow': '', 'measurementDate': '', 'measurementResult': '', 'measurementResultShow': '', 'montherCoronaryHeartDisease': '', 'serumCreatinine': '', 'sex': '', 'smoking': '', 'state': 0, 'systolicPressure': 0, 'totalCholesterol': '', 'updateId': 0, 'updateTime': '', 'urinaryTraceAlbumin': '', 'waistCircumference': '', 'weight': ''}</t>
+          <t>{"age": "", "ageAtOnsetOfMaternalHypertension": "", "ageAtOnsetOfSiblingStroke": "", "ageAtOnsetOfSisterStroke": "", "ageBrothersCoronaryHeartDisease": "", "ageFatherCoronaryHeartDisease": "", "ageOfMaternalStrokeOnset": "", "ageOfOnsetOfPaternalHypertension": "", "ageOfOnsetOfSisterHypertension": "", "ageOfOnsetOfStrokeInTheFather": "", "ageSisterCoronaryHeartDisease": "", "armBloodPressureIndex": "", "bloodGlucose2HoursPostprandial": "", "bloodHomocysteine": "", "brotherHypertensionOnsetAge": "", "carotidAtheroscleroticPlaque": "", "carotidUltrasoundImt": "", "clinicalDiseases": "", "createId": 0, "createTime": "", "diastolicBloodPressure": 0, "empiId": "", "fastingPlasmaGlucose": "", "femoralArteryPulseWaveVelocity": "", "hba1c": "", "heartRate": 0, "height": "", "highDensityLipoproteinCholesterol": "", "hoursUrinaryMicroalbumin": "", "id": 0, "isDelete": 0, "isFamilyCoronaryHeartDisease": "", "isFamilyHasHadAStroke": "", "isFamilyHaveHighBloodPressure": "", "leftVentricularHypertrophy": "", "lowDensityLipoproteinCholesterol": "", "managementLevel": "", "managementLevelShow": "", "measurementDate": "", "measurementResult": "", "measurementResultShow": "", "montherCoronaryHeartDisease": "", "serumCreatinine": "", "sex": "", "smoking": "", "state": 0, "systolicPressure": 0, "totalCholesterol": "", "updateId": 0, "updateTime": "", "urinaryTraceAlbumin": "", "waistCircumference": "", "weight": ""}</t>
         </is>
       </c>
     </row>
@@ -8580,7 +9916,7 @@
       <c r="F71" s="0" t="inlineStr"/>
       <c r="G71" s="0" t="inlineStr">
         <is>
-          <t>{'acceptedType': '', 'age': '', 'applyForDate': '', 'applyForDocId': 0, 'applyForDocName': '', 'applyForImages': '', 'applyForOrgName': '', 'applyForOrgNo': '', 'empiId': '', 'historyState': 0, 'id': 0, 'isDelete': 0, 'name': '', 'patientInfo': '', 'pendingType': '', 'receptionDate': '', 'receptionDocId': 0, 'receptionDocName': '', 'receptionImages': '', 'receptionOrgName': '', 'receptionOrgNo': '', 'recommendedTreatment': '', 'recordType': '', 'returnAffirmDate': '', 'returnApplyForDate': '', 'sex': '', 'sexShow': '', 'signsAndSymptoms': '', 'state': 0, 'treatmentOf': ''}</t>
+          <t>{"acceptedType": "", "age": "", "applyForDate": "", "applyForDocId": 0, "applyForDocName": "", "applyForImages": "", "applyForOrgName": "", "applyForOrgNo": "", "empiId": "", "historyState": 0, "id": 0, "isDelete": 0, "name": "", "patientInfo": "", "pendingType": "", "receptionDate": "", "receptionDocId": 0, "receptionDocName": "", "receptionImages": "", "receptionOrgName": "", "receptionOrgNo": "", "recommendedTreatment": "", "recordType": "", "returnAffirmDate": "", "returnApplyForDate": "", "sex": "", "sexShow": "", "signsAndSymptoms": "", "state": 0, "treatmentOf": ""}</t>
         </is>
       </c>
     </row>
@@ -8613,7 +9949,7 @@
       <c r="F72" s="0" t="inlineStr"/>
       <c r="G72" s="0" t="inlineStr">
         <is>
-          <t>{'acceptedType': '', 'age': '', 'applyForDate': '', 'applyForDocId': 0, 'applyForDocName': '', 'applyForImages': '', 'applyForOrgName': '', 'applyForOrgNo': '', 'empiId': '', 'historyState': 0, 'id': 0, 'isDelete': 0, 'name': '', 'patientInfo': '', 'pendingType': '', 'receptionDate': '', 'receptionDocId': 0, 'receptionDocName': '', 'receptionImages': '', 'receptionOrgName': '', 'receptionOrgNo': '', 'recommendedTreatment': '', 'recordType': '', 'returnAffirmDate': '', 'returnApplyForDate': '', 'sex': '', 'sexShow': '', 'signsAndSymptoms': '', 'state': 0, 'treatmentOf': ''}</t>
+          <t>{"acceptedType": "", "age": "", "applyForDate": "", "applyForDocId": 0, "applyForDocName": "", "applyForImages": "", "applyForOrgName": "", "applyForOrgNo": "", "empiId": "", "historyState": 0, "id": 0, "isDelete": 0, "name": "", "patientInfo": "", "pendingType": "", "receptionDate": "", "receptionDocId": 0, "receptionDocName": "", "receptionImages": "", "receptionOrgName": "", "receptionOrgNo": "", "recommendedTreatment": "", "recordType": "", "returnAffirmDate": "", "returnApplyForDate": "", "sex": "", "sexShow": "", "signsAndSymptoms": "", "state": 0, "treatmentOf": ""}</t>
         </is>
       </c>
     </row>
@@ -8941,7 +10277,7 @@
       <c r="F83" s="0" t="inlineStr"/>
       <c r="G83" s="0" t="inlineStr">
         <is>
-          <t>{'additionalFields': '', 'component': '', 'createId': 0, 'createTime': '', 'icon': '', 'id': 0, 'isCheck': 0, 'isHide': 0, 'mate': '', 'menuCode': '', 'name': '', 'orderNum': 0, 'parentCode': '', 'permissionValue': '', 'redirect': '', 'serverType': '', 'status': 0, 'system': '', 'systemType': 0, 'type': 0, 'updateId': 0, 'updateTime': '', 'url': ''}</t>
+          <t>{"additionalFields": "", "component": "", "createId": 0, "createTime": "", "icon": "", "id": 0, "isCheck": 0, "isHide": 0, "mate": "", "menuCode": "", "name": "", "orderNum": 0, "parentCode": "", "permissionValue": "", "redirect": "", "serverType": "", "status": 0, "system": "", "systemType": 0, "type": 0, "updateId": 0, "updateTime": "", "url": ""}</t>
         </is>
       </c>
     </row>
@@ -8974,7 +10310,7 @@
       <c r="F84" s="0" t="inlineStr"/>
       <c r="G84" s="0" t="inlineStr">
         <is>
-          <t>{'additionalFields': '', 'children': [], 'component': '', 'createId': 0, 'createTime': '', 'icon': '', 'id': 0, 'isCheck': 0, 'isHide': 0, 'mate': '', 'menuCode': '', 'name': '', 'orderNum': 0, 'parentCode': '', 'permissionValue': '', 'redirect': '', 'serverType': '', 'status': 0, 'system': '', 'systemType': 0, 'type': 0, 'updateId': 0, 'updateTime': '', 'url': ''}</t>
+          <t>{"additionalFields": "", "children": [], "component": "", "createId": 0, "createTime": "", "icon": "", "id": 0, "isCheck": 0, "isHide": 0, "mate": "", "menuCode": "", "name": "", "orderNum": 0, "parentCode": "", "permissionValue": "", "redirect": "", "serverType": "", "status": 0, "system": "", "systemType": 0, "type": 0, "updateId": 0, "updateTime": "", "url": ""}</t>
         </is>
       </c>
     </row>
@@ -9099,7 +10435,7 @@
       <c r="F88" s="0" t="inlineStr"/>
       <c r="G88" s="0" t="inlineStr">
         <is>
-          <t>{'angina': '', 'arrhythmia': '', 'assessmentTime': '', 'at': '', 'cardiacTroponin': '', 'empiId': '', 'id': 0, 'oxygenUptake': '', 'oxygenUptakePercent': '', 'pci': '', 'psychologicalBarrier': '', 'result': '', 'resultString': '', 'revascularization': '', 'ventricularEjection': ''}</t>
+          <t>{"angina": "", "arrhythmia": "", "assessmentTime": "", "at": "", "cardiacTroponin": "", "empiId": "", "id": 0, "oxygenUptake": "", "oxygenUptakePercent": "", "pci": "", "psychologicalBarrier": "", "result": "", "resultString": "", "revascularization": "", "ventricularEjection": ""}</t>
         </is>
       </c>
     </row>
@@ -9132,7 +10468,7 @@
       <c r="F89" s="0" t="inlineStr"/>
       <c r="G89" s="0" t="inlineStr">
         <is>
-          <t>{'angina': '', 'arrhythmia': '', 'assessmentTime': '', 'at': '', 'cardiacTroponin': '', 'empiId': '', 'id': 0, 'oxygenUptake': '', 'oxygenUptakePercent': '', 'pci': '', 'psychologicalBarrier': '', 'result': '', 'resultString': '', 'revascularization': '', 'ventricularEjection': ''}</t>
+          <t>{"angina": "", "arrhythmia": "", "assessmentTime": "", "at": "", "cardiacTroponin": "", "empiId": "", "id": 0, "oxygenUptake": "", "oxygenUptakePercent": "", "pci": "", "psychologicalBarrier": "", "result": "", "resultString": "", "revascularization": "", "ventricularEjection": ""}</t>
         </is>
       </c>
     </row>
@@ -9165,7 +10501,7 @@
       <c r="F90" s="0" t="inlineStr"/>
       <c r="G90" s="0" t="inlineStr">
         <is>
-          <t>{'addTime': '', 'addUser': '', 'addUserId': '', 'createId': 0, 'createTime': '', 'dataJson': '', 'id': 0, 'infoId': 0, 'isDelete': 0, 'planId': 0, 'updateId': 0, 'updateTime': ''}</t>
+          <t>{"addTime": "", "addUser": "", "addUserId": "", "createId": 0, "createTime": "", "dataJson": "", "id": 0, "infoId": 0, "isDelete": 0, "planId": 0, "updateId": 0, "updateTime": ""}</t>
         </is>
       </c>
     </row>
@@ -9198,7 +10534,7 @@
       <c r="F91" s="0" t="inlineStr"/>
       <c r="G91" s="0" t="inlineStr">
         <is>
-          <t>{'age': 0, 'empiId': '', 'followPlanId': '', 'followUpName': '', 'identityCard': '', 'itemId': 0, 'patientName': '', 'sex': '', 'versionsId': ''}</t>
+          <t>{"age": 0, "empiId": "", "followPlanId": "", "followUpName": "", "identityCard": "", "itemId": 0, "patientName": "", "sex": "", "versionsId": ""}</t>
         </is>
       </c>
     </row>
@@ -9487,7 +10823,7 @@
       <c r="F100" s="0" t="inlineStr"/>
       <c r="G100" s="0" t="inlineStr">
         <is>
-          <t>{'addTime': '', 'addUser': '', 'addUserId': '', 'createId': 0, 'createTime': '', 'dataJson': '', 'id': 0, 'infoId': 0, 'isDelete': 0, 'planId': 0, 'updateId': 0, 'updateTime': ''}</t>
+          <t>{"addTime": "", "addUser": "", "addUserId": "", "createId": 0, "createTime": "", "dataJson": "", "id": 0, "infoId": 0, "isDelete": 0, "planId": 0, "updateId": 0, "updateTime": ""}</t>
         </is>
       </c>
     </row>
@@ -9616,7 +10952,7 @@
       <c r="F104" s="0" t="inlineStr"/>
       <c r="G104" s="0" t="inlineStr">
         <is>
-          <t>{'createId': 0, 'createTime': '', 'diastolicBloodPressure': 0, 'empiId': '', 'heartRate': 0, 'id': 0, 'isDelete': 0, 'measurementDate': '', 'measuringTime': '', 'rank': '', 'systolicPressure': 0, 'updateId': 0, 'updateTime': '', 'userId': 0}</t>
+          <t>{"createId": 0, "createTime": "", "diastolicBloodPressure": 0, "empiId": "", "heartRate": 0, "id": 0, "isDelete": 0, "measurementDate": "", "measuringTime": "", "rank": "", "systolicPressure": 0, "updateId": 0, "updateTime": "", "userId": 0}</t>
         </is>
       </c>
     </row>
@@ -9821,7 +11157,7 @@
       <c r="F111" s="0" t="inlineStr"/>
       <c r="G111" s="0" t="inlineStr">
         <is>
-          <t>{'createId': 0, 'createTime': '', 'creator': '', 'id': 0, 'isSelected': 0, 'menuCodes': [], 'projectId': [], 'remark': '', 'roleName': '', 'status': 0, 'systemType': 0, 'updateId': 0, 'updateTime': '', 'updater': ''}</t>
+          <t>{"createId": 0, "createTime": "", "creator": "", "id": 0, "isSelected": 0, "menuCodes": [], "projectId": [], "remark": "", "roleName": "", "status": 0, "systemType": 0, "updateId": 0, "updateTime": "", "updater": ""}</t>
         </is>
       </c>
     </row>
@@ -9854,7 +11190,7 @@
       <c r="F112" s="0" t="inlineStr"/>
       <c r="G112" s="0" t="inlineStr">
         <is>
-          <t>{'createId': 0, 'createTime': '', 'creator': '', 'id': 0, 'isSelected': 0, 'menuCodes': [], 'projectId': [], 'remark': '', 'roleName': '', 'status': 0, 'systemType': 0, 'updateId': 0, 'updateTime': '', 'updater': ''}</t>
+          <t>{"createId": 0, "createTime": "", "creator": "", "id": 0, "isSelected": 0, "menuCodes": [], "projectId": [], "remark": "", "roleName": "", "status": 0, "systemType": 0, "updateId": 0, "updateTime": "", "updater": ""}</t>
         </is>
       </c>
     </row>
@@ -9887,7 +11223,7 @@
       <c r="F113" s="0" t="inlineStr"/>
       <c r="G113" s="0" t="inlineStr">
         <is>
-          <t>{'createId': 0, 'createTime': '', 'creator': '', 'id': 0, 'isSelected': 0, 'menuCodes': [], 'projectId': [], 'remark': '', 'roleName': '', 'status': 0, 'systemType': 0, 'updateId': 0, 'updateTime': '', 'updater': ''}</t>
+          <t>{"createId": 0, "createTime": "", "creator": "", "id": 0, "isSelected": 0, "menuCodes": [], "projectId": [], "remark": "", "roleName": "", "status": 0, "systemType": 0, "updateId": 0, "updateTime": "", "updater": ""}</t>
         </is>
       </c>
     </row>
@@ -10182,7 +11518,7 @@
       <c r="F122" s="0" t="inlineStr"/>
       <c r="G122" s="0" t="inlineStr">
         <is>
-          <t>{'createTime': '', 'defaultValue': '', 'description': '', 'id': 0, 'inputCode': '', 'inputRange': '', 'inputType': '', 'name': '', 'type': '', 'updateTime': '', 'username': '', 'validScope': '', 'value': ''}</t>
+          <t>{"createTime": "", "defaultValue": "", "description": "", "id": 0, "inputCode": "", "inputRange": "", "inputType": "", "name": "", "type": "", "updateTime": "", "username": "", "validScope": "", "value": ""}</t>
         </is>
       </c>
     </row>
@@ -10279,7 +11615,7 @@
       <c r="F125" s="0" t="inlineStr"/>
       <c r="G125" s="0" t="inlineStr">
         <is>
-          <t>{'applyUserId': 0, 'applyUserName': '', 'classifyCode': '', 'classifyName': '', 'createId': 0, 'createTime': '', 'deptInfo': '', 'endDate': '', 'id': 0, 'localCode': '', 'localName': '', 'mark': 0, 'orgId': 0, 'parentCode': '', 'position': 0, 'standardCode': '', 'standardName': '', 'startDate': '', 'updateId': 0, 'updateTime': ''}</t>
+          <t>{"applyUserId": 0, "applyUserName": "", "classifyCode": "", "classifyName": "", "createId": 0, "createTime": "", "deptInfo": "", "endDate": "", "id": 0, "localCode": "", "localName": "", "mark": 0, "orgId": 0, "parentCode": "", "position": 0, "standardCode": "", "standardName": "", "startDate": "", "updateId": 0, "updateTime": ""}</t>
         </is>
       </c>
     </row>
@@ -10381,7 +11717,7 @@
       <c r="F128" s="0" t="inlineStr"/>
       <c r="G128" s="0" t="inlineStr">
         <is>
-          <t>{'applyUserId': 0, 'applyUserName': '', 'classifyCode': '', 'classifyName': '', 'createId': 0, 'createTime': '', 'deptInfo': '', 'endDate': '', 'id': 0, 'localCode': '', 'localName': '', 'mark': 0, 'orgId': 0, 'parentCode': '', 'position': 0, 'standardCode': '', 'standardName': '', 'startDate': '', 'updateId': 0, 'updateTime': ''}</t>
+          <t>{"applyUserId": 0, "applyUserName": "", "classifyCode": "", "classifyName": "", "createId": 0, "createTime": "", "deptInfo": "", "endDate": "", "id": 0, "localCode": "", "localName": "", "mark": 0, "orgId": 0, "parentCode": "", "position": 0, "standardCode": "", "standardName": "", "startDate": "", "updateId": 0, "updateTime": ""}</t>
         </is>
       </c>
     </row>
@@ -10414,7 +11750,7 @@
       <c r="F129" s="0" t="inlineStr"/>
       <c r="G129" s="0" t="inlineStr">
         <is>
-          <t>{'code': '', 'codeType': '', 'createId': 0, 'createTime': '', 'deps': [], 'id': 0, 'inputCode': '', 'isValid': 0, 'name': '', 'oldCodeType': '', 'oldSysName': '', 'orgNo': '', 'remark': '', 'sort': 0, 'subNo': '', 'sysName': '', 'type': '', 'updateId': 0, 'updateTime': ''}</t>
+          <t>{"code": "", "codeType": "", "createId": 0, "createTime": "", "deps": [], "id": 0, "inputCode": "", "isValid": 0, "name": "", "oldCodeType": "", "oldSysName": "", "orgNo": "", "remark": "", "sort": 0, "subNo": "", "sysName": "", "type": "", "updateId": 0, "updateTime": ""}</t>
         </is>
       </c>
     </row>
@@ -10442,7 +11778,7 @@
       <c r="F130" s="0" t="inlineStr"/>
       <c r="G130" s="0" t="inlineStr">
         <is>
-          <t>{'code': '', 'codeType': '', 'createId': 0, 'createTime': '', 'deps': [], 'id': 0, 'inputCode': '', 'isValid': 0, 'name': '', 'oldCodeType': '', 'oldSysName': '', 'orgNo': '', 'remark': '', 'sort': 0, 'subNo': '', 'sysName': '', 'type': '', 'updateId': 0, 'updateTime': ''}</t>
+          <t>{"code": "", "codeType": "", "createId": 0, "createTime": "", "deps": [], "id": 0, "inputCode": "", "isValid": 0, "name": "", "oldCodeType": "", "oldSysName": "", "orgNo": "", "remark": "", "sort": 0, "subNo": "", "sysName": "", "type": "", "updateId": 0, "updateTime": ""}</t>
         </is>
       </c>
     </row>
@@ -10561,7 +11897,7 @@
       <c r="F134" s="0" t="inlineStr"/>
       <c r="G134" s="0" t="inlineStr">
         <is>
-          <t>{'code': '', 'codeType': '', 'createId': 0, 'createTime': '', 'deps': [], 'id': 0, 'inputCode': '', 'isValid': 0, 'name': '', 'oldCodeType': '', 'oldSysName': '', 'orgNo': '', 'remark': '', 'sort': 0, 'subNo': '', 'sysName': '', 'type': '', 'updateId': 0, 'updateTime': ''}</t>
+          <t>{"code": "", "codeType": "", "createId": 0, "createTime": "", "deps": [], "id": 0, "inputCode": "", "isValid": 0, "name": "", "oldCodeType": "", "oldSysName": "", "orgNo": "", "remark": "", "sort": 0, "subNo": "", "sysName": "", "type": "", "updateId": 0, "updateTime": ""}</t>
         </is>
       </c>
     </row>
@@ -10643,7 +11979,7 @@
       <c r="F137" s="0" t="inlineStr"/>
       <c r="G137" s="0" t="inlineStr">
         <is>
-          <t>{'articleIntroId': 0, 'createId': 0, 'createTime': 0, 'empiId': '', 'id': 0, 'issueTime': '', 'issuer': '', 'patientList': [], 'projectId': 0, 'state': 0, 'updateId': '', 'updateTime': '', 'wzList': []}</t>
+          <t>{"articleIntroId": 0, "createId": 0, "createTime": 0, "empiId": "", "id": 0, "issueTime": "", "issuer": "", "patientList": [], "projectId": 0, "state": 0, "updateId": "", "updateTime": "", "wzList": []}</t>
         </is>
       </c>
     </row>
@@ -10676,7 +12012,7 @@
       <c r="F138" s="0" t="inlineStr"/>
       <c r="G138" s="0" t="inlineStr">
         <is>
-          <t>{'articleContent': '', 'articleIntro': '', 'articleName': '', 'author': '', 'cover': '', 'createId': 0, 'createTime': '', 'editName': '', 'editTime': '', 'id': 0, 'issueTime': '', 'issuer': '', 'projectId': 0, 'state': 0, 'updateId': 0, 'updateTime': '', 'viewCount': 0}</t>
+          <t>{"articleContent": "", "articleIntro": "", "articleName": "", "author": "", "cover": "", "createId": 0, "createTime": "", "editName": "", "editTime": "", "id": 0, "issueTime": "", "issuer": "", "projectId": 0, "state": 0, "updateId": 0, "updateTime": "", "viewCount": 0}</t>
         </is>
       </c>
     </row>
@@ -10709,7 +12045,7 @@
       <c r="F139" s="0" t="inlineStr"/>
       <c r="G139" s="0" t="inlineStr">
         <is>
-          <t>{'bucket': '', 'isCover': '', 'name': '', 'password': '', 'size': 0, 'userName': ''}</t>
+          <t>{"bucket": "", "isCover": "", "name": "", "password": "", "size": 0, "userName": ""}</t>
         </is>
       </c>
     </row>
@@ -10840,7 +12176,7 @@
       <c r="F143" s="0" t="inlineStr"/>
       <c r="G143" s="0" t="inlineStr">
         <is>
-          <t>{'articleContent': '', 'articleIntro': '', 'articleName': '', 'author': '', 'cover': '', 'createId': 0, 'createTime': '', 'editName': '', 'editTime': '', 'id': 0, 'issueTime': '', 'issuer': '', 'projectId': 0, 'state': 0, 'updateId': 0, 'updateTime': '', 'viewCount': 0}</t>
+          <t>{"articleContent": "", "articleIntro": "", "articleName": "", "author": "", "cover": "", "createId": 0, "createTime": "", "editName": "", "editTime": "", "id": 0, "issueTime": "", "issuer": "", "projectId": 0, "state": 0, "updateId": 0, "updateTime": "", "viewCount": 0}</t>
         </is>
       </c>
     </row>
@@ -10873,7 +12209,7 @@
       <c r="F144" s="0" t="inlineStr"/>
       <c r="G144" s="0" t="inlineStr">
         <is>
-          <t>{'articleIntroId': 0, 'createId': 0, 'createTime': 0, 'empiId': '', 'id': 0, 'issueTime': '', 'issuer': '', 'patientList': [], 'projectId': 0, 'state': 0, 'updateId': '', 'updateTime': '', 'wzList': []}</t>
+          <t>{"articleIntroId": 0, "createId": 0, "createTime": 0, "empiId": "", "id": 0, "issueTime": "", "issuer": "", "patientList": [], "projectId": 0, "state": 0, "updateId": "", "updateTime": "", "wzList": []}</t>
         </is>
       </c>
     </row>
@@ -11106,7 +12442,7 @@
       <c r="F152" s="0" t="inlineStr"/>
       <c r="G152" s="0" t="inlineStr">
         <is>
-          <t>{'articleContent': '', 'articleIntro': '', 'articleName': '', 'author': '', 'cover': '', 'createId': 0, 'createTime': '', 'editName': '', 'editTime': '', 'id': 0, 'issueTime': '', 'issuer': '', 'projectId': 0, 'state': 0, 'updateId': 0, 'updateTime': '', 'viewCount': 0}</t>
+          <t>{"articleContent": "", "articleIntro": "", "articleName": "", "author": "", "cover": "", "createId": 0, "createTime": "", "editName": "", "editTime": "", "id": 0, "issueTime": "", "issuer": "", "projectId": 0, "state": 0, "updateId": 0, "updateTime": "", "viewCount": 0}</t>
         </is>
       </c>
     </row>
@@ -12080,7 +13416,7 @@
       <c r="F183" s="0" t="inlineStr"/>
       <c r="G183" s="0" t="inlineStr">
         <is>
-          <t>{'projectId': 0, 'residueSystemIds': [], 'systemIds': []}</t>
+          <t>{"projectId": 0, "residueSystemIds": [], "systemIds": []}</t>
         </is>
       </c>
     </row>
@@ -12366,7 +13702,7 @@
       <c r="F192" s="0" t="inlineStr"/>
       <c r="G192" s="0" t="inlineStr">
         <is>
-          <t>{'administrativeDuties': 0, 'applyUserId': 0, 'birthPlace': 0, 'birthday': '', 'cardNo': '', 'compilationSituation': 0, 'createId': 0, 'createTime': '', 'degree': 0, 'deptCode': 0, 'deptStr': '', 'deptUserId': 0, 'descr': '', 'educationalHistory': 0, 'email': '', 'endDate': '', 'id': 0, 'idCardType': 0, 'lastLoginoutProject': 0, 'mobile': '', 'nationality': 0, 'orgCode': 0, 'orgStr': '', 'password': '', 'personnelCategory': 0, 'personnelCategoryStr': '', 'physicianPracticeCategory': 0, 'physicianPracticeScope': 0, 'practiceJobCategory': 0, 'professionalCategory': 0, 'professionalTechJob': 0, 'profilePicture': '', 'registerTime': '', 'sex': 0, 'sexStr': '', 'shortName': '', 'startDate': '', 'status': 0, 'title': 0, 'titleStr': '', 'type': 0, 'updateId': 0, 'updateTime': '', 'userName': '', 'userNo': '', 'wardId': 0, 'wardStr': ''}</t>
+          <t>{"administrativeDuties": 0, "applyUserId": 0, "birthPlace": 0, "birthday": "", "cardNo": "", "compilationSituation": 0, "createId": 0, "createTime": "", "degree": 0, "deptCode": 0, "deptStr": "", "deptUserId": 0, "descr": "", "educationalHistory": 0, "email": "", "endDate": "", "id": 0, "idCardType": 0, "lastLoginoutProject": 0, "mobile": "", "nationality": 0, "orgCode": 0, "orgStr": "", "password": "", "personnelCategory": 0, "personnelCategoryStr": "", "physicianPracticeCategory": 0, "physicianPracticeScope": 0, "practiceJobCategory": 0, "professionalCategory": 0, "professionalTechJob": 0, "profilePicture": "", "registerTime": "", "sex": 0, "sexStr": "", "shortName": "", "startDate": "", "status": 0, "title": 0, "titleStr": "", "type": 0, "updateId": 0, "updateTime": "", "userName": "", "userNo": "", "wardId": 0, "wardStr": ""}</t>
         </is>
       </c>
     </row>
@@ -12399,7 +13735,7 @@
       <c r="F193" s="0" t="inlineStr"/>
       <c r="G193" s="0" t="inlineStr">
         <is>
-          <t>{'bucket': '', 'isCover': '', 'name': '', 'password': '', 'size': 0, 'userName': ''}</t>
+          <t>{"bucket": "", "isCover": "", "name": "", "password": "", "size": 0, "userName": ""}</t>
         </is>
       </c>
     </row>
@@ -12707,7 +14043,7 @@
       <c r="F203" s="0" t="inlineStr"/>
       <c r="G203" s="0" t="inlineStr">
         <is>
-          <t>{'projectId': 0, 'roleList': [], 'userDetailId': 0, 'userId': 0, 'userName': '', 'userNo': ''}</t>
+          <t>{"projectId": 0, "roleList": [], "userDetailId": 0, "userId": 0, "userName": "", "userNo": ""}</t>
         </is>
       </c>
     </row>
@@ -12740,7 +14076,7 @@
       <c r="F204" s="0" t="inlineStr"/>
       <c r="G204" s="0" t="inlineStr">
         <is>
-          <t>{'administrativeDuties': 0, 'applyUserId': 0, 'birthPlace': 0, 'birthday': '', 'cardNo': '', 'compilationSituation': 0, 'createId': 0, 'createTime': '', 'degree': 0, 'deptCode': 0, 'deptStr': '', 'deptUserId': 0, 'descr': '', 'educationalHistory': 0, 'email': '', 'endDate': '', 'id': 0, 'idCardType': 0, 'lastLoginoutProject': 0, 'mobile': '', 'nationality': 0, 'orgCode': 0, 'orgStr': '', 'password': '', 'personnelCategory': 0, 'personnelCategoryStr': '', 'physicianPracticeCategory': 0, 'physicianPracticeScope': 0, 'practiceJobCategory': 0, 'professionalCategory': 0, 'professionalTechJob': 0, 'profilePicture': '', 'registerTime': '', 'sex': 0, 'sexStr': '', 'shortName': '', 'startDate': '', 'status': 0, 'title': 0, 'titleStr': '', 'type': 0, 'updateId': 0, 'updateTime': '', 'userName': '', 'userNo': '', 'wardId': 0, 'wardStr': ''}</t>
+          <t>{"administrativeDuties": 0, "applyUserId": 0, "birthPlace": 0, "birthday": "", "cardNo": "", "compilationSituation": 0, "createId": 0, "createTime": "", "degree": 0, "deptCode": 0, "deptStr": "", "deptUserId": 0, "descr": "", "educationalHistory": 0, "email": "", "endDate": "", "id": 0, "idCardType": 0, "lastLoginoutProject": 0, "mobile": "", "nationality": 0, "orgCode": 0, "orgStr": "", "password": "", "personnelCategory": 0, "personnelCategoryStr": "", "physicianPracticeCategory": 0, "physicianPracticeScope": 0, "practiceJobCategory": 0, "professionalCategory": 0, "professionalTechJob": 0, "profilePicture": "", "registerTime": "", "sex": 0, "sexStr": "", "shortName": "", "startDate": "", "status": 0, "title": 0, "titleStr": "", "type": 0, "updateId": 0, "updateTime": "", "userName": "", "userNo": "", "wardId": 0, "wardStr": ""}</t>
         </is>
       </c>
     </row>
@@ -12773,7 +14109,7 @@
       <c r="F205" s="0" t="inlineStr"/>
       <c r="G205" s="0" t="inlineStr">
         <is>
-          <t>{'projectId': 0, 'roleList': [], 'userDetailId': 0, 'userId': 0, 'userName': '', 'userNo': ''}</t>
+          <t>{"projectId": 0, "roleList": [], "userDetailId": 0, "userId": 0, "userName": "", "userNo": ""}</t>
         </is>
       </c>
     </row>
@@ -12939,7 +14275,7 @@
       <c r="F210" s="0" t="inlineStr"/>
       <c r="G210" s="0" t="inlineStr">
         <is>
-          <t>{'createId': 0, 'createTime': '', 'diseaseTypeCode': 0, 'docId': 0, 'id': 0, 'isCharge': 0, 'isDelete': 0, 'isOpen': 0, 'price': 0, 'updateId': 0, 'updateTime': ''}</t>
+          <t>{"createId": 0, "createTime": "", "diseaseTypeCode": 0, "docId": 0, "id": 0, "isCharge": 0, "isDelete": 0, "isOpen": 0, "price": 0, "updateId": 0, "updateTime": ""}</t>
         </is>
       </c>
     </row>
@@ -13556,7 +14892,7 @@
       <c r="F229" s="0" t="inlineStr"/>
       <c r="G229" s="0" t="inlineStr">
         <is>
-          <t>{'beginAge': 0, 'currentPage': 0, 'docName': '', 'endAge': 0, 'followUpComplete': '', 'groupType': '', 'name': '', 'orgId': 0, 'orgIdList': [], 'pageSize': 0, 'statusList': []}</t>
+          <t>{"beginAge": 0, "currentPage": 0, "docName": "", "endAge": 0, "followUpComplete": "", "groupType": "", "name": "", "orgId": 0, "orgIdList": [], "pageSize": 0, "statusList": []}</t>
         </is>
       </c>
     </row>
@@ -13756,7 +15092,7 @@
       <c r="F236" s="0" t="inlineStr"/>
       <c r="G236" s="0" t="inlineStr">
         <is>
-          <t>{'beginAge': 0, 'currentPage': 0, 'docName': '', 'endAge': 0, 'followUpComplete': '', 'groupType': '', 'name': '', 'orgId': 0, 'orgIdList': [], 'pageSize': 0, 'statusList': []}</t>
+          <t>{"beginAge": 0, "currentPage": 0, "docName": "", "endAge": 0, "followUpComplete": "", "groupType": "", "name": "", "orgId": 0, "orgIdList": [], "pageSize": 0, "statusList": []}</t>
         </is>
       </c>
     </row>
@@ -13789,7 +15125,7 @@
       <c r="F237" s="0" t="inlineStr"/>
       <c r="G237" s="0" t="inlineStr">
         <is>
-          <t>{'diseaseTypeId': 0, 'doctorId': 0, 'doctorName': '', 'empiId': '', 'grading': '', 'idCardNo': '', 'itemId': '', 'name': '', 'orgId': 0, 'pciSurgeryTime': '', 'phone': '', 'registerAndReceivedFlag': 0, 'surgicalSite': ''}</t>
+          <t>{"diseaseTypeId": 0, "doctorId": 0, "doctorName": "", "empiId": "", "grading": "", "idCardNo": "", "itemId": "", "name": "", "orgId": 0, "pciSurgeryTime": "", "phone": "", "registerAndReceivedFlag": 0, "surgicalSite": ""}</t>
         </is>
       </c>
     </row>
@@ -13881,7 +15217,7 @@
       <c r="F240" s="0" t="inlineStr"/>
       <c r="G240" s="0" t="inlineStr">
         <is>
-          <t>{'currPage': 0, 'followId': '', 'followUpComplete': '', 'itemId': 0, 'pageSize': 0, 'patientName': '', 'riskLevel': ''}</t>
+          <t>{"currPage": 0, "followId": "", "followUpComplete": "", "itemId": 0, "pageSize": 0, "patientName": "", "riskLevel": ""}</t>
         </is>
       </c>
     </row>
@@ -13914,7 +15250,7 @@
       <c r="F241" s="0" t="inlineStr"/>
       <c r="G241" s="0" t="inlineStr">
         <is>
-          <t>{'beginAge': 0, 'currentPage': 0, 'docName': '', 'endAge': 0, 'followUpComplete': '', 'groupType': '', 'name': '', 'orgId': 0, 'orgIdList': [], 'pageSize': 0, 'statusList': []}</t>
+          <t>{"beginAge": 0, "currentPage": 0, "docName": "", "endAge": 0, "followUpComplete": "", "groupType": "", "name": "", "orgId": 0, "orgIdList": [], "pageSize": 0, "statusList": []}</t>
         </is>
       </c>
     </row>
@@ -14016,7 +15352,7 @@
       <c r="F244" s="0" t="inlineStr"/>
       <c r="G244" s="0" t="inlineStr">
         <is>
-          <t>{'age': '', 'avatar': '', 'belongDocId': 0, 'birthday': '', 'completeTag': '', 'dateAdded': '', 'empiId': '', 'fatFlag': '', 'followId': 0, 'followUpStatus': '', 'grading': '', 'gradingName': '', 'historyState': '', 'id': 0, 'idCardNo': '', 'itemId': '', 'name': '', 'phone': '', 'referralDocId': 0, 'riskLevelName': '', 'sex': '', 'sexName': '', 'state': 0, 'status': ''}</t>
+          <t>{"age": "", "avatar": "", "belongDocId": 0, "birthday": "", "completeTag": "", "dateAdded": "", "empiId": "", "fatFlag": "", "followId": 0, "followUpStatus": "", "grading": "", "gradingName": "", "historyState": "", "id": 0, "idCardNo": "", "itemId": "", "name": "", "phone": "", "referralDocId": 0, "riskLevelName": "", "sex": "", "sexName": "", "state": 0, "status": ""}</t>
         </is>
       </c>
     </row>
@@ -14049,7 +15385,7 @@
       <c r="F245" s="0" t="inlineStr"/>
       <c r="G245" s="0" t="inlineStr">
         <is>
-          <t>{'doctorDesignatedFlag': 0, 'doctorId': 0, 'doctorName': '', 'idCardNo': '', 'itemId': '', 'name': '', 'orgId': 0, 'phone': ''}</t>
+          <t>{"doctorDesignatedFlag": 0, "doctorId": 0, "doctorName": "", "idCardNo": "", "itemId": "", "name": "", "orgId": 0, "phone": ""}</t>
         </is>
       </c>
     </row>
@@ -14082,7 +15418,7 @@
       <c r="F246" s="0" t="inlineStr"/>
       <c r="G246" s="0" t="inlineStr">
         <is>
-          <t>{'orgId': 0, 'orgName': ''}</t>
+          <t>{"orgId": 0, "orgName": ""}</t>
         </is>
       </c>
     </row>
@@ -14115,7 +15451,7 @@
       <c r="F247" s="0" t="inlineStr"/>
       <c r="G247" s="0" t="inlineStr">
         <is>
-          <t>{'empiId': '', 'idCardNo': '', 'name': '', 'phone': ''}</t>
+          <t>{"empiId": "", "idCardNo": "", "name": "", "phone": ""}</t>
         </is>
       </c>
     </row>
@@ -14148,7 +15484,7 @@
       <c r="F248" s="0" t="inlineStr"/>
       <c r="G248" s="0" t="inlineStr">
         <is>
-          <t>{'empiId': '', 'idCardNo': '', 'itemId': '', 'name': '', 'orgId': 0, 'phone': '', 'registerAndReceivedFlag': 0, 'updateDoctorId': 0, 'updateDoctorName': ''}</t>
+          <t>{"empiId": "", "idCardNo": "", "itemId": "", "name": "", "orgId": 0, "phone": "", "registerAndReceivedFlag": 0, "updateDoctorId": 0, "updateDoctorName": ""}</t>
         </is>
       </c>
     </row>
@@ -14461,7 +15797,7 @@
       <c r="F258" s="0" t="inlineStr"/>
       <c r="G258" s="0" t="inlineStr">
         <is>
-          <t>{'accountEffectTime': '', 'accountInvalidTime': '', 'allowErrorNum': 0, 'allowLoginTime': '', 'crcFlag': '?', 'deptCodeName': '', 'deptStr': '', 'email': '', 'id': 0, 'isCanLoginApplet': 0, 'isForcedPasswordExpiration': 0, 'lastLoginoutProject': 0, 'mobile': '', 'orgId': 0, 'password': '', 'passwordEffectDay': 0, 'passwordErrorNum': 0, 'passwordInvalidDate': '', 'passwordLockDuration': '', 'passwordLockTimes': 0, 'professionalTechJobName': '', 'profilePicture': '', 'roleStr': '', 'secretEffectTime': '', 'secretInvalidTime': '', 'status': 0, 'statusStr': '', 'type': 0, 'userDetailId': 0, 'userName': '', 'userNo': '', 'userRoleList': []}</t>
+          <t>{"accountEffectTime": "", "accountInvalidTime": "", "allowErrorNum": 0, "allowLoginTime": "", "crcFlag": "?", "deptCodeName": "", "deptStr": "", "email": "", "id": 0, "isCanLoginApplet": 0, "isForcedPasswordExpiration": 0, "lastLoginoutProject": 0, "mobile": "", "orgId": 0, "password": "", "passwordEffectDay": 0, "passwordErrorNum": 0, "passwordInvalidDate": "", "passwordLockDuration": "", "passwordLockTimes": 0, "professionalTechJobName": "", "profilePicture": "", "roleStr": "", "secretEffectTime": "", "secretInvalidTime": "", "status": 0, "statusStr": "", "type": 0, "userDetailId": 0, "userName": "", "userNo": "", "userRoleList": []}</t>
         </is>
       </c>
     </row>
@@ -14591,7 +15927,7 @@
       <c r="F262" s="0" t="inlineStr"/>
       <c r="G262" s="0" t="inlineStr">
         <is>
-          <t>{'accountEffectTime': '', 'accountInvalidTime': '', 'allowErrorNum': 0, 'allowLoginTime': '', 'crcFlag': '?', 'deptCodeName': '', 'deptStr': '', 'email': '', 'id': 0, 'isCanLoginApplet': 0, 'isForcedPasswordExpiration': 0, 'lastLoginoutProject': 0, 'mobile': '', 'orgId': 0, 'password': '', 'passwordEffectDay': 0, 'passwordErrorNum': 0, 'passwordInvalidDate': '', 'passwordLockDuration': '', 'passwordLockTimes': 0, 'professionalTechJobName': '', 'profilePicture': '', 'roleStr': '', 'secretEffectTime': '', 'secretInvalidTime': '', 'status': 0, 'statusStr': '', 'type': 0, 'userDetailId': 0, 'userName': '', 'userNo': '', 'userRoleList': []}</t>
+          <t>{"accountEffectTime": "", "accountInvalidTime": "", "allowErrorNum": 0, "allowLoginTime": "", "crcFlag": "?", "deptCodeName": "", "deptStr": "", "email": "", "id": 0, "isCanLoginApplet": 0, "isForcedPasswordExpiration": 0, "lastLoginoutProject": 0, "mobile": "", "orgId": 0, "password": "", "passwordEffectDay": 0, "passwordErrorNum": 0, "passwordInvalidDate": "", "passwordLockDuration": "", "passwordLockTimes": 0, "professionalTechJobName": "", "profilePicture": "", "roleStr": "", "secretEffectTime": "", "secretInvalidTime": "", "status": 0, "statusStr": "", "type": 0, "userDetailId": 0, "userName": "", "userNo": "", "userRoleList": []}</t>
         </is>
       </c>
     </row>
@@ -14670,7 +16006,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14885,7 +16221,7 @@
       <c r="F6" s="0" t="inlineStr"/>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>{'coordinate': '', 'isEasyPSW': 0, 'newFirstPassword': '', 'newSecondPassword': '', 'password': '', 'secretCardCode': '', 'userNo': ''}</t>
+          <t>{"coordinate": "", "isEasyPSW": 0, "newFirstPassword": "", "newSecondPassword": "", "password": "", "secretCardCode": "", "userNo": ""}</t>
         </is>
       </c>
     </row>
@@ -14951,1267 +16287,7 @@
       <c r="F8" s="0" t="inlineStr"/>
       <c r="G8" s="0" t="inlineStr">
         <is>
-          <t>{'jsCode': '', 'loginEnum': '', 'password': '', 'userNo': ''}</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t>tags</t>
-        </is>
-      </c>
-      <c r="B1" s="0" t="inlineStr">
-        <is>
-          <t>summary</t>
-        </is>
-      </c>
-      <c r="C1" s="0" t="inlineStr">
-        <is>
-          <t>paths</t>
-        </is>
-      </c>
-      <c r="D1" s="0" t="inlineStr">
-        <is>
-          <t>method</t>
-        </is>
-      </c>
-      <c r="E1" s="0" t="inlineStr">
-        <is>
-          <t>consumes</t>
-        </is>
-      </c>
-      <c r="F1" s="0" t="inlineStr">
-        <is>
-          <t>query</t>
-        </is>
-      </c>
-      <c r="G1" s="0" t="inlineStr">
-        <is>
-          <t>body</t>
-        </is>
-      </c>
-      <c r="H1" s="0" t="inlineStr">
-        <is>
-          <t>parameters [参数名称，参数说明，请求类型，是否必须，数据类型，schema]</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>随访模块接口</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>获取app端患者对应的随访信息</t>
-        </is>
-      </c>
-      <c r="C2" s="0" t="inlineStr">
-        <is>
-          <t>/ecg/ecgFollowInfo/selectPIdByRemindMsg</t>
-        </is>
-      </c>
-      <c r="D2" s="0" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="inlineStr">
-        <is>
-          <t>随访模块接口</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>更新患者为已读状态</t>
-        </is>
-      </c>
-      <c r="C3" s="0" t="inlineStr">
-        <is>
-          <t>/ecg/ecgFollowInfo/updatePatientRemind</t>
-        </is>
-      </c>
-      <c r="D3" s="0" t="inlineStr">
-        <is>
-          <t>put</t>
-        </is>
-      </c>
-      <c r="E3" s="0" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="G3" s="0" t="inlineStr">
-        <is>
-          <t>{'hospitalName': '', 'id': 0, 'isRead': 0, 'remindCount': 0, 'remindTime': ''}</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="inlineStr">
-        <is>
-          <t>患者项目关系表接口</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>新增</t>
-        </is>
-      </c>
-      <c r="C4" s="0" t="inlineStr">
-        <is>
-          <t>/ecg/ecgPatientItemRelation/create</t>
-        </is>
-      </c>
-      <c r="D4" s="0" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E4" s="0" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="H4" s="0" t="inlineStr">
-        <is>
-          <t>[{'name': 'createId', 'in': 'query', 'description': '创建者ID', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'createTime', 'in': 'query', 'description': '创建时间', 'required': False, 'type': 'string', 'format': 'date-time'}, {'name': 'empId', 'in': 'query', 'description': '患者empId（对应患者信息表中的empId）', 'required': False, 'type': 'string'}, {'name': 'id', 'in': 'query', 'description': '主键', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'isDelete', 'in': 'query', 'description': '是否删除', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'itemId', 'in': 'query', 'description': '项目id', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'updateId', 'in': 'query', 'description': '编辑者ID', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'updateTime', 'in': 'query', 'description': '编辑时间', 'required': False, 'type': 'string', 'format': 'date-time'}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t>患者项目关系表接口</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>删除</t>
-        </is>
-      </c>
-      <c r="C5" s="0" t="inlineStr">
-        <is>
-          <t>/ecg/ecgPatientItemRelation/delete/{id}</t>
-        </is>
-      </c>
-      <c r="D5" s="0" t="inlineStr">
-        <is>
-          <t>delete</t>
-        </is>
-      </c>
-      <c r="H5" s="0" t="inlineStr">
-        <is>
-          <t>[{'name': 'id', 'in': 'path', 'description': '数据对象id', 'required': False, 'type': 'string'}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="inlineStr">
-        <is>
-          <t>患者项目关系表接口</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t>分页查询</t>
-        </is>
-      </c>
-      <c r="C6" s="0" t="inlineStr">
-        <is>
-          <t>/ecg/ecgPatientItemRelation/page</t>
-        </is>
-      </c>
-      <c r="D6" s="0" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H6" s="0" t="inlineStr">
-        <is>
-          <t>[{'name': 'currPage', 'description': '当前页', 'required': False, 'schema': {'type': 'integer', 'format': 'int32'}}, {'name': 'pageSize', 'description': '每页显示数量', 'required': False, 'schema': {'type': 'integer', 'format': 'int32'}}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="inlineStr">
-        <is>
-          <t>患者项目关系表接口</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>通过ID获取一条数据</t>
-        </is>
-      </c>
-      <c r="C7" s="0" t="inlineStr">
-        <is>
-          <t>/ecg/ecgPatientItemRelation/read/{id}</t>
-        </is>
-      </c>
-      <c r="D7" s="0" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>[{'name': 'id', 'in': 'path', 'description': '数据对象id', 'required': False, 'type': 'string'}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="inlineStr">
-        <is>
-          <t>患者项目关系表接口</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t>更新</t>
-        </is>
-      </c>
-      <c r="C8" s="0" t="inlineStr">
-        <is>
-          <t>/ecg/ecgPatientItemRelation/update</t>
-        </is>
-      </c>
-      <c r="D8" s="0" t="inlineStr">
-        <is>
-          <t>put</t>
-        </is>
-      </c>
-      <c r="E8" s="0" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="H8" s="0" t="inlineStr">
-        <is>
-          <t>[{'name': 'createId', 'in': 'query', 'description': '创建者ID', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'createTime', 'in': 'query', 'description': '创建时间', 'required': False, 'type': 'string', 'format': 'date-time'}, {'name': 'empId', 'in': 'query', 'description': '患者empId（对应患者信息表中的empId）', 'required': False, 'type': 'string'}, {'name': 'id', 'in': 'query', 'description': '主键', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'isDelete', 'in': 'query', 'description': '是否删除', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'itemId', 'in': 'query', 'description': '项目id', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'updateId', 'in': 'query', 'description': '编辑者ID', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'updateTime', 'in': 'query', 'description': '编辑时间', 'required': False, 'type': 'string', 'format': 'date-time'}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="inlineStr">
-        <is>
-          <t>test1测试用表</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>新增</t>
-        </is>
-      </c>
-      <c r="C9" s="0" t="inlineStr">
-        <is>
-          <t>/ecg/genTest1/create</t>
-        </is>
-      </c>
-      <c r="D9" s="0" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E9" s="0" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="H9" s="0" t="inlineStr">
-        <is>
-          <t>[{'name': 'id', 'in': 'query', 'description': '主健id', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'testName', 'in': 'query', 'description': '测试字段值', 'required': False, 'type': 'string'}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="inlineStr">
-        <is>
-          <t>test1测试用表</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t>删除</t>
-        </is>
-      </c>
-      <c r="C10" s="0" t="inlineStr">
-        <is>
-          <t>/ecg/genTest1/delete/{id}</t>
-        </is>
-      </c>
-      <c r="D10" s="0" t="inlineStr">
-        <is>
-          <t>delete</t>
-        </is>
-      </c>
-      <c r="H10" s="0" t="inlineStr">
-        <is>
-          <t>[{'name': 'id', 'in': 'path', 'description': '数据对象id', 'required': False, 'type': 'string'}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="inlineStr">
-        <is>
-          <t>test1测试用表</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t>分页查询</t>
-        </is>
-      </c>
-      <c r="C11" s="0" t="inlineStr">
-        <is>
-          <t>/ecg/genTest1/page</t>
-        </is>
-      </c>
-      <c r="D11" s="0" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H11" s="0" t="inlineStr">
-        <is>
-          <t>[{'name': 'currPage', 'description': '当前页', 'required': False, 'schema': {'type': 'integer', 'format': 'int32'}}, {'name': 'pageSize', 'description': '每页显示数量', 'required': False, 'schema': {'type': 'integer', 'format': 'int32'}}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="inlineStr">
-        <is>
-          <t>test1测试用表</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t>通过ID获取一条数据</t>
-        </is>
-      </c>
-      <c r="C12" s="0" t="inlineStr">
-        <is>
-          <t>/ecg/genTest1/read/{id}</t>
-        </is>
-      </c>
-      <c r="D12" s="0" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H12" s="0" t="inlineStr">
-        <is>
-          <t>[{'name': 'id', 'in': 'path', 'description': '数据对象id', 'required': False, 'type': 'string'}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="inlineStr">
-        <is>
-          <t>test1测试用表</t>
-        </is>
-      </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t>更新</t>
-        </is>
-      </c>
-      <c r="C13" s="0" t="inlineStr">
-        <is>
-          <t>/ecg/genTest1/update</t>
-        </is>
-      </c>
-      <c r="D13" s="0" t="inlineStr">
-        <is>
-          <t>put</t>
-        </is>
-      </c>
-      <c r="E13" s="0" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="H13" s="0" t="inlineStr">
-        <is>
-          <t>[{'name': 'id', 'in': 'query', 'description': '主健id', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'testName', 'in': 'query', 'description': '测试字段值', 'required': False, 'type': 'string'}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="inlineStr">
-        <is>
-          <t>测试用表2</t>
-        </is>
-      </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t>新增</t>
-        </is>
-      </c>
-      <c r="C14" s="0" t="inlineStr">
-        <is>
-          <t>/ecg/genTest2/create</t>
-        </is>
-      </c>
-      <c r="D14" s="0" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E14" s="0" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="H14" s="0" t="inlineStr">
-        <is>
-          <t>[{'name': 'id', 'in': 'query', 'description': '主健id', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'testName', 'in': 'query', 'description': '测试字段名', 'required': False, 'type': 'string'}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="inlineStr">
-        <is>
-          <t>测试用表2</t>
-        </is>
-      </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t>删除</t>
-        </is>
-      </c>
-      <c r="C15" s="0" t="inlineStr">
-        <is>
-          <t>/ecg/genTest2/delete/{id}</t>
-        </is>
-      </c>
-      <c r="D15" s="0" t="inlineStr">
-        <is>
-          <t>delete</t>
-        </is>
-      </c>
-      <c r="H15" s="0" t="inlineStr">
-        <is>
-          <t>[{'name': 'id', 'in': 'path', 'description': '数据对象id', 'required': False, 'type': 'string'}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="inlineStr">
-        <is>
-          <t>测试用表2</t>
-        </is>
-      </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t>分页查询</t>
-        </is>
-      </c>
-      <c r="C16" s="0" t="inlineStr">
-        <is>
-          <t>/ecg/genTest2/page</t>
-        </is>
-      </c>
-      <c r="D16" s="0" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H16" s="0" t="inlineStr">
-        <is>
-          <t>[{'name': 'currPage', 'description': '当前页', 'required': False, 'schema': {'type': 'integer', 'format': 'int32'}}, {'name': 'pageSize', 'description': '每页显示数量', 'required': False, 'schema': {'type': 'integer', 'format': 'int32'}}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="inlineStr">
-        <is>
-          <t>测试用表2</t>
-        </is>
-      </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t>通过ID获取一条数据</t>
-        </is>
-      </c>
-      <c r="C17" s="0" t="inlineStr">
-        <is>
-          <t>/ecg/genTest2/read/{id}</t>
-        </is>
-      </c>
-      <c r="D17" s="0" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H17" s="0" t="inlineStr">
-        <is>
-          <t>[{'name': 'id', 'in': 'path', 'description': '数据对象id', 'required': False, 'type': 'string'}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="inlineStr">
-        <is>
-          <t>测试用表2</t>
-        </is>
-      </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t>更新</t>
-        </is>
-      </c>
-      <c r="C18" s="0" t="inlineStr">
-        <is>
-          <t>/ecg/genTest2/update</t>
-        </is>
-      </c>
-      <c r="D18" s="0" t="inlineStr">
-        <is>
-          <t>put</t>
-        </is>
-      </c>
-      <c r="E18" s="0" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="H18" s="0" t="inlineStr">
-        <is>
-          <t>[{'name': 'id', 'in': 'query', 'description': '主健id', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'testName', 'in': 'query', 'description': '测试字段名', 'required': False, 'type': 'string'}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="inlineStr">
-        <is>
-          <t>心电报告表接口</t>
-        </is>
-      </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t>手机端查看当前登陆人心电报告</t>
-        </is>
-      </c>
-      <c r="C19" s="0" t="inlineStr">
-        <is>
-          <t>/ecg/report/mobileTerminalGetReport</t>
-        </is>
-      </c>
-      <c r="D19" s="0" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0" t="inlineStr">
-        <is>
-          <t>心电报告表接口</t>
-        </is>
-      </c>
-      <c r="B20" s="0" t="inlineStr">
-        <is>
-          <t>同步心电报告</t>
-        </is>
-      </c>
-      <c r="C20" s="0" t="inlineStr">
-        <is>
-          <t>/ecg/report/transEcgReport</t>
-        </is>
-      </c>
-      <c r="D20" s="0" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E20" s="0" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0" t="inlineStr">
-        <is>
-          <t>患者、账号关系表接口</t>
-        </is>
-      </c>
-      <c r="B21" s="0" t="inlineStr">
-        <is>
-          <t>绑定用户</t>
-        </is>
-      </c>
-      <c r="C21" s="0" t="inlineStr">
-        <is>
-          <t>/ecg/tBandingWxRelation/bandingPatient</t>
-        </is>
-      </c>
-      <c r="D21" s="0" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E21" s="0" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F21" s="0" t="inlineStr">
-        <is>
-          <t>healthCardNo={string}&amp;name={string}</t>
-        </is>
-      </c>
-      <c r="H21" s="0" t="inlineStr">
-        <is>
-          <t>[{'name': 'healthCardNo', 'in': 'query', 'description': 'healthCardNo', 'required': True, 'type': 'string'}, {'name': 'name', 'in': 'query', 'description': 'name', 'required': True, 'type': 'string'}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0" t="inlineStr">
-        <is>
-          <t>患者、账号关系表接口</t>
-        </is>
-      </c>
-      <c r="B22" s="0" t="inlineStr">
-        <is>
-          <t>撤销绑定</t>
-        </is>
-      </c>
-      <c r="C22" s="0" t="inlineStr">
-        <is>
-          <t>/ecg/tBandingWxRelation/cancelBanding</t>
-        </is>
-      </c>
-      <c r="D22" s="0" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E22" s="0" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="H22" s="0" t="inlineStr">
-        <is>
-          <t>[{'name': 'empiId', 'in': 'query', 'description': 'ecg用户id', 'required': False, 'type': 'string'}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0" t="inlineStr">
-        <is>
-          <t>患者、账号关系表接口</t>
-        </is>
-      </c>
-      <c r="B23" s="0" t="inlineStr">
-        <is>
-          <t>获取动态验证码</t>
-        </is>
-      </c>
-      <c r="C23" s="0" t="inlineStr">
-        <is>
-          <t>/ecg/tBandingWxRelation/getMsgCode</t>
-        </is>
-      </c>
-      <c r="D23" s="0" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F23" s="0" t="inlineStr">
-        <is>
-          <t>phone={string}</t>
-        </is>
-      </c>
-      <c r="H23" s="0" t="inlineStr">
-        <is>
-          <t>[{'name': 'phone', 'in': 'query', 'description': '手机号码', 'required': True, 'type': 'string'}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0" t="inlineStr">
-        <is>
-          <t>患者、账号关系表接口</t>
-        </is>
-      </c>
-      <c r="B24" s="0" t="inlineStr">
-        <is>
-          <t>根据身份证和姓名查询患者</t>
-        </is>
-      </c>
-      <c r="C24" s="0" t="inlineStr">
-        <is>
-          <t>/ecg/tBandingWxRelation/getPatientByRule</t>
-        </is>
-      </c>
-      <c r="D24" s="0" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H24" s="0" t="inlineStr">
-        <is>
-          <t>[{'name': 'healthCardNo', 'in': 'query', 'description': '健康卡号', 'required': False, 'type': 'string'}, {'name': 'name', 'in': 'query', 'description': '姓名', 'required': False, 'type': 'string'}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0" t="inlineStr">
-        <is>
-          <t>患者、账号关系表接口</t>
-        </is>
-      </c>
-      <c r="B25" s="0" t="inlineStr">
-        <is>
-          <t>通过手机验证码查询绑定患者信息</t>
-        </is>
-      </c>
-      <c r="C25" s="0" t="inlineStr">
-        <is>
-          <t>/ecg/tBandingWxRelation/getPatientByRuleAndPhoneCode</t>
-        </is>
-      </c>
-      <c r="D25" s="0" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F25" s="0" t="inlineStr">
-        <is>
-          <t>code={string}&amp;healthCardNo={string}&amp;name={string}&amp;phoneNumber={string}</t>
-        </is>
-      </c>
-      <c r="H25" s="0" t="inlineStr">
-        <is>
-          <t>[{'name': 'code', 'in': 'query', 'description': '验证码', 'required': True, 'type': 'string'}, {'name': 'healthCardNo', 'in': 'query', 'description': '健康卡号', 'required': True, 'type': 'string'}, {'name': 'name', 'in': 'query', 'description': '姓名', 'required': True, 'type': 'string'}, {'name': 'phoneNumber', 'in': 'query', 'description': '手机号码', 'required': True, 'type': 'string'}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0" t="inlineStr">
-        <is>
-          <t>患者、账号关系表接口</t>
-        </is>
-      </c>
-      <c r="B26" s="0" t="inlineStr">
-        <is>
-          <t>是否绑定绑定用户</t>
-        </is>
-      </c>
-      <c r="C26" s="0" t="inlineStr">
-        <is>
-          <t>/ecg/tBandingWxRelation/isBanding</t>
-        </is>
-      </c>
-      <c r="D26" s="0" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E26" s="0" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0" t="inlineStr">
-        <is>
-          <t>医生短信服务信息表接口</t>
-        </is>
-      </c>
-      <c r="B27" s="0" t="inlineStr">
-        <is>
-          <t>发送异常心电短信通知</t>
-        </is>
-      </c>
-      <c r="C27" s="0" t="inlineStr">
-        <is>
-          <t>/ecg/tDocMsgInfo/sendNoticeMsg</t>
-        </is>
-      </c>
-      <c r="D27" s="0" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E27" s="0" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0" t="inlineStr">
-        <is>
-          <t>心电异常提醒接口</t>
-        </is>
-      </c>
-      <c r="B28" s="0" t="inlineStr">
-        <is>
-          <t>保存异常心电报告数据到云服务</t>
-        </is>
-      </c>
-      <c r="C28" s="0" t="inlineStr">
-        <is>
-          <t>/ecg/tEcgRemindInfo/saveAbnormalReport</t>
-        </is>
-      </c>
-      <c r="D28" s="0" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E28" s="0" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0" t="inlineStr">
-        <is>
-          <t>接口</t>
-        </is>
-      </c>
-      <c r="B29" s="0" t="inlineStr">
-        <is>
-          <t>定时获取短信通知记录</t>
-        </is>
-      </c>
-      <c r="C29" s="0" t="inlineStr">
-        <is>
-          <t>/ecg/tMsgRecord/recordList</t>
-        </is>
-      </c>
-      <c r="D29" s="0" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E29" s="0" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0" t="inlineStr">
-        <is>
-          <t>接口</t>
-        </is>
-      </c>
-      <c r="B30" s="0" t="inlineStr">
-        <is>
-          <t>更新短信记录状态</t>
-        </is>
-      </c>
-      <c r="C30" s="0" t="inlineStr">
-        <is>
-          <t>/ecg/tMsgRecord/recordStatus</t>
-        </is>
-      </c>
-      <c r="D30" s="0" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E30" s="0" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0" t="inlineStr">
-        <is>
-          <t>患者信息表接口</t>
-        </is>
-      </c>
-      <c r="B31" s="0" t="inlineStr">
-        <is>
-          <t>新增</t>
-        </is>
-      </c>
-      <c r="C31" s="0" t="inlineStr">
-        <is>
-          <t>/ecg/tPatientInfo/create</t>
-        </is>
-      </c>
-      <c r="D31" s="0" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E31" s="0" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="H31" s="0" t="inlineStr">
-        <is>
-          <t>[{'name': 'EMail', 'in': 'query', 'required': False, 'type': 'string'}, {'name': 'PIdCard', 'in': 'query', 'required': False, 'type': 'string'}, {'name': 'accCode', 'in': 'query', 'description': '付费类型', 'required': False, 'type': 'string'}, {'name': 'addr', 'in': 'query', 'description': '具体地址', 'required': False, 'type': 'string'}, {'name': 'age', 'in': 'query', 'description': '年龄', 'required': False, 'type': 'string'}, {'name': 'birthCity', 'in': 'query', 'description': '出生地市', 'required': False, 'type': 'string'}, {'name': 'birthDistrict', 'in': 'query', 'description': '出生地区县', 'required': False, 'type': 'string'}, {'name': 'birthPlace', 'in': 'query', 'description': '出生地', 'required': False, 'type': 'string'}, {'name': 'birthProvince', 'in': 'query', 'description': '出生地州省', 'required': False, 'type': 'string'}, {'name': 'birthday', 'in': 'query', 'description': '出生日期', 'required': False, 'type': 'string'}, {'name': 'bloodType', 'in': 'query', 'description': '血型', 'required': False, 'type': 'string'}, {'name': 'cardNo', 'in': 'query', 'description': '卡号', 'required': False, 'type': 'string'}, {'name': 'cardType', 'in': 'query', 'description': '卡类型', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'cellphone', 'in': 'query', 'description': '手机', 'required': False, 'type': 'string'}, {'name': 'city', 'in': 'query', 'description': '市', 'required': False, 'type': 'string'}, {'name': 'contactName', 'in': 'query', 'description': '联系姓名', 'required': False, 'type': 'string'}, {'name': 'country', 'in': 'query', 'description': '国家', 'required': False, 'type': 'string'}, {'name': 'createIdEcg', 'in': 'query', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'createTimeEcg', 'in': 'query', 'required': False, 'type': 'string', 'format': 'date-time'}, {'name': 'deathDate', 'in': 'query', 'description': '死亡日期', 'required': False, 'type': 'string'}, {'name': 'deathIdentifier', 'in': 'query', 'description': '死亡标识符', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'district', 'in': 'query', 'description': '区县', 'required': False, 'type': 'string'}, {'name': 'docId', 'in': 'query', 'description': '医生id', 'required': False, 'type': 'string'}, {'name': 'education', 'in': 'query', 'description': '学历', 'required': False, 'type': 'string'}, {'name': 'empiId', 'in': 'query', 'description': 'EMPI索引', 'required': False, 'type': 'string'}, {'name': 'externalNo', 'in': 'query', 'description': '外部编号', 'required': False, 'type': 'string'}, {'name': 'firmAddr', 'in': 'query', 'description': '单位具体地址', 'required': False, 'type': 'string'}, {'name': 'firmCity', 'in': 'query', 'description': '单位市', 'required': False, 'type': 'string'}, {'name': 'firmDistrict', 'in': 'query', 'description': '单位区县', 'required': False, 'type': 'string'}, {'name': 'firmName', 'in': 'query', 'description': '单位名称', 'required': False, 'type': 'string'}, {'name': 'firmPhone', 'in': 'query', 'description': '单位电话', 'required': False, 'type': 'string'}, {'name': 'firmPostalCode', 'in': 'query', 'description': '单位邮政编码', 'required': False, 'type': 'string'}, {'name': 'firmProvince', 'in': 'query', 'description': '单位州省', 'required': False, 'type': 'string'}, {'name': 'firstName', 'in': 'query', 'description': '名', 'required': False, 'type': 'string'}, {'name': 'firstVisitDate', 'in': 'query', 'description': '首次就诊日期', 'required': False, 'type': 'string', 'format': 'date-time'}, {'name': 'followPlanId', 'in': 'query', 'description': '用于前端放入随访方案id', 'required': False, 'type': 'integer', 'format': 'int64'}, {'name': 'followUpName', 'in': 'query', 'description': '用于前端放入随访方案名称', 'required': False, 'type': 'string'}, {'name': 'healthCardNo', 'in': 'query', 'description': '健康卡号', 'required': False, 'type': 'string'}, {'name': 'height', 'in': 'query', 'description': '身高', 'required': False, 'type': 'string'}, {'name': 'id', 'in': 'query', 'description': '主键id', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'idCardNo', 'in': 'query', 'description': '身份证号', 'required': False, 'type': 'string'}, {'name': 'infoSource', 'in': 'query', 'description': '信息来源', 'required': False, 'type': 'string'}, {'name': 'inputCode1', 'in': 'query', 'description': '输入码1', 'required': False, 'type': 'string'}, {'name': 'inputCode2', 'in': 'query', 'description': '输入码2', 'required': False, 'type': 'string'}, {'name': 'isDeleteEcg', 'in': 'query', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'isMerged', 'in': 'query', 'description': '是否有合并纪录', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'isSplited', 'in': 'query', 'description': '是否有拆分纪录', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'itemId', 'in': 'query', 'description': '用于前端放入项目id', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'job', 'in': 'query', 'description': '职业', 'required': False, 'type': 'string'}, {'name': 'language', 'in': 'query', 'description': '语言', 'required': False, 'type': 'string'}, {'name': 'lastName', 'in': 'query', 'description': '姓', 'required': False, 'type': 'string'}, {'name': 'marriage', 'in': 'query', 'description': '婚姻', 'required': False, 'type': 'string'}, {'name': 'medicare', 'in': 'query', 'description': '医保卡号', 'required': False, 'type': 'string'}, {'name': 'name', 'in': 'query', 'description': '姓名', 'required': False, 'type': 'string'}, {'name': 'nation', 'in': 'query', 'description': '民族', 'required': False, 'type': 'string'}, {'name': 'nativeCity', 'in': 'query', 'description': '籍贯市', 'required': False, 'type': 'string'}, {'name': 'nativeProvince', 'in': 'query', 'description': '籍贯省', 'required': False, 'type': 'string'}, {'name': 'nowAddr', 'in': 'query', 'description': '现住址具体地址', 'required': False, 'type': 'string'}, {'name': 'nowCity', 'in': 'query', 'description': '现住址市', 'required': False, 'type': 'string'}, {'name': 'nowDistrict', 'in': 'query', 'description': '现住址区县', 'required': False, 'type': 'string'}, {'name': 'nowPostalCode', 'in': 'query', 'description': '现住址邮政编码', 'required': False, 'type': 'string'}, {'name': 'nowProvince', 'in': 'query', 'description': '现住址州省', 'required': False, 'type': 'string'}, {'name': 'personalPreference', 'in': 'query', 'description': '个人偏好', 'required': False, 'type': 'string'}, {'name': 'phone', 'in': 'query', 'description': '电话', 'required': False, 'type': 'string'}, {'name': 'province', 'in': 'query', 'description': '州省', 'required': False, 'type': 'string'}, {'name': 'recentVisitDate', 'in': 'query', 'description': '最近就诊日期', 'required': False, 'type': 'string', 'format': 'date-time'}, {'name': 'registerAddr', 'in': 'query', 'description': '户口具体地址', 'required': False, 'type': 'string'}, {'name': 'registerCity', 'in': 'query', 'description': '户口市', 'required': False, 'type': 'string'}, {'name': 'registerDistrict', 'in': 'query', 'description': '户口区县', 'required': False, 'type': 'string'}, {'name': 'registerPostalCode', 'in': 'query', 'description': '户口邮政编码', 'required': False, 'type': 'string'}, {'name': 'registerProvince', 'in': 'query', 'description': '户口州省', 'required': False, 'type': 'string'}, {'name': 'relation', 'in': 'query', 'description': '联系关系', 'required': False, 'type': 'string'}, {'name': 'religion', 'in': 'query', 'description': '宗教信仰', 'required': False, 'type': 'string'}, {'name': 'remark', 'in': 'query', 'description': '备注', 'required': False, 'type': 'string'}, {'name': 'secrecyLevel', 'in': 'query', 'description': '保密级别', 'required': False, 'type': 'string'}, {'name': 'sex', 'in': 'query', 'description': '性别', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'sexStr', 'in': 'query', 'description': '性别字符串', 'required': False, 'type': 'string'}, {'name': 'telephone', 'in': 'query', 'description': '联系电话', 'required': False, 'type': 'string'}, {'name': 'updateIdEcg', 'in': 'query', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'updateTimeEcg', 'in': 'query', 'required': False, 'type': 'string', 'format': 'date-time'}, {'name': 'versionsId', 'in': 'query', 'description': '用于前端放入版本id', 'required': False, 'type': 'integer', 'format': 'int64'}, {'name': 'weight', 'in': 'query', 'description': '体重', 'required': False, 'type': 'string'}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0" t="inlineStr">
-        <is>
-          <t>患者信息表接口</t>
-        </is>
-      </c>
-      <c r="B32" s="0" t="inlineStr">
-        <is>
-          <t>删除</t>
-        </is>
-      </c>
-      <c r="C32" s="0" t="inlineStr">
-        <is>
-          <t>/ecg/tPatientInfo/delete/{id}</t>
-        </is>
-      </c>
-      <c r="D32" s="0" t="inlineStr">
-        <is>
-          <t>delete</t>
-        </is>
-      </c>
-      <c r="H32" s="0" t="inlineStr">
-        <is>
-          <t>[{'name': 'id', 'in': 'path', 'description': '数据对象id', 'required': False, 'type': 'string'}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0" t="inlineStr">
-        <is>
-          <t>患者信息表接口</t>
-        </is>
-      </c>
-      <c r="B33" s="0" t="inlineStr">
-        <is>
-          <t>分页查询</t>
-        </is>
-      </c>
-      <c r="C33" s="0" t="inlineStr">
-        <is>
-          <t>/ecg/tPatientInfo/page</t>
-        </is>
-      </c>
-      <c r="D33" s="0" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H33" s="0" t="inlineStr">
-        <is>
-          <t>[{'name': 'currPage', 'description': '当前页', 'required': False, 'schema': {'type': 'integer', 'format': 'int32'}}, {'name': 'pageSize', 'description': '每页显示数量', 'required': False, 'schema': {'type': 'integer', 'format': 'int32'}}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0" t="inlineStr">
-        <is>
-          <t>患者信息表接口</t>
-        </is>
-      </c>
-      <c r="B34" s="0" t="inlineStr">
-        <is>
-          <t>通过ID获取一条数据</t>
-        </is>
-      </c>
-      <c r="C34" s="0" t="inlineStr">
-        <is>
-          <t>/ecg/tPatientInfo/read/{id}</t>
-        </is>
-      </c>
-      <c r="D34" s="0" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H34" s="0" t="inlineStr">
-        <is>
-          <t>[{'name': 'id', 'in': 'path', 'description': '数据对象id', 'required': False, 'type': 'string'}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0" t="inlineStr">
-        <is>
-          <t>患者信息表接口</t>
-        </is>
-      </c>
-      <c r="B35" s="0" t="inlineStr">
-        <is>
-          <t>更新</t>
-        </is>
-      </c>
-      <c r="C35" s="0" t="inlineStr">
-        <is>
-          <t>/ecg/tPatientInfo/update</t>
-        </is>
-      </c>
-      <c r="D35" s="0" t="inlineStr">
-        <is>
-          <t>put</t>
-        </is>
-      </c>
-      <c r="E35" s="0" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="H35" s="0" t="inlineStr">
-        <is>
-          <t>[{'name': 'EMail', 'in': 'query', 'required': False, 'type': 'string'}, {'name': 'PIdCard', 'in': 'query', 'required': False, 'type': 'string'}, {'name': 'accCode', 'in': 'query', 'description': '付费类型', 'required': False, 'type': 'string'}, {'name': 'addr', 'in': 'query', 'description': '具体地址', 'required': False, 'type': 'string'}, {'name': 'age', 'in': 'query', 'description': '年龄', 'required': False, 'type': 'string'}, {'name': 'birthCity', 'in': 'query', 'description': '出生地市', 'required': False, 'type': 'string'}, {'name': 'birthDistrict', 'in': 'query', 'description': '出生地区县', 'required': False, 'type': 'string'}, {'name': 'birthPlace', 'in': 'query', 'description': '出生地', 'required': False, 'type': 'string'}, {'name': 'birthProvince', 'in': 'query', 'description': '出生地州省', 'required': False, 'type': 'string'}, {'name': 'birthday', 'in': 'query', 'description': '出生日期', 'required': False, 'type': 'string'}, {'name': 'bloodType', 'in': 'query', 'description': '血型', 'required': False, 'type': 'string'}, {'name': 'cardNo', 'in': 'query', 'description': '卡号', 'required': False, 'type': 'string'}, {'name': 'cardType', 'in': 'query', 'description': '卡类型', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'cellphone', 'in': 'query', 'description': '手机', 'required': False, 'type': 'string'}, {'name': 'city', 'in': 'query', 'description': '市', 'required': False, 'type': 'string'}, {'name': 'contactName', 'in': 'query', 'description': '联系姓名', 'required': False, 'type': 'string'}, {'name': 'country', 'in': 'query', 'description': '国家', 'required': False, 'type': 'string'}, {'name': 'createIdEcg', 'in': 'query', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'createTimeEcg', 'in': 'query', 'required': False, 'type': 'string', 'format': 'date-time'}, {'name': 'deathDate', 'in': 'query', 'description': '死亡日期', 'required': False, 'type': 'string'}, {'name': 'deathIdentifier', 'in': 'query', 'description': '死亡标识符', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'district', 'in': 'query', 'description': '区县', 'required': False, 'type': 'string'}, {'name': 'docId', 'in': 'query', 'description': '医生id', 'required': False, 'type': 'string'}, {'name': 'education', 'in': 'query', 'description': '学历', 'required': False, 'type': 'string'}, {'name': 'empiId', 'in': 'query', 'description': 'EMPI索引', 'required': False, 'type': 'string'}, {'name': 'externalNo', 'in': 'query', 'description': '外部编号', 'required': False, 'type': 'string'}, {'name': 'firmAddr', 'in': 'query', 'description': '单位具体地址', 'required': False, 'type': 'string'}, {'name': 'firmCity', 'in': 'query', 'description': '单位市', 'required': False, 'type': 'string'}, {'name': 'firmDistrict', 'in': 'query', 'description': '单位区县', 'required': False, 'type': 'string'}, {'name': 'firmName', 'in': 'query', 'description': '单位名称', 'required': False, 'type': 'string'}, {'name': 'firmPhone', 'in': 'query', 'description': '单位电话', 'required': False, 'type': 'string'}, {'name': 'firmPostalCode', 'in': 'query', 'description': '单位邮政编码', 'required': False, 'type': 'string'}, {'name': 'firmProvince', 'in': 'query', 'description': '单位州省', 'required': False, 'type': 'string'}, {'name': 'firstName', 'in': 'query', 'description': '名', 'required': False, 'type': 'string'}, {'name': 'firstVisitDate', 'in': 'query', 'description': '首次就诊日期', 'required': False, 'type': 'string', 'format': 'date-time'}, {'name': 'followPlanId', 'in': 'query', 'description': '用于前端放入随访方案id', 'required': False, 'type': 'integer', 'format': 'int64'}, {'name': 'followUpName', 'in': 'query', 'description': '用于前端放入随访方案名称', 'required': False, 'type': 'string'}, {'name': 'healthCardNo', 'in': 'query', 'description': '健康卡号', 'required': False, 'type': 'string'}, {'name': 'height', 'in': 'query', 'description': '身高', 'required': False, 'type': 'string'}, {'name': 'id', 'in': 'query', 'description': '主键id', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'idCardNo', 'in': 'query', 'description': '身份证号', 'required': False, 'type': 'string'}, {'name': 'infoSource', 'in': 'query', 'description': '信息来源', 'required': False, 'type': 'string'}, {'name': 'inputCode1', 'in': 'query', 'description': '输入码1', 'required': False, 'type': 'string'}, {'name': 'inputCode2', 'in': 'query', 'description': '输入码2', 'required': False, 'type': 'string'}, {'name': 'isDeleteEcg', 'in': 'query', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'isMerged', 'in': 'query', 'description': '是否有合并纪录', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'isSplited', 'in': 'query', 'description': '是否有拆分纪录', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'itemId', 'in': 'query', 'description': '用于前端放入项目id', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'job', 'in': 'query', 'description': '职业', 'required': False, 'type': 'string'}, {'name': 'language', 'in': 'query', 'description': '语言', 'required': False, 'type': 'string'}, {'name': 'lastName', 'in': 'query', 'description': '姓', 'required': False, 'type': 'string'}, {'name': 'marriage', 'in': 'query', 'description': '婚姻', 'required': False, 'type': 'string'}, {'name': 'medicare', 'in': 'query', 'description': '医保卡号', 'required': False, 'type': 'string'}, {'name': 'name', 'in': 'query', 'description': '姓名', 'required': False, 'type': 'string'}, {'name': 'nation', 'in': 'query', 'description': '民族', 'required': False, 'type': 'string'}, {'name': 'nativeCity', 'in': 'query', 'description': '籍贯市', 'required': False, 'type': 'string'}, {'name': 'nativeProvince', 'in': 'query', 'description': '籍贯省', 'required': False, 'type': 'string'}, {'name': 'nowAddr', 'in': 'query', 'description': '现住址具体地址', 'required': False, 'type': 'string'}, {'name': 'nowCity', 'in': 'query', 'description': '现住址市', 'required': False, 'type': 'string'}, {'name': 'nowDistrict', 'in': 'query', 'description': '现住址区县', 'required': False, 'type': 'string'}, {'name': 'nowPostalCode', 'in': 'query', 'description': '现住址邮政编码', 'required': False, 'type': 'string'}, {'name': 'nowProvince', 'in': 'query', 'description': '现住址州省', 'required': False, 'type': 'string'}, {'name': 'personalPreference', 'in': 'query', 'description': '个人偏好', 'required': False, 'type': 'string'}, {'name': 'phone', 'in': 'query', 'description': '电话', 'required': False, 'type': 'string'}, {'name': 'province', 'in': 'query', 'description': '州省', 'required': False, 'type': 'string'}, {'name': 'recentVisitDate', 'in': 'query', 'description': '最近就诊日期', 'required': False, 'type': 'string', 'format': 'date-time'}, {'name': 'registerAddr', 'in': 'query', 'description': '户口具体地址', 'required': False, 'type': 'string'}, {'name': 'registerCity', 'in': 'query', 'description': '户口市', 'required': False, 'type': 'string'}, {'name': 'registerDistrict', 'in': 'query', 'description': '户口区县', 'required': False, 'type': 'string'}, {'name': 'registerPostalCode', 'in': 'query', 'description': '户口邮政编码', 'required': False, 'type': 'string'}, {'name': 'registerProvince', 'in': 'query', 'description': '户口州省', 'required': False, 'type': 'string'}, {'name': 'relation', 'in': 'query', 'description': '联系关系', 'required': False, 'type': 'string'}, {'name': 'religion', 'in': 'query', 'description': '宗教信仰', 'required': False, 'type': 'string'}, {'name': 'remark', 'in': 'query', 'description': '备注', 'required': False, 'type': 'string'}, {'name': 'secrecyLevel', 'in': 'query', 'description': '保密级别', 'required': False, 'type': 'string'}, {'name': 'sex', 'in': 'query', 'description': '性别', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'sexStr', 'in': 'query', 'description': '性别字符串', 'required': False, 'type': 'string'}, {'name': 'telephone', 'in': 'query', 'description': '联系电话', 'required': False, 'type': 'string'}, {'name': 'updateIdEcg', 'in': 'query', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'updateTimeEcg', 'in': 'query', 'required': False, 'type': 'string', 'format': 'date-time'}, {'name': 'versionsId', 'in': 'query', 'description': '用于前端放入版本id', 'required': False, 'type': 'integer', 'format': 'int64'}, {'name': 'weight', 'in': 'query', 'description': '体重', 'required': False, 'type': 'string'}]</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t>tags</t>
-        </is>
-      </c>
-      <c r="B1" s="0" t="inlineStr">
-        <is>
-          <t>summary</t>
-        </is>
-      </c>
-      <c r="C1" s="0" t="inlineStr">
-        <is>
-          <t>paths</t>
-        </is>
-      </c>
-      <c r="D1" s="0" t="inlineStr">
-        <is>
-          <t>method</t>
-        </is>
-      </c>
-      <c r="E1" s="0" t="inlineStr">
-        <is>
-          <t>consumes</t>
-        </is>
-      </c>
-      <c r="F1" s="0" t="inlineStr">
-        <is>
-          <t>query</t>
-        </is>
-      </c>
-      <c r="G1" s="0" t="inlineStr">
-        <is>
-          <t>body</t>
-        </is>
-      </c>
-      <c r="H1" s="0" t="inlineStr">
-        <is>
-          <t>parameters [参数名称，参数说明，请求类型，是否必须，数据类型，schema]</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>文件服务器-文件管理</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>获取文件访问路径</t>
-        </is>
-      </c>
-      <c r="C2" s="0" t="inlineStr">
-        <is>
-          <t>/oss/file/getUrl</t>
-        </is>
-      </c>
-      <c r="D2" s="0" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E2" s="0" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="H2" s="0" t="inlineStr">
-        <is>
-          <t>[{'name': 'key', 'in': 'query', 'description': '文件唯一键', 'required': False, 'type': 'string'}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="inlineStr">
-        <is>
-          <t>文件服务器-文件管理</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>存储文件</t>
-        </is>
-      </c>
-      <c r="C3" s="0" t="inlineStr">
-        <is>
-          <t>/oss/file/storage</t>
-        </is>
-      </c>
-      <c r="D3" s="0" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E3" s="0" t="inlineStr">
-        <is>
-          <t>multipart/form-data</t>
-        </is>
-      </c>
-      <c r="H3" s="0" t="inlineStr">
-        <is>
-          <t>[{'name': 'files', 'in': 'formData', 'description': 'files', 'required': True, 'type': 'file'}, {'name': 'ossToken', 'in': 'query', 'description': 'ossToken', 'required': False, 'type': 'string'}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="inlineStr">
-        <is>
-          <t>文件服务器-文件管理</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>缩略图片上传接口</t>
-        </is>
-      </c>
-      <c r="C4" s="0" t="inlineStr">
-        <is>
-          <t>/oss/file/thumbnailStorage</t>
-        </is>
-      </c>
-      <c r="D4" s="0" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E4" s="0" t="inlineStr">
-        <is>
-          <t>multipart/form-data</t>
-        </is>
-      </c>
-      <c r="H4" s="0" t="inlineStr">
-        <is>
-          <t>[{'name': 'files', 'in': 'formData', 'description': 'files', 'required': True, 'type': 'file'}, {'name': 'ossToken', 'in': 'query', 'description': 'ossToken', 'required': False, 'type': 'string'}, {'name': 'scale', 'in': 'query', 'description': 'scale', 'required': False, 'type': 'number', 'format': 'double'}, {'name': 'size', 'in': 'query', 'description': 'size', 'required': False, 'type': 'integer', 'format': 'int32'}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t>文件服务器-用户管理</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>生成上传文件用到的token</t>
-        </is>
-      </c>
-      <c r="C5" s="0" t="inlineStr">
-        <is>
-          <t>/oss/user/createToken</t>
-        </is>
-      </c>
-      <c r="D5" s="0" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E5" s="0" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="G5" s="0" t="inlineStr">
-        <is>
-          <t>{'bucket': '', 'isCover': '', 'name': '', 'password': '', 'size': 0, 'userName': ''}</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="inlineStr">
-        <is>
-          <t>文件服务器-用户管理</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t>账户注册</t>
-        </is>
-      </c>
-      <c r="C6" s="0" t="inlineStr">
-        <is>
-          <t>/oss/user/register</t>
-        </is>
-      </c>
-      <c r="D6" s="0" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E6" s="0" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="H6" s="0" t="inlineStr">
-        <is>
-          <t>[{'name': 'password', 'in': 'query', 'description': '注册上传密码', 'required': False, 'type': 'string'}]</t>
+          <t>{"jsCode": "", "loginEnum": "", "password": "", "userNo": ""}</t>
         </is>
       </c>
     </row>
@@ -16227,36 +16303,36 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.77734375" defaultRowHeight="19.2" outlineLevelCol="0"/>
   <cols>
-    <col width="5.109375" customWidth="1" style="40" min="1" max="1"/>
-    <col width="9.5546875" customWidth="1" style="40" min="2" max="2"/>
-    <col width="10.44140625" customWidth="1" style="40" min="3" max="3"/>
-    <col width="18.77734375" customWidth="1" style="49" min="4" max="4"/>
-    <col width="20.88671875" customWidth="1" style="56" min="5" max="5"/>
-    <col width="20.6640625" customWidth="1" style="51" min="6" max="6"/>
-    <col width="13.33203125" customWidth="1" style="48" min="7" max="7"/>
-    <col width="32.88671875" customWidth="1" style="48" min="8" max="8"/>
-    <col width="17.44140625" customWidth="1" style="59" min="9" max="9"/>
-    <col width="2.44140625" customWidth="1" style="48" min="10" max="10"/>
-    <col width="14" customWidth="1" style="48" min="11" max="11"/>
-    <col width="2.109375" customWidth="1" style="48" min="12" max="12"/>
-    <col width="15.44140625" customWidth="1" style="40" min="13" max="13"/>
-    <col width="2.33203125" customWidth="1" style="40" min="14" max="14"/>
-    <col width="19.21875" customWidth="1" style="48" min="15" max="15"/>
-    <col width="10.6640625" customWidth="1" style="40" min="16" max="16"/>
-    <col width="8.77734375" customWidth="1" style="40" min="17" max="515"/>
-    <col width="8.77734375" customWidth="1" style="40" min="516" max="16384"/>
+    <col width="5.109375" customWidth="1" style="39" min="1" max="1"/>
+    <col width="9.5546875" customWidth="1" style="39" min="2" max="2"/>
+    <col width="10.44140625" customWidth="1" style="39" min="3" max="3"/>
+    <col width="18.77734375" customWidth="1" style="53" min="4" max="4"/>
+    <col width="20.88671875" customWidth="1" style="53" min="5" max="5"/>
+    <col width="20.6640625" customWidth="1" style="48" min="6" max="6"/>
+    <col width="13.33203125" customWidth="1" style="46" min="7" max="7"/>
+    <col width="32.88671875" customWidth="1" style="46" min="8" max="8"/>
+    <col width="17.44140625" customWidth="1" style="55" min="9" max="9"/>
+    <col width="2.44140625" customWidth="1" style="46" min="10" max="10"/>
+    <col width="14" customWidth="1" style="46" min="11" max="11"/>
+    <col width="2.109375" customWidth="1" style="46" min="12" max="12"/>
+    <col width="15.44140625" customWidth="1" style="39" min="13" max="13"/>
+    <col width="2.33203125" customWidth="1" style="39" min="14" max="14"/>
+    <col width="19.21875" customWidth="1" style="46" min="15" max="15"/>
+    <col width="10.6640625" customWidth="1" style="39" min="16" max="16"/>
+    <col width="8.77734375" customWidth="1" style="39" min="17" max="516"/>
+    <col width="8.77734375" customWidth="1" style="39" min="517" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33.45" customHeight="1" s="65">
+    <row r="1" ht="33.45" customHeight="1" s="62">
       <c r="A1" s="32" t="inlineStr">
         <is>
           <t>执行</t>
@@ -16272,129 +16348,210 @@
           <t>数据源</t>
         </is>
       </c>
-      <c r="D1" s="33" t="inlineStr">
+      <c r="D1" s="50" t="inlineStr">
         <is>
           <t>模块</t>
         </is>
       </c>
-      <c r="E1" s="53" t="inlineStr">
+      <c r="E1" s="50" t="inlineStr">
         <is>
           <t>接口名称</t>
         </is>
       </c>
-      <c r="F1" s="34" t="inlineStr">
+      <c r="F1" s="33" t="inlineStr">
         <is>
           <t>用例名称</t>
         </is>
       </c>
-      <c r="G1" s="35" t="inlineStr">
+      <c r="G1" s="34" t="inlineStr">
         <is>
           <t>query参数</t>
         </is>
       </c>
-      <c r="H1" s="35" t="inlineStr">
+      <c r="H1" s="34" t="inlineStr">
         <is>
           <t>body参数</t>
         </is>
       </c>
-      <c r="I1" s="58" t="inlineStr">
+      <c r="I1" s="54" t="inlineStr">
         <is>
           <t>i检查接口返回值</t>
         </is>
       </c>
-      <c r="J1" s="36" t="inlineStr">
+      <c r="J1" s="35" t="inlineStr">
         <is>
           <t>i结果</t>
         </is>
       </c>
-      <c r="K1" s="37" t="inlineStr">
+      <c r="K1" s="36" t="inlineStr">
         <is>
           <t>db检查表值</t>
         </is>
       </c>
-      <c r="L1" s="37" t="inlineStr">
+      <c r="L1" s="36" t="inlineStr">
         <is>
           <t>db结果</t>
         </is>
       </c>
-      <c r="M1" s="38" t="inlineStr">
+      <c r="M1" s="37" t="inlineStr">
         <is>
           <t>f检查文件</t>
         </is>
       </c>
-      <c r="N1" s="38" t="inlineStr">
+      <c r="N1" s="37" t="inlineStr">
         <is>
           <t>f结果</t>
         </is>
       </c>
-      <c r="O1" s="39" t="inlineStr">
+      <c r="O1" s="38" t="inlineStr">
         <is>
           <t>全局变量</t>
         </is>
       </c>
-      <c r="P1" s="39" t="inlineStr">
+      <c r="P1" s="38" t="inlineStr">
         <is>
           <t>备注</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="46.8" customHeight="1" s="65">
-      <c r="A2" s="41" t="n"/>
-      <c r="B2" s="45" t="inlineStr">
+    <row r="2" ht="46.8" customHeight="1" s="62">
+      <c r="A2" s="40" t="n"/>
+      <c r="B2" s="43" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
       </c>
-      <c r="C2" s="45" t="n"/>
-      <c r="D2" s="0" t="n"/>
-      <c r="E2" s="54" t="n"/>
-      <c r="F2" s="43" t="inlineStr">
+      <c r="C2" s="43" t="n"/>
+      <c r="D2" s="51" t="n"/>
+      <c r="E2" s="51" t="n"/>
+      <c r="F2" s="41" t="inlineStr">
         <is>
           <t>设置全局变量</t>
         </is>
       </c>
-      <c r="G2" s="35" t="n"/>
-      <c r="H2" s="35" t="n"/>
-      <c r="I2" s="58" t="n"/>
-      <c r="J2" s="36" t="n"/>
-      <c r="K2" s="37" t="n"/>
-      <c r="L2" s="37" t="n"/>
-      <c r="M2" s="38" t="n"/>
-      <c r="N2" s="38" t="n"/>
-      <c r="O2" s="46" t="inlineStr">
+      <c r="G2" s="34" t="n"/>
+      <c r="H2" s="34" t="n"/>
+      <c r="I2" s="54" t="n"/>
+      <c r="J2" s="35" t="n"/>
+      <c r="K2" s="36" t="n"/>
+      <c r="L2" s="36" t="n"/>
+      <c r="M2" s="37" t="n"/>
+      <c r="N2" s="37" t="n"/>
+      <c r="O2" s="44" t="inlineStr">
         <is>
           <t>{"userNo":"16766667777","orgno":"\'wgzx\' + str(Data_PO.getFigures(3))","orgId":"select orgCode from sys_user_detail where userNo='16766667777'"}</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="35.4" customHeight="1" s="65">
-      <c r="B3" s="45" t="inlineStr">
+    <row r="3" ht="118.2" customHeight="1" s="62">
+      <c r="A3" s="40" t="n"/>
+      <c r="B3" s="43" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
       </c>
-      <c r="C3" s="45" t="inlineStr">
+      <c r="C3" s="43" t="n"/>
+      <c r="D3" s="51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">用户系统中心-人员注册管理 </t>
+        </is>
+      </c>
+      <c r="E3" s="51" t="inlineStr">
+        <is>
+          <t>新增用户</t>
+        </is>
+      </c>
+      <c r="F3" s="41" t="n"/>
+      <c r="G3" s="34" t="n"/>
+      <c r="H3" s="51" t="inlineStr">
+        <is>
+          <t>{
+ "administrativeDuties": 0,
+ "applyUserId": 0,
+ "birthPlace": 0,
+ "birthday": "",
+ "cardNo": "",
+ "compilationSituation": 0,
+ "createId": 0,
+ "createTime": "",
+ "degree": 0,
+ "deptCode": 0,
+ "deptStr": "",
+ "deptUserId": 0,
+ "descr": "",
+ "educationalHistory": 0,
+ "email": "",
+ "endDate": "",
+ "id": 0,
+ "idCardType": 0,
+ "lastLoginoutProject": 0,
+ "mobile": "13816109050",
+ "nationality": 0,
+ "orgCode": 0,
+ "orgStr": "",
+ "password": "",
+ "personnelCategory": 0,
+ "personnelCategoryStr": "",
+ "physicianPracticeCategory": 0,
+ "physicianPracticeScope": 0,
+ "practiceJobCategory": 0,
+ "professionalCategory": 0,
+ "professionalTechJob": 0,
+ "profilePicture": "",
+ "registerTime": "",
+ "sex": 0,
+ "sexStr": "",
+ "shortName": "",
+ "startDate": "",
+ "status": 0,
+ "title": 0,
+ "titleStr": "",
+ "type": 0,
+ "updateId": 0,
+ "updateTime": "",
+ "userName": "令狐冲此",
+ "userNo": "",
+ "wardId": 0,
+ "wardStr": ""
+}</t>
+        </is>
+      </c>
+      <c r="I3" s="60" t="n"/>
+      <c r="J3" s="35" t="n"/>
+      <c r="K3" s="36" t="n"/>
+      <c r="L3" s="36" t="n"/>
+      <c r="M3" s="37" t="n"/>
+      <c r="N3" s="37" t="n"/>
+      <c r="O3" s="44" t="n"/>
+    </row>
+    <row r="4" ht="35.4" customHeight="1" s="62">
+      <c r="B4" s="43" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="C4" s="43" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="D3" s="45" t="inlineStr">
+      <c r="D4" s="44" t="inlineStr">
         <is>
           <t>鉴权中心</t>
         </is>
       </c>
-      <c r="E3" s="46" t="inlineStr">
+      <c r="E4" s="44" t="inlineStr">
         <is>
           <t>pc用户登录</t>
         </is>
       </c>
-      <c r="F3" s="46" t="inlineStr">
+      <c r="F4" s="44" t="inlineStr">
         <is>
           <t>全参</t>
         </is>
       </c>
-      <c r="G3" s="46" t="n"/>
-      <c r="H3" s="48" t="inlineStr">
+      <c r="G4" s="44" t="n"/>
+      <c r="H4" s="46" t="inlineStr">
         <is>
           <t>{
 "coordinate": "1",
@@ -16407,158 +16564,158 @@
 }</t>
         </is>
       </c>
-      <c r="I3" s="62" t="inlineStr">
+      <c r="I4" s="58" t="inlineStr">
         <is>
           <t>{"$.code":200,"$.msg":"success"}</t>
-        </is>
-      </c>
-      <c r="K3" s="30" t="n"/>
-      <c r="L3" s="30" t="n"/>
-      <c r="M3" s="31" t="n"/>
-      <c r="N3" s="31" t="n"/>
-      <c r="O3" s="46" t="n"/>
-    </row>
-    <row r="4" ht="42.45" customHeight="1" s="65">
-      <c r="A4" s="40" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="B4" s="45" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-      <c r="C4" s="45" t="n"/>
-      <c r="D4" s="45" t="inlineStr">
-        <is>
-          <t>鉴权中心</t>
-        </is>
-      </c>
-      <c r="E4" s="46" t="inlineStr">
-        <is>
-          <t>pc用户登出</t>
-        </is>
-      </c>
-      <c r="F4" s="47" t="n"/>
-      <c r="G4" s="46" t="n"/>
-      <c r="H4" s="48" t="inlineStr">
-        <is>
-          <t>{"token":"{{token}}"}</t>
-        </is>
-      </c>
-      <c r="I4" s="59" t="inlineStr">
-        <is>
-          <t>{"$.code":200,"$.data":"退出成功"}</t>
         </is>
       </c>
       <c r="K4" s="30" t="n"/>
       <c r="L4" s="30" t="n"/>
       <c r="M4" s="31" t="n"/>
       <c r="N4" s="31" t="n"/>
-    </row>
-    <row r="5" ht="43.8" customHeight="1" s="65">
-      <c r="B5" s="45" t="inlineStr">
+      <c r="O4" s="44" t="n"/>
+    </row>
+    <row r="5" ht="42.45" customHeight="1" s="62">
+      <c r="A5" s="39" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="B5" s="43" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
       </c>
-      <c r="C5" s="45" t="n"/>
-      <c r="D5" s="45" t="inlineStr">
-        <is>
-          <t>高血压首页-PC</t>
-        </is>
-      </c>
-      <c r="E5" s="46" t="inlineStr">
-        <is>
-          <t>查询高血压首页数据</t>
-        </is>
-      </c>
-      <c r="F5" s="46" t="n"/>
-      <c r="G5" s="46" t="n"/>
+      <c r="C5" s="43" t="n"/>
+      <c r="D5" s="44" t="inlineStr">
+        <is>
+          <t>鉴权中心</t>
+        </is>
+      </c>
+      <c r="E5" s="44" t="inlineStr">
+        <is>
+          <t>pc用户登出</t>
+        </is>
+      </c>
+      <c r="F5" s="45" t="n"/>
+      <c r="G5" s="44" t="n"/>
       <c r="H5" s="46" t="inlineStr">
         <is>
-          <t>[{{orgId}}]</t>
-        </is>
-      </c>
-      <c r="K5" s="30" t="inlineStr">
-        <is>
-          <t>{"orgId":299}</t>
-        </is>
-      </c>
+          <t>{"token":"{{token}}"}</t>
+        </is>
+      </c>
+      <c r="I5" s="55" t="inlineStr">
+        <is>
+          <t>{"$.code":200,"$.data":"退出成功"}</t>
+        </is>
+      </c>
+      <c r="K5" s="30" t="n"/>
       <c r="L5" s="30" t="n"/>
       <c r="M5" s="31" t="n"/>
       <c r="N5" s="31" t="n"/>
-      <c r="O5" s="46" t="n"/>
-    </row>
-    <row r="6" ht="40.8" customHeight="1" s="65">
-      <c r="B6" s="45" t="inlineStr">
-        <is>
-          <t>异常</t>
-        </is>
-      </c>
-      <c r="C6" s="45" t="n"/>
-      <c r="D6" s="45" t="inlineStr">
+    </row>
+    <row r="6" ht="43.8" customHeight="1" s="62">
+      <c r="B6" s="43" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="C6" s="43" t="n"/>
+      <c r="D6" s="44" t="inlineStr">
         <is>
           <t>高血压首页-PC</t>
         </is>
       </c>
-      <c r="E6" s="46" t="inlineStr">
+      <c r="E6" s="44" t="inlineStr">
         <is>
           <t>查询高血压首页数据</t>
         </is>
       </c>
-      <c r="F6" s="46" t="inlineStr">
-        <is>
-          <t>设置错误orgId</t>
-        </is>
-      </c>
-      <c r="G6" s="46" t="n"/>
-      <c r="H6" s="46" t="inlineStr">
-        <is>
-          <t>[123123]</t>
-        </is>
-      </c>
-      <c r="I6" s="59" t="inlineStr">
-        <is>
-          <t>{"$.code":500,"$.msg":"hypertension 系统出现异常,请联系管理员-DTO！","$.data":null}</t>
-        </is>
-      </c>
-      <c r="K6" s="30" t="n"/>
+      <c r="F6" s="44" t="n"/>
+      <c r="G6" s="44" t="n"/>
+      <c r="H6" s="44" t="inlineStr">
+        <is>
+          <t>[{{orgId}}]</t>
+        </is>
+      </c>
+      <c r="K6" s="30" t="inlineStr">
+        <is>
+          <t>{"orgId":299}</t>
+        </is>
+      </c>
       <c r="L6" s="30" t="n"/>
       <c r="M6" s="31" t="n"/>
       <c r="N6" s="31" t="n"/>
-      <c r="O6" s="46" t="n"/>
-    </row>
-    <row r="7" ht="40.8" customHeight="1" s="65">
-      <c r="A7" s="40" t="inlineStr">
+      <c r="O6" s="44" t="n"/>
+    </row>
+    <row r="7" ht="40.8" customHeight="1" s="62">
+      <c r="B7" s="43" t="inlineStr">
+        <is>
+          <t>异常</t>
+        </is>
+      </c>
+      <c r="C7" s="43" t="n"/>
+      <c r="D7" s="44" t="inlineStr">
+        <is>
+          <t>高血压首页-PC</t>
+        </is>
+      </c>
+      <c r="E7" s="44" t="inlineStr">
+        <is>
+          <t>查询高血压首页数据</t>
+        </is>
+      </c>
+      <c r="F7" s="44" t="inlineStr">
+        <is>
+          <t>设置错误orgId</t>
+        </is>
+      </c>
+      <c r="G7" s="44" t="n"/>
+      <c r="H7" s="44" t="inlineStr">
+        <is>
+          <t>[123123]</t>
+        </is>
+      </c>
+      <c r="I7" s="55" t="inlineStr">
+        <is>
+          <t>{"$.code":500,"$.msg":"hypertension 系统出现异常,请联系管理员-DTO！","$.data":null}</t>
+        </is>
+      </c>
+      <c r="K7" s="30" t="n"/>
+      <c r="L7" s="30" t="n"/>
+      <c r="M7" s="31" t="n"/>
+      <c r="N7" s="31" t="n"/>
+      <c r="O7" s="44" t="n"/>
+    </row>
+    <row r="8" ht="40.8" customHeight="1" s="62">
+      <c r="A8" s="39" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="B7" s="45" t="inlineStr">
+      <c r="B8" s="43" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
       </c>
-      <c r="C7" s="45" t="n"/>
-      <c r="D7" s="45" t="inlineStr">
+      <c r="C8" s="43" t="n"/>
+      <c r="D8" s="44" t="inlineStr">
         <is>
           <t>高血压患者信息</t>
         </is>
       </c>
-      <c r="E7" s="46" t="inlineStr">
+      <c r="E8" s="44" t="inlineStr">
         <is>
           <t>？</t>
         </is>
       </c>
-      <c r="F7" s="46" t="inlineStr">
+      <c r="F8" s="44" t="inlineStr">
         <is>
           <t>导出随访表记录</t>
         </is>
       </c>
-      <c r="G7" s="46" t="n"/>
-      <c r="H7" s="46" t="inlineStr">
+      <c r="G8" s="44" t="n"/>
+      <c r="H8" s="44" t="inlineStr">
         <is>
           <t>{
  "beginAge": 0,
@@ -16574,47 +16731,47 @@
 }</t>
         </is>
       </c>
-      <c r="M7" s="48" t="inlineStr">
+      <c r="M8" s="46" t="inlineStr">
         <is>
           <t>/Users/linghuchong/Downloads/51/Python/project/instance/zyjk/SAAS/i/data/sfb.xlsx</t>
         </is>
       </c>
-      <c r="N7" s="48" t="n"/>
-      <c r="O7" s="48" t="inlineStr">
+      <c r="N8" s="46" t="n"/>
+      <c r="O8" s="46" t="inlineStr">
         <is>
           <t>{"file":"/Users/linghuchong/Downloads/51/Python/project/instance/zyjk/SAAS/i/data/sfb.xlsx"}</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="33" customHeight="1" s="65">
-      <c r="A8" s="40" t="inlineStr">
+    <row r="9" ht="33" customHeight="1" s="62">
+      <c r="A9" s="39" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="B8" s="45" t="inlineStr">
+      <c r="B9" s="43" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
       </c>
-      <c r="C8" s="45" t="n"/>
-      <c r="D8" s="45" t="inlineStr">
+      <c r="C9" s="43" t="n"/>
+      <c r="D9" s="44" t="inlineStr">
         <is>
           <t>高血压患者信息</t>
         </is>
       </c>
-      <c r="E8" s="46" t="inlineStr">
+      <c r="E9" s="44" t="inlineStr">
         <is>
           <t>导出患者随访记录-pc</t>
         </is>
       </c>
-      <c r="F8" s="48" t="inlineStr">
+      <c r="F9" s="46" t="inlineStr">
         <is>
           <t>全参</t>
         </is>
       </c>
-      <c r="G8" s="46" t="n"/>
-      <c r="H8" s="48" t="inlineStr">
+      <c r="G9" s="44" t="n"/>
+      <c r="H9" s="46" t="inlineStr">
         <is>
           <t>{
  "beginAge": 1,
@@ -16630,49 +16787,49 @@
 }</t>
         </is>
       </c>
-      <c r="K8" s="40" t="n"/>
-      <c r="L8" s="40" t="n"/>
-      <c r="M8" s="48" t="inlineStr">
+      <c r="K9" s="39" t="n"/>
+      <c r="L9" s="39" t="n"/>
+      <c r="M9" s="46" t="inlineStr">
         <is>
           <t>/Users/linghuchong/Downloads/51/Python/project/instance/zyjk/SAAS/i/data/sfb2.xlsx</t>
         </is>
       </c>
-      <c r="N8" s="48" t="n"/>
-      <c r="O8" s="48" t="inlineStr">
+      <c r="N9" s="46" t="n"/>
+      <c r="O9" s="46" t="inlineStr">
         <is>
           <t>{"file":"/Users/linghuchong/Downloads/51/Python/project/instance/zyjk/SAAS/i/data/sfb2.xlsx"}</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="33.45" customHeight="1" s="65">
-      <c r="A9" s="40" t="inlineStr">
+    <row r="10" ht="33.45" customHeight="1" s="62">
+      <c r="A10" s="39" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="B9" s="45" t="inlineStr">
+      <c r="B10" s="43" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
       </c>
-      <c r="C9" s="45" t="n"/>
-      <c r="D9" s="45" t="inlineStr">
+      <c r="C10" s="43" t="n"/>
+      <c r="D10" s="44" t="inlineStr">
         <is>
           <t>高血压患者信息</t>
         </is>
       </c>
-      <c r="E9" s="46" t="inlineStr">
+      <c r="E10" s="44" t="inlineStr">
         <is>
           <t>导出患者随访记录-pc</t>
         </is>
       </c>
-      <c r="F9" s="48" t="inlineStr">
+      <c r="F10" s="46" t="inlineStr">
         <is>
           <t>必参</t>
         </is>
       </c>
-      <c r="G9" s="46" t="n"/>
-      <c r="H9" s="48" t="inlineStr">
+      <c r="G10" s="44" t="n"/>
+      <c r="H10" s="46" t="inlineStr">
         <is>
           <t>{
  "beginAge": 0,
@@ -16687,44 +16844,44 @@
 }</t>
         </is>
       </c>
-      <c r="K9" s="40" t="n"/>
-      <c r="L9" s="40" t="n"/>
-      <c r="M9" s="48" t="inlineStr">
+      <c r="K10" s="39" t="n"/>
+      <c r="L10" s="39" t="n"/>
+      <c r="M10" s="46" t="inlineStr">
         <is>
           <t>/Users/linghuchong/Downloads/51/Python/project/instance/zyjk/SAAS/i/data/sfb.xlsx</t>
         </is>
       </c>
-      <c r="N9" s="48" t="n"/>
-      <c r="O9" s="48" t="inlineStr">
+      <c r="N10" s="46" t="n"/>
+      <c r="O10" s="46" t="inlineStr">
         <is>
           <t>{"file":"/Users/linghuchong/Downloads/51/Python/project/instance/zyjk/SAAS/i/data/sfb.xlsx"}</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="32.55" customHeight="1" s="65">
-      <c r="B10" s="45" t="inlineStr">
+    <row r="11" ht="32.55" customHeight="1" s="62">
+      <c r="B11" s="43" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
       </c>
-      <c r="C10" s="45" t="n"/>
-      <c r="D10" s="45" t="inlineStr">
+      <c r="C11" s="43" t="n"/>
+      <c r="D11" s="44" t="inlineStr">
         <is>
           <t>统计查询-PC</t>
         </is>
       </c>
-      <c r="E10" s="46" t="inlineStr">
+      <c r="E11" s="44" t="inlineStr">
         <is>
           <t>入组患者-分页查询</t>
         </is>
       </c>
-      <c r="F10" s="48" t="inlineStr">
+      <c r="F11" s="46" t="inlineStr">
         <is>
           <t>全参</t>
         </is>
       </c>
-      <c r="G10" s="46" t="n"/>
-      <c r="H10" s="48" t="inlineStr">
+      <c r="G11" s="44" t="n"/>
+      <c r="H11" s="46" t="inlineStr">
         <is>
           <t>{
  "currPage": 1,
@@ -16735,33 +16892,33 @@
 }</t>
         </is>
       </c>
-      <c r="K10" s="30" t="n"/>
-      <c r="L10" s="30" t="n"/>
-    </row>
-    <row r="11" ht="38.55" customHeight="1" s="65">
-      <c r="B11" s="45" t="inlineStr">
+      <c r="K11" s="30" t="n"/>
+      <c r="L11" s="30" t="n"/>
+    </row>
+    <row r="12" ht="38.55" customHeight="1" s="62">
+      <c r="B12" s="43" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
       </c>
-      <c r="C11" s="45" t="n"/>
-      <c r="D11" s="45" t="inlineStr">
+      <c r="C12" s="43" t="n"/>
+      <c r="D12" s="44" t="inlineStr">
         <is>
           <t>统计查询-PC</t>
         </is>
       </c>
-      <c r="E11" s="46" t="inlineStr">
+      <c r="E12" s="44" t="inlineStr">
         <is>
           <t>入组患者-分页查询</t>
         </is>
       </c>
-      <c r="F11" s="48" t="inlineStr">
+      <c r="F12" s="46" t="inlineStr">
         <is>
           <t>必参</t>
         </is>
       </c>
-      <c r="G11" s="46" t="n"/>
-      <c r="H11" s="48" t="inlineStr">
+      <c r="G12" s="44" t="n"/>
+      <c r="H12" s="46" t="inlineStr">
         <is>
           <t>{
  "currPage": 0,
@@ -16770,38 +16927,38 @@
 }</t>
         </is>
       </c>
-      <c r="K11" s="30" t="n"/>
-      <c r="L11" s="30" t="n"/>
-    </row>
-    <row r="12" ht="31.8" customHeight="1" s="65">
-      <c r="A12" s="40" t="inlineStr">
+      <c r="K12" s="30" t="n"/>
+      <c r="L12" s="30" t="n"/>
+    </row>
+    <row r="13" ht="31.8" customHeight="1" s="62">
+      <c r="A13" s="39" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="B12" s="45" t="inlineStr">
+      <c r="B13" s="43" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
       </c>
-      <c r="C12" s="45" t="n"/>
-      <c r="D12" s="45" t="inlineStr">
+      <c r="C13" s="43" t="n"/>
+      <c r="D13" s="44" t="inlineStr">
         <is>
           <t>统计查询-PC</t>
         </is>
       </c>
-      <c r="E12" s="46" t="inlineStr">
+      <c r="E13" s="44" t="inlineStr">
         <is>
           <t>入组患者-导出</t>
         </is>
       </c>
-      <c r="F12" s="48" t="inlineStr">
+      <c r="F13" s="46" t="inlineStr">
         <is>
           <t>全参</t>
         </is>
       </c>
-      <c r="G12" s="46" t="n"/>
-      <c r="H12" s="48" t="inlineStr">
+      <c r="G13" s="44" t="n"/>
+      <c r="H13" s="46" t="inlineStr">
         <is>
           <t>{
  "currPage": 1,
@@ -16812,49 +16969,49 @@
 }</t>
         </is>
       </c>
-      <c r="K12" s="40" t="n"/>
-      <c r="L12" s="40" t="n"/>
-      <c r="M12" s="48" t="inlineStr">
+      <c r="K13" s="39" t="n"/>
+      <c r="L13" s="39" t="n"/>
+      <c r="M13" s="46" t="inlineStr">
         <is>
           <t>/Users/linghuchong/Downloads/51/Python/project/instance/zyjk/SAAS/i/data/sfb.xlsx</t>
         </is>
       </c>
-      <c r="N12" s="48" t="n"/>
-      <c r="O12" s="48" t="inlineStr">
+      <c r="N13" s="46" t="n"/>
+      <c r="O13" s="46" t="inlineStr">
         <is>
           <t>{"file":"/Users/linghuchong/Downloads/51/Python/project/instance/zyjk/SAAS/i/data/sfb.xlsx"}</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="30" customHeight="1" s="65">
-      <c r="A13" s="40" t="inlineStr">
+    <row r="14" ht="30" customHeight="1" s="62">
+      <c r="A14" s="39" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="B13" s="45" t="inlineStr">
+      <c r="B14" s="43" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
       </c>
-      <c r="C13" s="45" t="n"/>
-      <c r="D13" s="45" t="inlineStr">
+      <c r="C14" s="43" t="n"/>
+      <c r="D14" s="44" t="inlineStr">
         <is>
           <t>统计查询-PC</t>
         </is>
       </c>
-      <c r="E13" s="46" t="inlineStr">
+      <c r="E14" s="44" t="inlineStr">
         <is>
           <t>入组患者-导出</t>
         </is>
       </c>
-      <c r="F13" s="48" t="inlineStr">
+      <c r="F14" s="46" t="inlineStr">
         <is>
           <t>必参</t>
         </is>
       </c>
-      <c r="G13" s="46" t="n"/>
-      <c r="H13" s="48" t="inlineStr">
+      <c r="G14" s="44" t="n"/>
+      <c r="H14" s="46" t="inlineStr">
         <is>
           <t>{"currPage": 0,
  "dateBegin": "",
@@ -16864,121 +17021,121 @@
 }</t>
         </is>
       </c>
-      <c r="K13" s="40" t="n"/>
-      <c r="L13" s="40" t="n"/>
-      <c r="M13" s="48" t="inlineStr">
+      <c r="K14" s="39" t="n"/>
+      <c r="L14" s="39" t="n"/>
+      <c r="M14" s="46" t="inlineStr">
         <is>
           <t>/Users/linghuchong/Downloads/51/Python/project/instance/zyjk/SAAS/i/data/sfb.xlsx</t>
         </is>
       </c>
-      <c r="N13" s="48" t="n"/>
-      <c r="O13" s="48" t="inlineStr">
+      <c r="N14" s="46" t="n"/>
+      <c r="O14" s="46" t="inlineStr">
         <is>
           <t>{"file":"/Users/linghuchong/Downloads/51/Python/project/instance/zyjk/SAAS/i/data/sfb.xlsx"}</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="85.8" customHeight="1" s="65">
-      <c r="B14" s="45" t="inlineStr">
+    <row r="15" ht="85.8" customHeight="1" s="62">
+      <c r="B15" s="43" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
       </c>
-      <c r="C14" s="45" t="n"/>
-      <c r="D14" s="45" t="inlineStr">
+      <c r="C15" s="43" t="n"/>
+      <c r="D15" s="44" t="inlineStr">
         <is>
           <t>统计查询-PC</t>
         </is>
       </c>
-      <c r="E14" s="46" t="inlineStr">
+      <c r="E15" s="44" t="inlineStr">
         <is>
           <t>随访情况统计</t>
         </is>
       </c>
-      <c r="F14" s="48" t="inlineStr">
+      <c r="F15" s="46" t="inlineStr">
         <is>
           <t>全参</t>
         </is>
       </c>
-      <c r="G14" s="46" t="inlineStr">
+      <c r="G15" s="44" t="inlineStr">
         <is>
           <t>orgCode={{orgId}}&amp;pageNum=1&amp;pageSize=10</t>
         </is>
       </c>
-      <c r="K14" s="40" t="n"/>
-      <c r="L14" s="40" t="n"/>
-    </row>
-    <row r="15" ht="50.55" customHeight="1" s="65">
-      <c r="A15" s="40" t="inlineStr">
+      <c r="K15" s="39" t="n"/>
+      <c r="L15" s="39" t="n"/>
+    </row>
+    <row r="16" ht="50.55" customHeight="1" s="62">
+      <c r="A16" s="39" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="B15" s="45" t="inlineStr">
+      <c r="B16" s="43" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
       </c>
-      <c r="C15" s="45" t="n"/>
-      <c r="D15" s="45" t="inlineStr">
+      <c r="C16" s="43" t="n"/>
+      <c r="D16" s="44" t="inlineStr">
         <is>
           <t>统计查询-PC</t>
         </is>
       </c>
-      <c r="E15" s="46" t="inlineStr">
+      <c r="E16" s="44" t="inlineStr">
         <is>
           <t>随访情况导出</t>
         </is>
       </c>
-      <c r="F15" s="48" t="inlineStr">
+      <c r="F16" s="46" t="inlineStr">
         <is>
           <t>全参</t>
         </is>
       </c>
-      <c r="G15" s="46" t="n"/>
-      <c r="H15" s="48" t="inlineStr">
+      <c r="G16" s="44" t="n"/>
+      <c r="H16" s="46" t="inlineStr">
         <is>
           <t>{"orgCode":" {{orgId}}"}</t>
         </is>
       </c>
-      <c r="K15" s="40" t="n"/>
-      <c r="L15" s="40" t="n"/>
-      <c r="M15" s="48" t="inlineStr">
+      <c r="K16" s="39" t="n"/>
+      <c r="L16" s="39" t="n"/>
+      <c r="M16" s="46" t="inlineStr">
         <is>
           <t>/Users/linghuchong/Downloads/51/Python/project/instance/zyjk/SAAS/i/data/sfb.xlsx</t>
         </is>
       </c>
-      <c r="N15" s="48" t="n"/>
-      <c r="O15" s="48" t="inlineStr">
+      <c r="N16" s="46" t="n"/>
+      <c r="O16" s="46" t="inlineStr">
         <is>
           <t>{"file":"/Users/linghuchong/Downloads/51/Python/project/instance/zyjk/SAAS/i/data/sfb.xlsx"}</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="61.8" customFormat="1" customHeight="1" s="45">
-      <c r="A16" s="40" t="n"/>
-      <c r="B16" s="45" t="inlineStr">
+    <row r="17" ht="61.8" customFormat="1" customHeight="1" s="43">
+      <c r="A17" s="39" t="n"/>
+      <c r="B17" s="43" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
       </c>
-      <c r="D16" s="45" t="inlineStr">
+      <c r="D17" s="44" t="inlineStr">
         <is>
           <t>高血压患者信息</t>
         </is>
       </c>
-      <c r="E16" s="46" t="inlineStr">
+      <c r="E17" s="44" t="inlineStr">
         <is>
           <t>根据机构id，分页查询患者信息-pc、app</t>
         </is>
       </c>
-      <c r="F16" s="46" t="inlineStr">
+      <c r="F17" s="44" t="inlineStr">
         <is>
           <t>全参</t>
         </is>
       </c>
-      <c r="G16" s="46" t="n"/>
-      <c r="H16" s="46" t="inlineStr">
+      <c r="G17" s="44" t="n"/>
+      <c r="H17" s="44" t="inlineStr">
         <is>
           <t>{
  "beginAge": 1,
@@ -16994,38 +17151,38 @@
 }</t>
         </is>
       </c>
-      <c r="I16" s="59" t="n"/>
-      <c r="J16" s="48" t="n"/>
-      <c r="O16" s="45" t="inlineStr">
+      <c r="I17" s="55" t="n"/>
+      <c r="J17" s="46" t="n"/>
+      <c r="O17" s="43" t="inlineStr">
         <is>
           <t>{"empiId":"$.data.list[0].empiId","itemId":"$.data.list[0].itemId"}</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="64.8" customFormat="1" customHeight="1" s="45">
-      <c r="A17" s="40" t="n"/>
-      <c r="B17" s="45" t="inlineStr">
+    <row r="18" ht="64.8" customFormat="1" customHeight="1" s="43">
+      <c r="A18" s="39" t="n"/>
+      <c r="B18" s="43" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
       </c>
-      <c r="D17" s="45" t="inlineStr">
+      <c r="D18" s="44" t="inlineStr">
         <is>
           <t>高血压患者信息</t>
         </is>
       </c>
-      <c r="E17" s="46" t="inlineStr">
+      <c r="E18" s="44" t="inlineStr">
         <is>
           <t>根据机构id，分页查询患者信息-pc、app</t>
         </is>
       </c>
-      <c r="F17" s="46" t="inlineStr">
+      <c r="F18" s="44" t="inlineStr">
         <is>
           <t>必参</t>
         </is>
       </c>
-      <c r="G17" s="46" t="n"/>
-      <c r="H17" s="46" t="inlineStr">
+      <c r="G18" s="44" t="n"/>
+      <c r="H18" s="44" t="inlineStr">
         <is>
           <t>{
  "beginAge": 1,
@@ -17041,97 +17198,97 @@
 }</t>
         </is>
       </c>
-      <c r="I17" s="59" t="n"/>
-      <c r="J17" s="48" t="n"/>
-    </row>
-    <row r="18" ht="46.2" customHeight="1" s="65">
-      <c r="B18" s="45" t="inlineStr">
+      <c r="I18" s="55" t="n"/>
+      <c r="J18" s="46" t="n"/>
+    </row>
+    <row r="19" ht="46.2" customHeight="1" s="62">
+      <c r="B19" s="43" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
       </c>
-      <c r="C18" s="45" t="n"/>
-      <c r="D18" s="42" t="n"/>
-      <c r="E18" s="55" t="n"/>
-      <c r="F18" s="43" t="inlineStr">
+      <c r="C19" s="43" t="n"/>
+      <c r="D19" s="52" t="n"/>
+      <c r="E19" s="52" t="n"/>
+      <c r="F19" s="41" t="inlineStr">
         <is>
           <t>设置全局变量</t>
         </is>
       </c>
-      <c r="G18" s="46" t="n"/>
-      <c r="H18" s="44" t="n"/>
-      <c r="I18" s="60" t="n"/>
-      <c r="J18" s="44" t="n"/>
-      <c r="K18" s="44" t="n"/>
-      <c r="L18" s="44" t="n"/>
-      <c r="M18" s="44" t="n"/>
-      <c r="N18" s="44" t="n"/>
-      <c r="O18" s="46" t="inlineStr">
+      <c r="G19" s="44" t="n"/>
+      <c r="H19" s="42" t="n"/>
+      <c r="I19" s="56" t="n"/>
+      <c r="J19" s="42" t="n"/>
+      <c r="K19" s="42" t="n"/>
+      <c r="L19" s="42" t="n"/>
+      <c r="M19" s="42" t="n"/>
+      <c r="N19" s="42" t="n"/>
+      <c r="O19" s="44" t="inlineStr">
         <is>
           <t>{"phone":"str(Data_PO.getPhone())","idCardNo":"str(Data_PO.getIdCard())"}</t>
         </is>
       </c>
-      <c r="P18" s="46" t="inlineStr">
+      <c r="P19" s="44" t="inlineStr">
         <is>
           <t>{"phone":"str(Data_PO.autoPhone())","idCardNo":"str(Data_PO.autoIdcard())","itemId":"select itemId from saashypertensiontest.ecf_follow_info where orgId = {{orgId}} and followUpName = '一级1' limit 1"}</t>
         </is>
       </c>
     </row>
-    <row r="19" ht="46.2" customHeight="1" s="65">
-      <c r="B19" s="45" t="inlineStr">
+    <row r="20" ht="46.2" customHeight="1" s="62">
+      <c r="B20" s="43" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
       </c>
-      <c r="C19" s="45" t="n"/>
-      <c r="D19" s="42" t="n"/>
-      <c r="E19" s="55" t="n"/>
-      <c r="F19" s="43" t="inlineStr">
+      <c r="C20" s="43" t="n"/>
+      <c r="D20" s="52" t="n"/>
+      <c r="E20" s="52" t="n"/>
+      <c r="F20" s="41" t="inlineStr">
         <is>
           <t>设置请求头</t>
         </is>
       </c>
-      <c r="G19" s="46" t="n"/>
-      <c r="H19" s="46" t="inlineStr">
+      <c r="G20" s="44" t="n"/>
+      <c r="H20" s="44" t="inlineStr">
         <is>
           <t>{"deviceTag":"app"}</t>
         </is>
       </c>
-      <c r="I19" s="60" t="n"/>
-      <c r="J19" s="44" t="n"/>
-      <c r="K19" s="44" t="n"/>
-      <c r="L19" s="44" t="n"/>
-      <c r="M19" s="44" t="n"/>
-      <c r="N19" s="44" t="n"/>
-    </row>
-    <row r="20" ht="60.45" customHeight="1" s="65">
-      <c r="B20" s="45" t="inlineStr">
+      <c r="I20" s="56" t="n"/>
+      <c r="J20" s="42" t="n"/>
+      <c r="K20" s="42" t="n"/>
+      <c r="L20" s="42" t="n"/>
+      <c r="M20" s="42" t="n"/>
+      <c r="N20" s="42" t="n"/>
+    </row>
+    <row r="21" ht="60.45" customHeight="1" s="62">
+      <c r="B21" s="43" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
       </c>
-      <c r="C20" s="45" t="inlineStr">
+      <c r="C21" s="43" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="D20" s="49" t="inlineStr">
+      <c r="D21" s="53" t="inlineStr">
         <is>
           <t>鉴权中心</t>
         </is>
       </c>
-      <c r="E20" s="56" t="inlineStr">
+      <c r="E21" s="53" t="inlineStr">
         <is>
           <t>医生小程序登录</t>
         </is>
       </c>
-      <c r="F20" s="50" t="inlineStr">
+      <c r="F21" s="47" t="inlineStr">
         <is>
           <t>全参</t>
         </is>
       </c>
-      <c r="G20" s="46" t="n"/>
-      <c r="H20" s="48" t="inlineStr">
+      <c r="G21" s="44" t="n"/>
+      <c r="H21" s="46" t="inlineStr">
         <is>
           <t>{
  "jsCode": "013ZFHkl2Ym7c94Kxtnl2ko52B4ZFHkn",
@@ -17142,39 +17299,39 @@
         </is>
       </c>
     </row>
-    <row r="21" ht="78.45" customHeight="1" s="65">
-      <c r="A21" s="40" t="inlineStr">
+    <row r="22" ht="78.45" customHeight="1" s="62">
+      <c r="A22" s="39" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="B21" s="45" t="inlineStr">
+      <c r="B22" s="43" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
       </c>
-      <c r="C21" s="45" t="inlineStr">
+      <c r="C22" s="43" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="D21" s="49" t="inlineStr">
+      <c r="D22" s="53" t="inlineStr">
         <is>
           <t>鉴权中心</t>
         </is>
       </c>
-      <c r="E21" s="56" t="inlineStr">
+      <c r="E22" s="53" t="inlineStr">
         <is>
           <t>医生小程序登录</t>
         </is>
       </c>
-      <c r="F21" s="50" t="inlineStr">
+      <c r="F22" s="47" t="inlineStr">
         <is>
           <t>必参</t>
         </is>
       </c>
-      <c r="G21" s="46" t="n"/>
-      <c r="H21" s="48" t="inlineStr">
+      <c r="G22" s="44" t="n"/>
+      <c r="H22" s="46" t="inlineStr">
         <is>
           <t>{
  "loginEnum": "ACCOUNT",
@@ -17183,41 +17340,41 @@
 }</t>
         </is>
       </c>
-      <c r="O21" s="48" t="inlineStr">
+      <c r="O22" s="46" t="inlineStr">
         <is>
           <t>{"token":"$.data.token"}</t>
         </is>
       </c>
     </row>
-    <row r="22" ht="46.2" customHeight="1" s="65">
-      <c r="A22" s="40" t="inlineStr">
+    <row r="23" ht="46.2" customHeight="1" s="62">
+      <c r="A23" s="39" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="B22" s="45" t="inlineStr">
+      <c r="B23" s="43" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
       </c>
-      <c r="C22" s="45" t="n"/>
-      <c r="D22" s="49" t="inlineStr">
+      <c r="C23" s="43" t="n"/>
+      <c r="D23" s="53" t="inlineStr">
         <is>
           <t>高血压患者信息</t>
         </is>
       </c>
-      <c r="E22" s="56" t="inlineStr">
+      <c r="E23" s="53" t="inlineStr">
         <is>
           <t>医生端-新增患者</t>
         </is>
       </c>
-      <c r="F22" s="50" t="inlineStr">
+      <c r="F23" s="47" t="inlineStr">
         <is>
           <t>全参</t>
         </is>
       </c>
-      <c r="G22" s="46" t="n"/>
-      <c r="H22" s="48" t="inlineStr">
+      <c r="G23" s="44" t="n"/>
+      <c r="H23" s="46" t="inlineStr">
         <is>
           <t>{
  "age": "18",
@@ -17248,30 +17405,30 @@
         </is>
       </c>
     </row>
-    <row r="23" ht="60.45" customHeight="1" s="65">
-      <c r="B23" s="45" t="inlineStr">
+    <row r="24" ht="60.45" customHeight="1" s="62">
+      <c r="B24" s="43" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
       </c>
-      <c r="C23" s="45" t="n"/>
-      <c r="D23" s="49" t="inlineStr">
+      <c r="C24" s="43" t="n"/>
+      <c r="D24" s="53" t="inlineStr">
         <is>
           <t>高血压患者信息</t>
         </is>
       </c>
-      <c r="E23" s="56" t="inlineStr">
+      <c r="E24" s="53" t="inlineStr">
         <is>
           <t>新增患者-app</t>
         </is>
       </c>
-      <c r="F23" s="50" t="inlineStr">
+      <c r="F24" s="47" t="inlineStr">
         <is>
           <t>必参，医生端新增患者</t>
         </is>
       </c>
-      <c r="G23" s="46" t="n"/>
-      <c r="H23" s="48" t="inlineStr">
+      <c r="G24" s="44" t="n"/>
+      <c r="H24" s="46" t="inlineStr">
         <is>
           <t>{
  "idCardNo": "{{idCardNo}}",
@@ -17280,32 +17437,32 @@
 }</t>
         </is>
       </c>
-      <c r="O23" s="46" t="n"/>
-    </row>
-    <row r="24" ht="58.8" customHeight="1" s="65">
-      <c r="B24" s="45" t="inlineStr">
+      <c r="O24" s="44" t="n"/>
+    </row>
+    <row r="25" ht="58.8" customHeight="1" s="62">
+      <c r="B25" s="43" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
       </c>
-      <c r="C24" s="45" t="n"/>
-      <c r="D24" s="49" t="inlineStr">
+      <c r="C25" s="43" t="n"/>
+      <c r="D25" s="53" t="inlineStr">
         <is>
           <t>高血压患者信息</t>
         </is>
       </c>
-      <c r="E24" s="56" t="inlineStr">
+      <c r="E25" s="53" t="inlineStr">
         <is>
           <t>新增患者-app</t>
         </is>
       </c>
-      <c r="F24" s="50" t="inlineStr">
+      <c r="F25" s="47" t="inlineStr">
         <is>
           <t>全参，医生端新增患者</t>
         </is>
       </c>
-      <c r="G24" s="46" t="n"/>
-      <c r="H24" s="48" t="inlineStr">
+      <c r="G25" s="44" t="n"/>
+      <c r="H25" s="46" t="inlineStr">
         <is>
           <t>{
  "currPage": 1,
@@ -17318,30 +17475,30 @@
         </is>
       </c>
     </row>
-    <row r="25" ht="59.55" customHeight="1" s="65">
-      <c r="B25" s="45" t="inlineStr">
+    <row r="26" ht="59.55" customHeight="1" s="62">
+      <c r="B26" s="43" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
       </c>
-      <c r="C25" s="45" t="n"/>
-      <c r="D25" s="49" t="inlineStr">
+      <c r="C26" s="43" t="n"/>
+      <c r="D26" s="53" t="inlineStr">
         <is>
           <t>高血压患者信息</t>
         </is>
       </c>
-      <c r="E25" s="56" t="inlineStr">
+      <c r="E26" s="53" t="inlineStr">
         <is>
           <t>患者列表查询-app</t>
         </is>
       </c>
-      <c r="F25" s="50" t="inlineStr">
+      <c r="F26" s="47" t="inlineStr">
         <is>
           <t>必参</t>
         </is>
       </c>
-      <c r="G25" s="46" t="n"/>
-      <c r="H25" s="48" t="inlineStr">
+      <c r="G26" s="44" t="n"/>
+      <c r="H26" s="46" t="inlineStr">
         <is>
           <t>{
  "currPage": 1,
@@ -17351,64 +17508,64 @@
 }</t>
         </is>
       </c>
-      <c r="O25" s="48" t="inlineStr">
+      <c r="O26" s="46" t="inlineStr">
         <is>
           <t>{"ldt_idCardNo":"select idCardNo from saashypertensiontest.t_patient_info where name = '李大头'","glempild":"{{empiId}}"}</t>
         </is>
       </c>
     </row>
-    <row r="26" ht="52.2" customHeight="1" s="65">
-      <c r="B26" s="45" t="inlineStr">
+    <row r="27" ht="52.2" customHeight="1" s="62">
+      <c r="B27" s="43" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
       </c>
-      <c r="C26" s="45" t="n"/>
-      <c r="D26" s="49" t="inlineStr">
+      <c r="C27" s="43" t="n"/>
+      <c r="D27" s="53" t="inlineStr">
         <is>
           <t>高血压患者信息</t>
         </is>
       </c>
-      <c r="E26" s="56" t="inlineStr">
+      <c r="E27" s="53" t="inlineStr">
         <is>
           <t>单个患者查询-app</t>
         </is>
       </c>
-      <c r="F26" s="50" t="inlineStr">
+      <c r="F27" s="47" t="inlineStr">
         <is>
           <t>医生端-单个患者查询</t>
         </is>
       </c>
-      <c r="G26" s="46" t="inlineStr">
+      <c r="G27" s="44" t="inlineStr">
         <is>
           <t>idCardNo={{ldt_idCardNo}}</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="169.8" customHeight="1" s="65">
-      <c r="A27" s="40" t="inlineStr">
+    <row r="28" ht="169.8" customHeight="1" s="62">
+      <c r="A28" s="39" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="B27" s="45" t="inlineStr">
+      <c r="B28" s="43" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
       </c>
-      <c r="C27" s="45" t="n"/>
-      <c r="D27" s="49" t="inlineStr">
+      <c r="C28" s="43" t="n"/>
+      <c r="D28" s="53" t="inlineStr">
         <is>
           <t>高血压患者信息</t>
         </is>
       </c>
-      <c r="F27" s="50" t="inlineStr">
+      <c r="F28" s="47" t="inlineStr">
         <is>
           <t>医生端-添加对照组患者-全参</t>
         </is>
       </c>
-      <c r="G27" s="46" t="n"/>
-      <c r="H27" s="48" t="inlineStr">
+      <c r="G28" s="44" t="n"/>
+      <c r="H28" s="46" t="inlineStr">
         <is>
           <t>{
  "doctorDesignatedFlag": 0,
@@ -17423,91 +17580,91 @@
         </is>
       </c>
     </row>
-    <row r="28" ht="52.2" customHeight="1" s="65">
-      <c r="A28" s="40" t="inlineStr">
+    <row r="29" ht="52.2" customHeight="1" s="62">
+      <c r="A29" s="39" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="B28" s="45" t="inlineStr">
+      <c r="B29" s="43" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
       </c>
-      <c r="C28" s="45" t="n"/>
-      <c r="D28" s="49" t="inlineStr">
+      <c r="C29" s="43" t="n"/>
+      <c r="D29" s="53" t="inlineStr">
         <is>
           <t>高血压患者信息</t>
         </is>
       </c>
-      <c r="F28" s="50" t="inlineStr">
+      <c r="F29" s="47" t="inlineStr">
         <is>
           <t>医生端-查询对照组患者-全参</t>
         </is>
       </c>
-      <c r="G28" s="46" t="inlineStr">
+      <c r="G29" s="44" t="inlineStr">
         <is>
           <t>name=刘老头&amp;pageNum=1&amp;pageSize=1</t>
         </is>
       </c>
-      <c r="O28" s="48" t="inlineStr">
+      <c r="O29" s="46" t="inlineStr">
         <is>
           <t>{"dzempild":"$.data.data[0].empiId"}</t>
         </is>
       </c>
     </row>
-    <row r="29" ht="52.2" customHeight="1" s="65">
-      <c r="B29" s="45" t="inlineStr">
+    <row r="30" ht="52.2" customHeight="1" s="62">
+      <c r="B30" s="43" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
       </c>
-      <c r="C29" s="45" t="n"/>
-      <c r="D29" s="49" t="inlineStr">
+      <c r="C30" s="43" t="n"/>
+      <c r="D30" s="53" t="inlineStr">
         <is>
           <t>高血压患者信息</t>
         </is>
       </c>
-      <c r="E29" s="56" t="inlineStr">
+      <c r="E30" s="53" t="inlineStr">
         <is>
           <t>查询医生对照组下的患者-app</t>
         </is>
       </c>
-      <c r="F29" s="50" t="inlineStr">
+      <c r="F30" s="47" t="inlineStr">
         <is>
           <t>医生端-查询对照组患者-必填参数</t>
         </is>
       </c>
-      <c r="G29" s="46" t="inlineStr">
+      <c r="G30" s="44" t="inlineStr">
         <is>
           <t>name=&amp;pageNum=1&amp;pageSize=1</t>
         </is>
       </c>
     </row>
-    <row r="30" ht="99.45" customHeight="1" s="65">
-      <c r="B30" s="45" t="inlineStr">
+    <row r="31" ht="99.45" customHeight="1" s="62">
+      <c r="B31" s="43" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
       </c>
-      <c r="C30" s="45" t="n"/>
-      <c r="D30" s="49" t="inlineStr">
+      <c r="C31" s="43" t="n"/>
+      <c r="D31" s="53" t="inlineStr">
         <is>
           <t>高血压患者信息</t>
         </is>
       </c>
-      <c r="E30" s="56" t="inlineStr">
+      <c r="E31" s="53" t="inlineStr">
         <is>
           <t>修改对照组患者-app</t>
         </is>
       </c>
-      <c r="F30" s="50" t="inlineStr">
+      <c r="F31" s="47" t="inlineStr">
         <is>
           <t>医生端-修改对照组患者-全参</t>
         </is>
       </c>
-      <c r="G30" s="46" t="n"/>
-      <c r="H30" s="48" t="inlineStr">
+      <c r="G31" s="44" t="n"/>
+      <c r="H31" s="46" t="inlineStr">
         <is>
           <t>{
  "empiId": "{{dzempild}}",
@@ -17518,303 +17675,303 @@
         </is>
       </c>
     </row>
-    <row r="31" ht="99.59999999999999" customHeight="1" s="65">
-      <c r="B31" s="45" t="inlineStr">
+    <row r="32" ht="99.59999999999999" customHeight="1" s="62">
+      <c r="B32" s="43" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
       </c>
-      <c r="C31" s="45" t="n"/>
-      <c r="D31" s="49" t="inlineStr">
+      <c r="C32" s="43" t="n"/>
+      <c r="D32" s="53" t="inlineStr">
         <is>
           <t>高血压患者信息</t>
         </is>
       </c>
-      <c r="E31" s="56" t="inlineStr">
+      <c r="E32" s="53" t="inlineStr">
         <is>
           <t>删除对照组患者-app</t>
         </is>
       </c>
-      <c r="F31" s="52" t="inlineStr">
+      <c r="F32" s="49" t="inlineStr">
         <is>
           <t>医生端-删除对照组患者-全参</t>
         </is>
       </c>
-      <c r="G31" s="52" t="n"/>
-      <c r="H31" s="52" t="inlineStr">
+      <c r="G32" s="49" t="n"/>
+      <c r="H32" s="49" t="inlineStr">
         <is>
           <t>{
 "empiId":"{{dzempiId}}"
 }</t>
         </is>
       </c>
-      <c r="I31" s="61" t="n"/>
-      <c r="J31" s="52" t="n"/>
-    </row>
-    <row r="32" ht="52.2" customHeight="1" s="65">
-      <c r="B32" s="45" t="inlineStr">
+      <c r="I32" s="57" t="n"/>
+      <c r="J32" s="49" t="n"/>
+    </row>
+    <row r="33" ht="52.2" customHeight="1" s="62">
+      <c r="B33" s="43" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
       </c>
-      <c r="C32" s="45" t="n"/>
-      <c r="D32" s="49" t="inlineStr">
+      <c r="C33" s="43" t="n"/>
+      <c r="D33" s="53" t="inlineStr">
         <is>
           <t>高血压患者信息</t>
         </is>
       </c>
-      <c r="E32" s="56" t="inlineStr">
+      <c r="E33" s="53" t="inlineStr">
         <is>
           <t>患者组别下拉框-pc、app</t>
         </is>
       </c>
-      <c r="F32" s="50" t="inlineStr">
+      <c r="F33" s="47" t="inlineStr">
         <is>
           <t>医生端-患者组别下拉框</t>
         </is>
       </c>
-      <c r="G32" s="46" t="n"/>
-    </row>
-    <row r="33" ht="52.2" customHeight="1" s="65">
-      <c r="B33" s="45" t="inlineStr">
+      <c r="G33" s="44" t="n"/>
+    </row>
+    <row r="34" ht="52.2" customHeight="1" s="62">
+      <c r="B34" s="43" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
       </c>
-      <c r="C33" s="45" t="n"/>
-      <c r="D33" s="49" t="inlineStr">
+      <c r="C34" s="43" t="n"/>
+      <c r="D34" s="53" t="inlineStr">
         <is>
           <t>高血压患者信息</t>
         </is>
       </c>
-      <c r="E33" s="56" t="inlineStr">
+      <c r="E34" s="53" t="inlineStr">
         <is>
           <t>分级代码-app</t>
         </is>
       </c>
-      <c r="F33" s="50" t="inlineStr">
+      <c r="F34" s="47" t="inlineStr">
         <is>
           <t>医生端-分级代码</t>
         </is>
       </c>
-      <c r="G33" s="46" t="n"/>
-    </row>
-    <row r="34" ht="52.2" customHeight="1" s="65">
-      <c r="B34" s="45" t="inlineStr">
+      <c r="G34" s="44" t="n"/>
+    </row>
+    <row r="35" ht="52.2" customHeight="1" s="62">
+      <c r="B35" s="43" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
       </c>
-      <c r="C34" s="45" t="n"/>
-      <c r="D34" s="49" t="inlineStr">
+      <c r="C35" s="43" t="n"/>
+      <c r="D35" s="53" t="inlineStr">
         <is>
           <t>高血压随访接口</t>
         </is>
       </c>
-      <c r="E34" s="56" t="inlineStr">
+      <c r="E35" s="53" t="inlineStr">
         <is>
           <t>更改管理级别</t>
         </is>
       </c>
-      <c r="F34" s="50" t="inlineStr">
+      <c r="F35" s="47" t="inlineStr">
         <is>
           <t>医生端-更改管理组别</t>
         </is>
       </c>
-      <c r="G34" s="46" t="inlineStr">
+      <c r="G35" s="44" t="inlineStr">
         <is>
           <t>followUpStatus=1&amp;pId={{glempild}}</t>
         </is>
       </c>
     </row>
-    <row r="35" ht="87" customHeight="1" s="65">
-      <c r="B35" s="45" t="inlineStr">
+    <row r="36" ht="87" customHeight="1" s="62">
+      <c r="B36" s="43" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
       </c>
-      <c r="C35" s="45" t="n"/>
-      <c r="D35" s="49" t="inlineStr">
+      <c r="C36" s="43" t="n"/>
+      <c r="D36" s="53" t="inlineStr">
         <is>
           <t>高血压随访接口</t>
         </is>
       </c>
-      <c r="E35" s="0" t="inlineStr">
+      <c r="E36" s="51" t="inlineStr">
         <is>
           <t>查询患者随访记录信息</t>
         </is>
       </c>
-      <c r="F35" s="50" t="inlineStr">
+      <c r="F36" s="47" t="inlineStr">
         <is>
           <t>医生端-查询患者随访记录信息</t>
         </is>
       </c>
-      <c r="G35" s="46" t="inlineStr">
+      <c r="G36" s="44" t="inlineStr">
         <is>
           <t>currPage=1&amp;itemId={{itemId}}&amp;pId={{glempild}}&amp;pageSize=50</t>
         </is>
       </c>
     </row>
-    <row r="36" ht="52.2" customHeight="1" s="65">
-      <c r="B36" s="45" t="inlineStr">
+    <row r="37" ht="52.2" customHeight="1" s="62">
+      <c r="B37" s="43" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
       </c>
-      <c r="C36" s="45" t="n"/>
-      <c r="D36" s="49" t="inlineStr">
+      <c r="C37" s="43" t="n"/>
+      <c r="D37" s="53" t="inlineStr">
         <is>
           <t>高血压随访接口</t>
         </is>
       </c>
-      <c r="E36" s="0" t="inlineStr">
+      <c r="E37" s="51" t="inlineStr">
         <is>
           <t>分层分级管理查询</t>
         </is>
       </c>
-      <c r="F36" s="50" t="inlineStr">
+      <c r="F37" s="47" t="inlineStr">
         <is>
           <t>医生端-分层分级查询</t>
         </is>
       </c>
-      <c r="G36" s="46" t="n"/>
-    </row>
-    <row r="37" ht="87" customHeight="1" s="65">
-      <c r="B37" s="45" t="inlineStr">
+      <c r="G37" s="44" t="n"/>
+    </row>
+    <row r="38" ht="87" customHeight="1" s="62">
+      <c r="B38" s="43" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
       </c>
-      <c r="C37" s="45" t="n"/>
-      <c r="D37" s="49" t="inlineStr">
+      <c r="C38" s="43" t="n"/>
+      <c r="D38" s="53" t="inlineStr">
         <is>
           <t>高血压随访接口</t>
         </is>
       </c>
-      <c r="E37" s="56" t="inlineStr">
+      <c r="E38" s="53" t="inlineStr">
         <is>
           <t>两次随访血压未达标患者</t>
         </is>
       </c>
-      <c r="F37" s="50" t="inlineStr">
+      <c r="F38" s="47" t="inlineStr">
         <is>
           <t>医生端-建议转诊患者-全参</t>
         </is>
       </c>
-      <c r="G37" s="46" t="inlineStr">
+      <c r="G38" s="44" t="inlineStr">
         <is>
           <t>currPage=1&amp;entrance=0&amp;itemId=79&amp;orgIdList=299&amp;pageSize=10</t>
         </is>
       </c>
     </row>
-    <row r="38" ht="69.59999999999999" customHeight="1" s="65">
-      <c r="B38" s="45" t="inlineStr">
+    <row r="39" ht="69.59999999999999" customHeight="1" s="62">
+      <c r="B39" s="43" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
       </c>
-      <c r="C38" s="45" t="n"/>
-      <c r="D38" s="49" t="inlineStr">
+      <c r="C39" s="43" t="n"/>
+      <c r="D39" s="53" t="inlineStr">
         <is>
           <t>高血压随访接口</t>
         </is>
       </c>
-      <c r="E38" s="56" t="inlineStr">
+      <c r="E39" s="53" t="inlineStr">
         <is>
           <t>两次随访血压未达标患者</t>
         </is>
       </c>
-      <c r="F38" s="50" t="inlineStr">
+      <c r="F39" s="47" t="inlineStr">
         <is>
           <t>医生端-建议转诊患者-必填参数</t>
         </is>
       </c>
-      <c r="G38" s="46" t="inlineStr">
+      <c r="G39" s="44" t="inlineStr">
         <is>
           <t>currPage=1&amp;itemId=79&amp;orgIdList=299&amp;pageSize=10</t>
         </is>
       </c>
     </row>
-    <row r="39" ht="52.2" customHeight="1" s="65">
-      <c r="B39" s="45" t="inlineStr">
+    <row r="40" ht="52.2" customHeight="1" s="62">
+      <c r="B40" s="43" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
       </c>
-      <c r="C39" s="45" t="n"/>
-      <c r="D39" s="49" t="inlineStr">
+      <c r="C40" s="43" t="n"/>
+      <c r="D40" s="53" t="inlineStr">
         <is>
           <t>高血压随访接口</t>
         </is>
       </c>
-      <c r="E39" s="56" t="inlineStr">
+      <c r="E40" s="53" t="inlineStr">
         <is>
           <t>一周内待随访患者查询</t>
         </is>
       </c>
-      <c r="F39" s="50" t="inlineStr">
+      <c r="F40" s="47" t="inlineStr">
         <is>
           <t>医生端-一周内待随访患者查询</t>
         </is>
       </c>
-      <c r="G39" s="46" t="inlineStr">
+      <c r="G40" s="44" t="inlineStr">
         <is>
           <t>currPage=1&amp;itemId=79&amp;pageSize=10</t>
         </is>
       </c>
     </row>
-    <row r="40" ht="52.2" customHeight="1" s="65">
-      <c r="B40" s="45" t="inlineStr">
+    <row r="41" ht="52.2" customHeight="1" s="62">
+      <c r="B41" s="43" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
       </c>
-      <c r="C40" s="45" t="n"/>
-      <c r="D40" s="49" t="inlineStr">
+      <c r="C41" s="43" t="n"/>
+      <c r="D41" s="53" t="inlineStr">
         <is>
           <t>高血压随访接口</t>
         </is>
       </c>
-      <c r="E40" s="56" t="inlineStr">
+      <c r="E41" s="53" t="inlineStr">
         <is>
           <t>逾期随访患者查询</t>
         </is>
       </c>
-      <c r="F40" s="50" t="inlineStr">
+      <c r="F41" s="47" t="inlineStr">
         <is>
           <t>医生端-逾期随访患者查询</t>
         </is>
       </c>
-      <c r="G40" s="46" t="inlineStr">
+      <c r="G41" s="44" t="inlineStr">
         <is>
           <t>currPage=1&amp;itemId=79&amp;pageSize=10</t>
         </is>
       </c>
     </row>
-    <row r="41" ht="128.55" customHeight="1" s="65">
-      <c r="B41" s="45" t="inlineStr">
+    <row r="42" ht="128.55" customHeight="1" s="62">
+      <c r="B42" s="43" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
       </c>
-      <c r="C41" s="45" t="n"/>
-      <c r="D41" s="49" t="inlineStr">
+      <c r="C42" s="43" t="n"/>
+      <c r="D42" s="53" t="inlineStr">
         <is>
           <t>转诊记录表接口</t>
         </is>
       </c>
-      <c r="E41" s="56" t="inlineStr">
+      <c r="E42" s="53" t="inlineStr">
         <is>
           <t>新增-APP</t>
         </is>
       </c>
-      <c r="F41" s="50" t="inlineStr">
+      <c r="F42" s="47" t="inlineStr">
         <is>
           <t>医生端-新增转诊</t>
         </is>
       </c>
-      <c r="G41" s="46" t="n"/>
-      <c r="H41" s="48" t="inlineStr">
+      <c r="G42" s="44" t="n"/>
+      <c r="H42" s="46" t="inlineStr">
         <is>
           <t>{
  "empiId": "{{glempild}}",
@@ -17824,97 +17981,97 @@
 }</t>
         </is>
       </c>
-      <c r="O41" s="48" t="inlineStr">
+      <c r="O42" s="46" t="inlineStr">
         <is>
           <t>{"zz_id":"select max(id) from saashypertensiontest.hy_referral_record where empiId = {{glempild}}"}</t>
         </is>
       </c>
     </row>
-    <row r="42" ht="52.2" customHeight="1" s="65">
-      <c r="B42" s="45" t="inlineStr">
+    <row r="43" ht="52.2" customHeight="1" s="62">
+      <c r="B43" s="43" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
       </c>
-      <c r="C42" s="45" t="n"/>
-      <c r="D42" s="49" t="inlineStr">
+      <c r="C43" s="43" t="n"/>
+      <c r="D43" s="53" t="inlineStr">
         <is>
           <t>转诊记录表接口</t>
         </is>
       </c>
-      <c r="E42" s="56" t="inlineStr">
+      <c r="E43" s="53" t="inlineStr">
         <is>
           <t>待处理查询-APP</t>
         </is>
       </c>
-      <c r="F42" s="50" t="inlineStr">
+      <c r="F43" s="47" t="inlineStr">
         <is>
           <t>医生端-待处理查询</t>
         </is>
       </c>
-      <c r="G42" s="46" t="inlineStr">
+      <c r="G43" s="44" t="inlineStr">
         <is>
           <t>currPage=1&amp;orgCode=299&amp;pageSize=10</t>
         </is>
       </c>
-      <c r="I42" s="59" t="inlineStr">
+      <c r="I43" s="55" t="inlineStr">
         <is>
           <t>{"code": 200}</t>
         </is>
       </c>
     </row>
-    <row r="43" ht="52.2" customHeight="1" s="65">
-      <c r="B43" s="45" t="inlineStr">
+    <row r="44" ht="52.2" customHeight="1" s="62">
+      <c r="B44" s="43" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
       </c>
-      <c r="C43" s="45" t="n"/>
-      <c r="D43" s="49" t="inlineStr">
+      <c r="C44" s="43" t="n"/>
+      <c r="D44" s="53" t="inlineStr">
         <is>
           <t>转诊记录表接口</t>
         </is>
       </c>
-      <c r="E43" s="56" t="inlineStr">
+      <c r="E44" s="53" t="inlineStr">
         <is>
           <t>转入确认-APP</t>
         </is>
       </c>
-      <c r="F43" s="50" t="inlineStr">
+      <c r="F44" s="47" t="inlineStr">
         <is>
           <t>医生端-转入确认</t>
         </is>
       </c>
-      <c r="G43" s="48" t="inlineStr">
+      <c r="G44" s="46" t="inlineStr">
         <is>
           <t>id={{zz_id}}</t>
         </is>
       </c>
     </row>
-    <row r="44" ht="104.4" customHeight="1" s="65">
-      <c r="B44" s="45" t="inlineStr">
+    <row r="45" ht="104.4" customHeight="1" s="62">
+      <c r="B45" s="43" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
       </c>
-      <c r="C44" s="45" t="n"/>
-      <c r="D44" s="49" t="inlineStr">
+      <c r="C45" s="43" t="n"/>
+      <c r="D45" s="53" t="inlineStr">
         <is>
           <t>转诊记录表接口</t>
         </is>
       </c>
-      <c r="E44" s="56" t="inlineStr">
+      <c r="E45" s="53" t="inlineStr">
         <is>
           <t>转回申请-APP</t>
         </is>
       </c>
-      <c r="F44" s="50" t="inlineStr">
+      <c r="F45" s="47" t="inlineStr">
         <is>
           <t>医生端-转回申请</t>
         </is>
       </c>
-      <c r="G44" s="46" t="n"/>
-      <c r="H44" s="48" t="inlineStr">
+      <c r="G45" s="44" t="n"/>
+      <c r="H45" s="46" t="inlineStr">
         <is>
           <t>{
  "id": {{zz_id}},
@@ -17924,156 +18081,156 @@
         </is>
       </c>
     </row>
-    <row r="45" ht="52.2" customHeight="1" s="65">
-      <c r="B45" s="45" t="inlineStr">
+    <row r="46" ht="52.2" customHeight="1" s="62">
+      <c r="B46" s="43" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
       </c>
-      <c r="C45" s="45" t="n"/>
-      <c r="D45" s="49" t="inlineStr">
+      <c r="C46" s="43" t="n"/>
+      <c r="D46" s="53" t="inlineStr">
         <is>
           <t>转诊记录表接口</t>
         </is>
       </c>
-      <c r="E45" s="64" t="inlineStr">
+      <c r="E46" s="61" t="inlineStr">
         <is>
           <t>转回确认-APP</t>
         </is>
       </c>
-      <c r="F45" s="50" t="inlineStr">
+      <c r="F46" s="47" t="inlineStr">
         <is>
           <t>医生端-转回确认</t>
         </is>
       </c>
-      <c r="G45" s="48" t="inlineStr">
+      <c r="G46" s="46" t="inlineStr">
         <is>
           <t>id={{zz_id}}</t>
         </is>
       </c>
     </row>
-    <row r="46" ht="52.2" customHeight="1" s="65">
-      <c r="B46" s="45" t="inlineStr">
+    <row r="47" ht="52.2" customHeight="1" s="62">
+      <c r="B47" s="43" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
       </c>
-      <c r="C46" s="45" t="n"/>
-      <c r="D46" s="49" t="inlineStr">
+      <c r="C47" s="43" t="n"/>
+      <c r="D47" s="53" t="inlineStr">
         <is>
           <t>转诊记录表接口</t>
         </is>
       </c>
-      <c r="E46" s="64" t="inlineStr">
+      <c r="E47" s="61" t="inlineStr">
         <is>
           <t>待处理查询-APP</t>
         </is>
       </c>
-      <c r="F46" s="50" t="inlineStr">
+      <c r="F47" s="47" t="inlineStr">
         <is>
           <t>医生端-待处理查询</t>
         </is>
       </c>
-      <c r="G46" s="46" t="inlineStr">
+      <c r="G47" s="44" t="inlineStr">
         <is>
           <t>currPage=1&amp;orgCode=299&amp;pageSize=10</t>
         </is>
       </c>
-      <c r="I46" s="59" t="inlineStr">
+      <c r="I47" s="55" t="inlineStr">
         <is>
           <t>{"code": 200}</t>
         </is>
       </c>
     </row>
-    <row r="47" ht="52.2" customHeight="1" s="65">
-      <c r="B47" s="45" t="inlineStr">
+    <row r="48" ht="52.2" customHeight="1" s="62">
+      <c r="B48" s="43" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
       </c>
-      <c r="C47" s="45" t="n"/>
-      <c r="D47" s="49" t="inlineStr">
+      <c r="C48" s="43" t="n"/>
+      <c r="D48" s="53" t="inlineStr">
         <is>
           <t>转诊记录表接口</t>
         </is>
       </c>
-      <c r="E47" s="64" t="inlineStr">
+      <c r="E48" s="61" t="inlineStr">
         <is>
           <t>已接收查询-APP</t>
         </is>
       </c>
-      <c r="F47" s="50" t="inlineStr">
+      <c r="F48" s="47" t="inlineStr">
         <is>
           <t>医生端-已接收查询</t>
         </is>
       </c>
-      <c r="G47" s="46" t="inlineStr">
+      <c r="G48" s="44" t="inlineStr">
         <is>
           <t>currPage=1&amp;orgCode=299&amp;pageSize=10</t>
         </is>
       </c>
-      <c r="I47" s="59" t="inlineStr">
+      <c r="I48" s="55" t="inlineStr">
         <is>
           <t>{"code": 200}</t>
         </is>
       </c>
     </row>
-    <row r="48" ht="52.2" customHeight="1" s="65">
-      <c r="B48" s="45" t="inlineStr">
+    <row r="49" ht="52.2" customHeight="1" s="62">
+      <c r="B49" s="43" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
       </c>
-      <c r="C48" s="45" t="n"/>
-      <c r="D48" s="49" t="inlineStr">
+      <c r="C49" s="43" t="n"/>
+      <c r="D49" s="53" t="inlineStr">
         <is>
           <t>转诊记录表接口</t>
         </is>
       </c>
-      <c r="E48" s="64" t="inlineStr">
+      <c r="E49" s="61" t="inlineStr">
         <is>
           <t>转诊记录查询-APP</t>
         </is>
       </c>
-      <c r="F48" s="50" t="inlineStr">
+      <c r="F49" s="47" t="inlineStr">
         <is>
           <t>医生端-转诊记录查询</t>
         </is>
       </c>
-      <c r="G48" s="46" t="inlineStr">
+      <c r="G49" s="44" t="inlineStr">
         <is>
           <t>currPage=1&amp;orgCode=299&amp;pageSize=10</t>
         </is>
       </c>
-      <c r="I48" s="59" t="inlineStr">
+      <c r="I49" s="55" t="inlineStr">
         <is>
           <t>{"code": 200}</t>
         </is>
       </c>
     </row>
-    <row r="49" ht="52.2" customHeight="1" s="65">
-      <c r="B49" s="45" t="inlineStr">
+    <row r="50" ht="52.2" customHeight="1" s="62">
+      <c r="B50" s="43" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
       </c>
-      <c r="C49" s="45" t="n"/>
-      <c r="D49" s="49" t="inlineStr">
+      <c r="C50" s="43" t="n"/>
+      <c r="D50" s="53" t="inlineStr">
         <is>
           <t>转诊记录表接口</t>
         </is>
       </c>
-      <c r="E49" s="64" t="inlineStr">
+      <c r="E50" s="61" t="inlineStr">
         <is>
           <t>通过ID获取一条数据-APP</t>
         </is>
       </c>
-      <c r="F49" s="50" t="inlineStr">
+      <c r="F50" s="47" t="inlineStr">
         <is>
           <t>医生端-通过id获取一条数据</t>
         </is>
       </c>
-      <c r="G49" s="46" t="inlineStr">
+      <c r="G50" s="44" t="inlineStr">
         <is>
           <t>id={{zz_id}}</t>
         </is>
@@ -18081,13 +18238,13 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation sqref="A3:A1048576 B50:C1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="A4:A1048576 B51:C1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation sqref="G50:G1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="G51:G1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"post,get,postLogin"</formula1>
     </dataValidation>
-    <dataValidation sqref="G1:G2" showErrorMessage="1" showInputMessage="1" allowBlank="0"/>
+    <dataValidation sqref="G1:G3" showErrorMessage="1" showInputMessage="1" allowBlank="0"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
@@ -18123,11 +18280,11 @@
     <col width="13.44140625" customWidth="1" style="2" min="11" max="11"/>
     <col width="40.77734375" customWidth="1" style="2" min="12" max="12"/>
     <col width="10" customWidth="1" style="2" min="13" max="13"/>
-    <col width="27.44140625" customWidth="1" style="66" min="14" max="14"/>
+    <col width="27.44140625" customWidth="1" style="63" min="14" max="14"/>
     <col width="7.6640625" customWidth="1" style="2" min="15" max="15"/>
     <col width="54.77734375" customWidth="1" style="2" min="16" max="16"/>
-    <col width="8.77734375" customWidth="1" style="2" min="17" max="520"/>
-    <col width="8.77734375" customWidth="1" style="2" min="521" max="16384"/>
+    <col width="8.77734375" customWidth="1" style="2" min="17" max="521"/>
+    <col width="8.77734375" customWidth="1" style="2" min="522" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="33.45" customFormat="1" customHeight="1" s="3">

--- a/instance/zyjk/SAAS/iSwagger/i_sassuser_swagger_case.xlsx
+++ b/instance/zyjk/SAAS/iSwagger/i_sassuser_swagger_case.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="hypertension" sheetId="1" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3481" uniqueCount="1586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3480" uniqueCount="1586">
   <si>
     <t>tags</t>
   </si>
@@ -4052,9 +4052,6 @@
   </si>
   <si>
     <t>设置全局变量</t>
-  </si>
-  <si>
-    <t>{"userNo":"16766667777","orgno":"\'wgzx\' + str(Data_PO.getFigures(3))","orgId":"select orgCode from sys_user_detail where userNo='16766667777'"}</t>
   </si>
   <si>
     <t>N</t>
@@ -5971,15 +5968,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>N</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>application/x-www-form-urlencoded</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>随访情况统计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"userNo":"16766667777","orgno":"\'wgzx\' + str(Data_PO.getFigures(3))","orgId":"select orgCode from sys_user_detail where userNo='16766667777'"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"orgId":"select orgCode from sys_user_detail where userNo='16766667777'"}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6580,7 +6581,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -11193,7 +11194,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H264"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
     </sheetView>
@@ -11215,7 +11216,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="53" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="D1" s="53" t="s">
         <v>3</v>
@@ -12196,7 +12197,7 @@
         <v>11</v>
       </c>
       <c r="E50" s="51" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="F50" s="51" t="s">
         <v>75</v>
@@ -12219,7 +12220,7 @@
         <v>11</v>
       </c>
       <c r="E51" s="51" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="F51" s="51" t="s">
         <v>79</v>
@@ -13878,7 +13879,7 @@
         <v>909</v>
       </c>
       <c r="B135" s="55" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="C135" s="51" t="s">
         <v>911</v>
@@ -14454,7 +14455,7 @@
         <v>986</v>
       </c>
       <c r="C165" s="51" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="D165" s="51" t="s">
         <v>11</v>
@@ -15243,7 +15244,7 @@
       </c>
       <c r="F204" s="51"/>
       <c r="G204" s="51" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="26.4">
@@ -15254,7 +15255,7 @@
         <v>1108</v>
       </c>
       <c r="C205" s="51" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="D205" s="51" t="s">
         <v>55</v>
@@ -15264,7 +15265,7 @@
       </c>
       <c r="F205" s="51"/>
       <c r="G205" s="51" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="39.6">
@@ -16665,9 +16666,9 @@
   </sheetPr>
   <dimension ref="A1:Q112"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N100" sqref="N100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="19.2"/>
@@ -16687,7 +16688,7 @@
     <col min="13" max="13" width="2.109375" style="42" customWidth="1"/>
     <col min="14" max="14" width="28.5546875" style="38" customWidth="1"/>
     <col min="15" max="15" width="2.33203125" style="38" customWidth="1"/>
-    <col min="16" max="16" width="35.44140625" style="42" customWidth="1"/>
+    <col min="16" max="16" width="57.33203125" style="42" customWidth="1"/>
     <col min="17" max="17" width="22.6640625" style="42" customWidth="1"/>
     <col min="18" max="519" width="8.77734375" style="38" customWidth="1"/>
     <col min="520" max="16384" width="8.77734375" style="38"/>
@@ -16713,7 +16714,7 @@
         <v>1302</v>
       </c>
       <c r="G1" s="61" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="H1" s="33" t="s">
         <v>1303</v>
@@ -16765,12 +16766,12 @@
       <c r="N2" s="68"/>
       <c r="O2" s="68"/>
       <c r="P2" s="67" t="s">
-        <v>1314</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="118.2" customHeight="1">
       <c r="A3" s="38" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -16784,7 +16785,7 @@
       <c r="G3" s="67"/>
       <c r="H3" s="68"/>
       <c r="I3" s="70" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="J3" s="69"/>
       <c r="K3" s="68"/>
@@ -16797,7 +16798,7 @@
     <row r="4" spans="1:17" ht="54.6" customHeight="1">
       <c r="B4" s="40"/>
       <c r="C4" s="40" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>1274</v>
@@ -16806,12 +16807,12 @@
         <v>1289</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="G4" s="41"/>
       <c r="H4" s="41"/>
       <c r="I4" s="42" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="J4" s="71"/>
       <c r="L4" s="30"/>
@@ -16822,7 +16823,7 @@
     </row>
     <row r="5" spans="1:17" ht="42.45" customHeight="1">
       <c r="A5" s="38" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="B5" s="40"/>
       <c r="C5" s="40"/>
@@ -16836,10 +16837,10 @@
       <c r="G5" s="62"/>
       <c r="H5" s="41"/>
       <c r="I5" s="42" t="s">
+        <v>1319</v>
+      </c>
+      <c r="J5" s="47" t="s">
         <v>1320</v>
-      </c>
-      <c r="J5" s="47" t="s">
-        <v>1321</v>
       </c>
       <c r="L5" s="30"/>
       <c r="M5" s="30"/>
@@ -16859,10 +16860,10 @@
       <c r="G6" s="41"/>
       <c r="H6" s="41"/>
       <c r="I6" s="41" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="L6" s="30" t="s">
-        <v>1323</v>
+        <v>1585</v>
       </c>
       <c r="M6" s="30"/>
       <c r="N6" s="31"/>
@@ -16871,7 +16872,7 @@
     </row>
     <row r="7" spans="1:17" ht="40.799999999999997" customHeight="1">
       <c r="B7" s="40" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="C7" s="40"/>
       <c r="D7" s="41" t="s">
@@ -16881,15 +16882,15 @@
         <v>92</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="G7" s="41"/>
       <c r="H7" s="41"/>
       <c r="I7" s="41" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="J7" s="47" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="L7" s="30"/>
       <c r="M7" s="30"/>
@@ -16899,7 +16900,7 @@
     </row>
     <row r="8" spans="1:17" ht="40.799999999999997" customHeight="1">
       <c r="A8" s="38" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="B8" s="40"/>
       <c r="C8" s="40"/>
@@ -16907,22 +16908,22 @@
         <v>1181</v>
       </c>
       <c r="E8" s="41" t="s">
+        <v>1326</v>
+      </c>
+      <c r="F8" s="41" t="s">
         <v>1327</v>
-      </c>
-      <c r="F8" s="41" t="s">
-        <v>1328</v>
       </c>
       <c r="G8" s="41"/>
       <c r="H8" s="41"/>
       <c r="I8" s="41" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="N8" s="42" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="O8" s="42"/>
       <c r="P8" s="42" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="33" customHeight="1">
@@ -16932,24 +16933,24 @@
         <v>1181</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="G9" s="42"/>
       <c r="H9" s="41"/>
       <c r="I9" s="42" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="L9" s="38"/>
       <c r="M9" s="38"/>
       <c r="N9" s="42" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="O9" s="42"/>
       <c r="P9" s="42" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="75" customHeight="1">
@@ -16959,24 +16960,24 @@
         <v>1181</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="F10" s="42" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="G10" s="42"/>
       <c r="H10" s="41"/>
       <c r="I10" s="42" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="L10" s="38"/>
       <c r="M10" s="38"/>
       <c r="N10" s="42" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="O10" s="42"/>
       <c r="P10" s="42" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="32.549999999999997" customHeight="1">
@@ -16989,12 +16990,12 @@
         <v>676</v>
       </c>
       <c r="F11" s="42" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="G11" s="42"/>
       <c r="H11" s="41"/>
       <c r="I11" s="42" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="L11" s="30"/>
       <c r="M11" s="30"/>
@@ -17009,12 +17010,12 @@
         <v>676</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="G12" s="42"/>
       <c r="H12" s="41"/>
       <c r="I12" s="42" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="L12" s="30"/>
       <c r="M12" s="30"/>
@@ -17029,21 +17030,21 @@
         <v>679</v>
       </c>
       <c r="F13" s="42" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="G13" s="42"/>
       <c r="H13" s="41"/>
       <c r="I13" s="42" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="L13" s="38"/>
       <c r="M13" s="38"/>
       <c r="N13" s="42" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="O13" s="42"/>
       <c r="P13" s="42" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="30" customHeight="1">
@@ -17056,21 +17057,21 @@
         <v>679</v>
       </c>
       <c r="F14" s="42" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="G14" s="42"/>
       <c r="H14" s="41"/>
       <c r="I14" s="42" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="L14" s="38"/>
       <c r="M14" s="38"/>
       <c r="N14" s="42" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="O14" s="42"/>
       <c r="P14" s="42" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="85.8" customHeight="1">
@@ -17080,49 +17081,47 @@
         <v>675</v>
       </c>
       <c r="E15" s="41" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="F15" s="42" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="G15" s="42"/>
       <c r="H15" s="41" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="L15" s="38"/>
       <c r="M15" s="38"/>
       <c r="N15" s="42" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="O15" s="42"/>
       <c r="P15" s="42" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="50.55" customHeight="1">
       <c r="B16" s="40"/>
-      <c r="C16" s="40" t="s">
-        <v>1583</v>
-      </c>
+      <c r="C16" s="40"/>
       <c r="D16" s="41" t="s">
         <v>675</v>
       </c>
       <c r="E16" s="41" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="F16" s="42"/>
       <c r="G16" s="42"/>
       <c r="H16" s="42" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="L16" s="38"/>
       <c r="M16" s="38"/>
       <c r="N16" s="42" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="O16" s="42"/>
       <c r="P16" s="42" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="17" spans="1:17" s="40" customFormat="1" ht="61.8" customHeight="1">
@@ -17134,17 +17133,17 @@
         <v>1214</v>
       </c>
       <c r="F17" s="41" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="G17" s="41"/>
       <c r="H17" s="41"/>
       <c r="I17" s="41" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="J17" s="47"/>
       <c r="K17" s="42"/>
       <c r="P17" s="41" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="Q17" s="41"/>
     </row>
@@ -17157,12 +17156,12 @@
         <v>1214</v>
       </c>
       <c r="F18" s="41" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="G18" s="41"/>
       <c r="H18" s="41"/>
       <c r="I18" s="41" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="J18" s="47"/>
       <c r="K18" s="42"/>
@@ -17187,7 +17186,7 @@
       <c r="N19" s="68"/>
       <c r="O19" s="68"/>
       <c r="P19" s="41" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="Q19" s="41"/>
     </row>
@@ -17197,12 +17196,12 @@
       <c r="D20" s="72"/>
       <c r="E20" s="72"/>
       <c r="F20" s="67" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="G20" s="67"/>
       <c r="H20" s="67"/>
       <c r="I20" s="67" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="J20" s="69"/>
       <c r="K20" s="68"/>
@@ -17214,7 +17213,7 @@
     <row r="21" spans="1:17" ht="60.45" customHeight="1">
       <c r="B21" s="40"/>
       <c r="C21" s="40" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="D21" s="72" t="s">
         <v>1274</v>
@@ -17223,12 +17222,12 @@
         <v>1294</v>
       </c>
       <c r="F21" s="73" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="G21" s="73"/>
       <c r="H21" s="67"/>
       <c r="I21" s="68" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="J21" s="69"/>
       <c r="K21" s="68"/>
@@ -17239,11 +17238,11 @@
     </row>
     <row r="22" spans="1:17" ht="78.45" customHeight="1">
       <c r="A22" s="38" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="B22" s="40"/>
       <c r="C22" s="40" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="D22" s="57" t="s">
         <v>1274</v>
@@ -17252,20 +17251,20 @@
         <v>1294</v>
       </c>
       <c r="F22" s="43" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="G22" s="43"/>
       <c r="H22" s="41"/>
       <c r="I22" s="42" t="s">
+        <v>1338</v>
+      </c>
+      <c r="P22" s="42" t="s">
         <v>1339</v>
-      </c>
-      <c r="P22" s="42" t="s">
-        <v>1340</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="46.2" customHeight="1">
       <c r="A23" s="38" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="B23" s="40"/>
       <c r="C23" s="40"/>
@@ -17273,15 +17272,15 @@
         <v>1181</v>
       </c>
       <c r="E23" s="57" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="F23" s="43" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="G23" s="43"/>
       <c r="H23" s="41"/>
       <c r="I23" s="42" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="60.45" customHeight="1">
@@ -17294,18 +17293,18 @@
         <v>1221</v>
       </c>
       <c r="F24" s="43" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="G24" s="43"/>
       <c r="H24" s="41"/>
       <c r="I24" s="42" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="P24" s="41"/>
     </row>
     <row r="25" spans="1:17" ht="58.8" customHeight="1">
       <c r="A25" s="38" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="B25" s="40"/>
       <c r="C25" s="40"/>
@@ -17316,12 +17315,12 @@
         <v>1221</v>
       </c>
       <c r="F25" s="43" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="G25" s="43"/>
       <c r="H25" s="41"/>
       <c r="I25" s="42" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="109.2" customHeight="1">
@@ -17334,15 +17333,15 @@
         <v>1212</v>
       </c>
       <c r="F26" s="43" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="G26" s="43"/>
       <c r="H26" s="41"/>
       <c r="I26" s="42" t="s">
+        <v>1346</v>
+      </c>
+      <c r="P26" s="42" t="s">
         <v>1347</v>
-      </c>
-      <c r="P26" s="42" t="s">
-        <v>1348</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="52.2" customHeight="1">
@@ -17355,16 +17354,16 @@
         <v>1216</v>
       </c>
       <c r="F27" s="43" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G27" s="43"/>
       <c r="H27" s="41" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="169.8" customHeight="1">
       <c r="A28" s="38" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="B28" s="40"/>
       <c r="C28" s="40"/>
@@ -17372,17 +17371,17 @@
         <v>1181</v>
       </c>
       <c r="F28" s="43" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G28" s="43"/>
       <c r="H28" s="41"/>
       <c r="I28" s="42" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="52.2" customHeight="1">
       <c r="A29" s="38" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="B29" s="40"/>
       <c r="C29" s="40"/>
@@ -17390,14 +17389,14 @@
         <v>1181</v>
       </c>
       <c r="F29" s="43" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="G29" s="43"/>
       <c r="H29" s="41" t="s">
+        <v>1353</v>
+      </c>
+      <c r="P29" s="42" t="s">
         <v>1354</v>
-      </c>
-      <c r="P29" s="42" t="s">
-        <v>1355</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="52.2" customHeight="1">
@@ -17410,11 +17409,11 @@
         <v>1187</v>
       </c>
       <c r="F30" s="43" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="G30" s="43"/>
       <c r="H30" s="41" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="99.45" customHeight="1">
@@ -17427,12 +17426,12 @@
         <v>1228</v>
       </c>
       <c r="F31" s="43" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="G31" s="43"/>
       <c r="H31" s="41"/>
       <c r="I31" s="42" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="99.6" customHeight="1">
@@ -17445,12 +17444,12 @@
         <v>1182</v>
       </c>
       <c r="F32" s="45" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="G32" s="45"/>
       <c r="H32" s="45"/>
       <c r="I32" s="45" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="J32" s="48"/>
       <c r="K32" s="45"/>
@@ -17465,7 +17464,7 @@
         <v>1197</v>
       </c>
       <c r="F33" s="43" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="G33" s="43"/>
       <c r="H33" s="41"/>
@@ -17480,7 +17479,7 @@
         <v>1210</v>
       </c>
       <c r="F34" s="43" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="G34" s="43"/>
       <c r="H34" s="41"/>
@@ -17495,11 +17494,11 @@
         <v>61</v>
       </c>
       <c r="F35" s="43" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="G35" s="43"/>
       <c r="H35" s="41" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="36" spans="2:16" ht="87" customHeight="1">
@@ -17512,11 +17511,11 @@
         <v>26</v>
       </c>
       <c r="F36" s="43" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="G36" s="43"/>
       <c r="H36" s="41" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="37" spans="2:16" ht="52.2" customHeight="1">
@@ -17529,7 +17528,7 @@
         <v>30</v>
       </c>
       <c r="F37" s="43" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="G37" s="43"/>
       <c r="H37" s="41"/>
@@ -17544,11 +17543,11 @@
         <v>38</v>
       </c>
       <c r="F38" s="43" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="G38" s="43"/>
       <c r="H38" s="41" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="39" spans="2:16" ht="69.599999999999994" customHeight="1">
@@ -17561,11 +17560,11 @@
         <v>38</v>
       </c>
       <c r="F39" s="43" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="G39" s="43"/>
       <c r="H39" s="41" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="40" spans="2:16" ht="52.2" customHeight="1">
@@ -17578,11 +17577,11 @@
         <v>42</v>
       </c>
       <c r="F40" s="43" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="G40" s="43"/>
       <c r="H40" s="41" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="41" spans="2:16" ht="52.2" customHeight="1">
@@ -17595,11 +17594,11 @@
         <v>46</v>
       </c>
       <c r="F41" s="43" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="G41" s="43"/>
       <c r="H41" s="41" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="42" spans="2:16" ht="128.55000000000001" customHeight="1">
@@ -17612,15 +17611,15 @@
         <v>714</v>
       </c>
       <c r="F42" s="43" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="G42" s="43"/>
       <c r="H42" s="41"/>
       <c r="I42" s="42" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="P42" s="42" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="43" spans="2:16" ht="52.2" customHeight="1">
@@ -17633,14 +17632,14 @@
         <v>744</v>
       </c>
       <c r="F43" s="43" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="G43" s="43"/>
       <c r="H43" s="41" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="J43" s="47" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="44" spans="2:16" ht="52.2" customHeight="1">
@@ -17653,11 +17652,11 @@
         <v>742</v>
       </c>
       <c r="F44" s="43" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="G44" s="43"/>
       <c r="H44" s="42" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="45" spans="2:16" ht="104.4" customHeight="1">
@@ -17670,12 +17669,12 @@
         <v>735</v>
       </c>
       <c r="F45" s="43" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="G45" s="43"/>
       <c r="H45" s="41"/>
       <c r="I45" s="42" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="46" spans="2:16" ht="52.2" customHeight="1">
@@ -17688,11 +17687,11 @@
         <v>733</v>
       </c>
       <c r="F46" s="43" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="G46" s="43"/>
       <c r="H46" s="42" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="47" spans="2:16" ht="52.2" customHeight="1">
@@ -17705,14 +17704,14 @@
         <v>744</v>
       </c>
       <c r="F47" s="43" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="G47" s="43"/>
       <c r="H47" s="41" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="J47" s="47" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="48" spans="2:16" ht="52.2" customHeight="1">
@@ -17725,14 +17724,14 @@
         <v>730</v>
       </c>
       <c r="F48" s="43" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="G48" s="43"/>
       <c r="H48" s="41" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="J48" s="47" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="49" spans="2:17" ht="52.2" customHeight="1">
@@ -17745,14 +17744,14 @@
         <v>746</v>
       </c>
       <c r="F49" s="43" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="G49" s="43"/>
       <c r="H49" s="41" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="J49" s="47" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="50" spans="2:17" ht="52.2" customHeight="1">
@@ -17765,16 +17764,16 @@
         <v>717</v>
       </c>
       <c r="F50" s="43" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="G50" s="43"/>
       <c r="H50" s="41" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="51" spans="2:17" ht="139.19999999999999">
       <c r="B51" s="40" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D51" s="49" t="s">
         <v>713</v>
@@ -17783,18 +17782,18 @@
         <v>714</v>
       </c>
       <c r="F51" s="43" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="G51" s="43"/>
       <c r="I51" s="42" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="J51" s="42"/>
       <c r="Q51" s="38"/>
     </row>
-    <row r="52" spans="2:17" ht="52.2">
+    <row r="52" spans="2:17" ht="34.799999999999997">
       <c r="B52" s="40" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D52" s="49" t="s">
         <v>713</v>
@@ -17803,23 +17802,23 @@
         <v>724</v>
       </c>
       <c r="F52" s="43" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="G52" s="43"/>
       <c r="H52" s="41" t="s">
+        <v>1513</v>
+      </c>
+      <c r="J52" s="47" t="s">
+        <v>1552</v>
+      </c>
+      <c r="P52" s="42" t="s">
         <v>1514</v>
-      </c>
-      <c r="J52" s="47" t="s">
-        <v>1553</v>
-      </c>
-      <c r="P52" s="42" t="s">
-        <v>1515</v>
       </c>
       <c r="Q52" s="38"/>
     </row>
     <row r="53" spans="2:17" ht="26.4">
       <c r="B53" s="40" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D53" s="49" t="s">
         <v>713</v>
@@ -17828,18 +17827,18 @@
         <v>717</v>
       </c>
       <c r="F53" s="43" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="G53" s="43"/>
       <c r="H53" s="42" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="J53" s="42"/>
       <c r="Q53" s="38"/>
     </row>
     <row r="54" spans="2:17" ht="243.6">
       <c r="B54" s="40" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D54" s="49" t="s">
         <v>713</v>
@@ -17852,14 +17851,14 @@
       </c>
       <c r="G54" s="43"/>
       <c r="I54" s="42" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="J54" s="42"/>
       <c r="Q54" s="38"/>
     </row>
     <row r="55" spans="2:17">
       <c r="B55" s="40" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D55" s="49" t="s">
         <v>713</v>
@@ -17868,17 +17867,17 @@
         <v>720</v>
       </c>
       <c r="F55" s="43" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="G55" s="43"/>
       <c r="J55" s="47" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="Q55" s="38"/>
     </row>
     <row r="56" spans="2:17">
       <c r="B56" s="40" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D56" s="49" t="s">
         <v>713</v>
@@ -17887,17 +17886,17 @@
         <v>722</v>
       </c>
       <c r="F56" s="43" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="G56" s="43"/>
       <c r="J56" s="47" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="Q56" s="38"/>
     </row>
-    <row r="57" spans="2:17" ht="69.599999999999994">
+    <row r="57" spans="2:17" ht="52.2">
       <c r="B57" s="40" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D57" s="49" t="s">
         <v>812</v>
@@ -17906,20 +17905,20 @@
         <v>98</v>
       </c>
       <c r="F57" s="43" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="G57" s="43"/>
       <c r="H57" s="42" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="J57" s="47" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="Q57" s="38"/>
     </row>
-    <row r="58" spans="2:17" ht="52.2">
+    <row r="58" spans="2:17" ht="34.799999999999997">
       <c r="B58" s="40" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D58" s="49" t="s">
         <v>812</v>
@@ -17928,20 +17927,20 @@
         <v>102</v>
       </c>
       <c r="F58" s="43" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G58" s="43"/>
       <c r="H58" s="41" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="J58" s="47" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="Q58" s="38"/>
     </row>
-    <row r="59" spans="2:17" ht="69.599999999999994">
+    <row r="59" spans="2:17" ht="52.2">
       <c r="B59" s="40" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D59" s="49" t="s">
         <v>812</v>
@@ -17950,60 +17949,60 @@
         <v>106</v>
       </c>
       <c r="F59" s="43" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="G59" s="43"/>
       <c r="H59" s="42" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="J59" s="47" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="Q59" s="38"/>
     </row>
     <row r="60" spans="2:17">
       <c r="B60" s="40" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D60" s="49" t="s">
         <v>463</v>
       </c>
       <c r="E60" s="59" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F60" s="44" t="s">
         <v>1498</v>
-      </c>
-      <c r="F60" s="44" t="s">
-        <v>1499</v>
       </c>
       <c r="Q60" s="38"/>
     </row>
     <row r="61" spans="2:17" ht="69.599999999999994">
       <c r="B61" s="40" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="C61" s="42" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="D61" s="60" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="E61" s="49" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="F61" s="43" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="G61" s="43"/>
       <c r="I61" s="42" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="J61" s="47" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="Q61" s="38"/>
     </row>
     <row r="62" spans="2:17" ht="52.2">
       <c r="B62" s="40" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D62" s="49" t="s">
         <v>817</v>
@@ -18016,16 +18015,16 @@
       </c>
       <c r="G62" s="43"/>
       <c r="I62" s="42" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="J62" s="47" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="Q62" s="38"/>
     </row>
-    <row r="63" spans="2:17" ht="52.2">
+    <row r="63" spans="2:17" ht="34.799999999999997">
       <c r="B63" s="40" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D63" s="49" t="s">
         <v>817</v>
@@ -18038,82 +18037,82 @@
       </c>
       <c r="G63" s="43"/>
       <c r="J63" s="47" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="P63" s="42" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="Q63" s="38"/>
     </row>
     <row r="64" spans="2:17" ht="69.599999999999994">
       <c r="B64" s="40" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D64" s="49" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="E64" s="49" t="s">
         <v>838</v>
       </c>
       <c r="F64" s="43" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="G64" s="43"/>
       <c r="I64" s="42" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="J64" s="47" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="Q64" s="38"/>
     </row>
     <row r="65" spans="1:17" ht="34.799999999999997">
       <c r="B65" s="40" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D65" s="49" t="s">
         <v>817</v>
       </c>
       <c r="E65" s="60" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="F65" s="43" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="G65" s="43"/>
       <c r="I65" s="42" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="J65" s="47" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="Q65" s="38"/>
     </row>
     <row r="66" spans="1:17" ht="34.799999999999997">
       <c r="B66" s="40" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D66" s="49" t="s">
         <v>817</v>
       </c>
       <c r="E66" s="58" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="F66" s="43" t="s">
         <v>827</v>
       </c>
       <c r="G66" s="43"/>
       <c r="H66" s="42" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="J66" s="47" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="Q66" s="38"/>
     </row>
     <row r="67" spans="1:17" ht="26.4">
       <c r="B67" s="40" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D67" s="49" t="s">
         <v>817</v>
@@ -18122,17 +18121,17 @@
         <v>825</v>
       </c>
       <c r="F67" s="43" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="G67" s="43"/>
       <c r="J67" s="47" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="Q67" s="38"/>
     </row>
     <row r="68" spans="1:17" ht="26.4">
       <c r="B68" s="40" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D68" s="49" t="s">
         <v>817</v>
@@ -18141,20 +18140,20 @@
         <v>821</v>
       </c>
       <c r="F68" s="43" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="G68" s="43"/>
       <c r="H68" s="42" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="J68" s="47" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="Q68" s="38"/>
     </row>
     <row r="69" spans="1:17" ht="26.4">
       <c r="B69" s="40" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D69" s="49" t="s">
         <v>817</v>
@@ -18163,20 +18162,20 @@
         <v>818</v>
       </c>
       <c r="F69" s="43" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="G69" s="43"/>
       <c r="H69" s="43" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="J69" s="47" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="Q69" s="38"/>
     </row>
     <row r="70" spans="1:17" ht="39.6">
       <c r="B70" s="40" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D70" s="49" t="s">
         <v>749</v>
@@ -18185,20 +18184,20 @@
         <v>760</v>
       </c>
       <c r="F70" s="43" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="G70" s="43"/>
       <c r="H70" s="42" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="J70" s="47" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="Q70" s="38"/>
     </row>
     <row r="71" spans="1:17" ht="30">
       <c r="B71" s="40" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D71" s="49" t="s">
         <v>749</v>
@@ -18207,17 +18206,17 @@
         <v>758</v>
       </c>
       <c r="F71" s="63" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="G71" s="63"/>
       <c r="J71" s="47" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="Q71" s="38"/>
     </row>
     <row r="72" spans="1:17" ht="30">
       <c r="B72" s="40" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D72" s="49" t="s">
         <v>749</v>
@@ -18226,20 +18225,20 @@
         <v>754</v>
       </c>
       <c r="F72" s="63" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="G72" s="63"/>
       <c r="H72" s="42" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="J72" s="47" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="Q72" s="38"/>
     </row>
     <row r="73" spans="1:17" ht="26.4">
       <c r="B73" s="40" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D73" s="49" t="s">
         <v>749</v>
@@ -18252,16 +18251,16 @@
       </c>
       <c r="G73" s="64"/>
       <c r="H73" s="42" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="J73" s="47" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="Q73" s="38"/>
     </row>
     <row r="74" spans="1:17" ht="261">
       <c r="B74" s="40" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D74" s="49" t="s">
         <v>859</v>
@@ -18270,20 +18269,20 @@
         <v>869</v>
       </c>
       <c r="F74" s="63" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="G74" s="63"/>
       <c r="I74" s="42" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="J74" s="47" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="Q74" s="38"/>
     </row>
-    <row r="75" spans="1:17" ht="69.599999999999994">
+    <row r="75" spans="1:17" ht="52.2">
       <c r="B75" s="40" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D75" s="49" t="s">
         <v>859</v>
@@ -18296,16 +18295,16 @@
       </c>
       <c r="G75" s="64"/>
       <c r="H75" s="42" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="J75" s="47" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="Q75" s="38"/>
     </row>
-    <row r="76" spans="1:17" ht="34.799999999999997">
+    <row r="76" spans="1:17" ht="26.4">
       <c r="B76" s="40" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D76" s="49" t="s">
         <v>859</v>
@@ -18314,42 +18313,42 @@
         <v>860</v>
       </c>
       <c r="F76" s="63" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="G76" s="63"/>
       <c r="H76" s="42" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="J76" s="47" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="Q76" s="38"/>
     </row>
     <row r="77" spans="1:17" ht="25.2">
       <c r="A77" s="38" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="B77" s="40" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D77" s="49" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="E77" s="60" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="F77" s="65" t="s">
         <v>910</v>
       </c>
       <c r="G77" s="65"/>
       <c r="J77" s="47" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="Q77" s="38"/>
     </row>
     <row r="78" spans="1:17" ht="34.799999999999997">
       <c r="B78" s="40" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D78" s="49" t="s">
         <v>1069</v>
@@ -18362,40 +18361,40 @@
       </c>
       <c r="G78" s="64"/>
       <c r="H78" s="42" t="s">
+        <v>1446</v>
+      </c>
+      <c r="J78" s="47" t="s">
+        <v>1552</v>
+      </c>
+      <c r="P78" s="42" t="s">
         <v>1447</v>
-      </c>
-      <c r="J78" s="47" t="s">
-        <v>1553</v>
-      </c>
-      <c r="P78" s="42" t="s">
-        <v>1448</v>
       </c>
       <c r="Q78" s="38"/>
     </row>
     <row r="79" spans="1:17" ht="30">
       <c r="B79" s="40" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D79" s="49" t="s">
         <v>846</v>
       </c>
       <c r="E79" s="59" t="s">
+        <v>1448</v>
+      </c>
+      <c r="F79" s="44" t="s">
         <v>1449</v>
       </c>
-      <c r="F79" s="44" t="s">
+      <c r="H79" s="42" t="s">
         <v>1450</v>
       </c>
-      <c r="H79" s="42" t="s">
-        <v>1451</v>
-      </c>
       <c r="J79" s="47" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="Q79" s="38"/>
     </row>
     <row r="80" spans="1:17" ht="26.4">
       <c r="B80" s="40" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D80" s="49" t="s">
         <v>846</v>
@@ -18408,108 +18407,108 @@
       </c>
       <c r="G80" s="64"/>
       <c r="H80" s="42" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="J80" s="47" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="Q80" s="38"/>
     </row>
     <row r="81" spans="2:17" ht="39.6" customHeight="1">
       <c r="B81" s="40" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D81" s="49" t="s">
         <v>1069</v>
       </c>
       <c r="E81" s="58" t="s">
+        <v>1451</v>
+      </c>
+      <c r="F81" s="44" t="s">
         <v>1452</v>
       </c>
-      <c r="F81" s="44" t="s">
+      <c r="H81" s="42" t="s">
         <v>1453</v>
-      </c>
-      <c r="H81" s="42" t="s">
-        <v>1454</v>
       </c>
       <c r="J81" s="42"/>
       <c r="Q81" s="38"/>
     </row>
     <row r="82" spans="2:17" ht="39.6" customHeight="1">
       <c r="B82" s="40" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D82" s="49" t="s">
         <v>1069</v>
       </c>
       <c r="E82" s="58" t="s">
+        <v>1454</v>
+      </c>
+      <c r="F82" s="44" t="s">
         <v>1455</v>
-      </c>
-      <c r="F82" s="44" t="s">
-        <v>1456</v>
       </c>
       <c r="J82" s="42"/>
       <c r="Q82" s="38"/>
     </row>
     <row r="83" spans="2:17" ht="39.6" customHeight="1">
       <c r="B83" s="40" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D83" s="49" t="s">
         <v>1069</v>
       </c>
       <c r="E83" s="59" t="s">
+        <v>1456</v>
+      </c>
+      <c r="F83" s="44" t="s">
         <v>1457</v>
       </c>
-      <c r="F83" s="44" t="s">
+      <c r="H83" s="42" t="s">
         <v>1458</v>
-      </c>
-      <c r="H83" s="42" t="s">
-        <v>1459</v>
       </c>
       <c r="J83" s="42"/>
       <c r="Q83" s="38"/>
     </row>
     <row r="84" spans="2:17" ht="409.6">
       <c r="B84" s="40" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D84" s="49" t="s">
         <v>1069</v>
       </c>
       <c r="E84" s="58" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="F84" s="44" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="I84" s="42" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="J84" s="42"/>
       <c r="Q84" s="38"/>
     </row>
     <row r="85" spans="2:17" ht="156.6">
       <c r="B85" s="40" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D85" s="49" t="s">
         <v>1069</v>
       </c>
       <c r="E85" s="58" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F85" s="44" t="s">
         <v>1106</v>
       </c>
       <c r="I85" s="42" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="J85" s="42"/>
       <c r="Q85" s="38"/>
     </row>
-    <row r="86" spans="2:17" ht="34.799999999999997">
+    <row r="86" spans="2:17" ht="26.4">
       <c r="B86" s="40" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D86" s="49" t="s">
         <v>1069</v>
@@ -18522,14 +18521,14 @@
       </c>
       <c r="G86" s="64"/>
       <c r="H86" s="42" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="J86" s="42"/>
       <c r="Q86" s="38"/>
     </row>
-    <row r="87" spans="2:17" ht="34.799999999999997">
+    <row r="87" spans="2:17" ht="26.4">
       <c r="B87" s="40" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D87" s="49" t="s">
         <v>1069</v>
@@ -18542,34 +18541,34 @@
       </c>
       <c r="G87" s="64"/>
       <c r="H87" s="42" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="J87" s="42"/>
       <c r="Q87" s="38"/>
     </row>
     <row r="88" spans="2:17" ht="34.799999999999997">
       <c r="B88" s="40" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D88" s="49" t="s">
         <v>1069</v>
       </c>
       <c r="E88" s="60" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F88" s="64" t="s">
         <v>1095</v>
       </c>
       <c r="G88" s="64"/>
       <c r="I88" s="42" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="J88" s="42"/>
       <c r="Q88" s="38"/>
     </row>
     <row r="89" spans="2:17" ht="26.4">
       <c r="B89" s="40" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D89" s="49" t="s">
         <v>1069</v>
@@ -18582,23 +18581,23 @@
       </c>
       <c r="G89" s="64"/>
       <c r="H89" s="42" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="J89" s="42"/>
       <c r="Q89" s="38"/>
     </row>
     <row r="90" spans="2:17" ht="25.35" customHeight="1">
       <c r="B90" s="40" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D90" s="49" t="s">
         <v>1069</v>
       </c>
       <c r="E90" s="59" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F90" s="66" t="s">
         <v>1467</v>
-      </c>
-      <c r="F90" s="66" t="s">
-        <v>1468</v>
       </c>
       <c r="G90" s="66"/>
       <c r="J90" s="42"/>
@@ -18606,13 +18605,13 @@
     </row>
     <row r="91" spans="2:17" ht="34.799999999999997">
       <c r="B91" s="40" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D91" s="49" t="s">
         <v>1069</v>
       </c>
       <c r="E91" s="58" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="F91" s="44" t="s">
         <v>1081</v>
@@ -18622,318 +18621,318 @@
     </row>
     <row r="92" spans="2:17" ht="34.799999999999997">
       <c r="B92" s="40" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D92" s="49" t="s">
         <v>1069</v>
       </c>
       <c r="E92" s="58" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="F92" s="44" t="s">
         <v>1074</v>
       </c>
       <c r="H92" s="42" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="J92" s="42"/>
       <c r="Q92" s="38"/>
     </row>
     <row r="93" spans="2:17" ht="139.19999999999999">
       <c r="B93" s="40" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D93" s="49" t="s">
         <v>1069</v>
       </c>
       <c r="E93" s="59" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="F93" s="44" t="s">
         <v>236</v>
       </c>
       <c r="I93" s="42" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="J93" s="42"/>
       <c r="Q93" s="38"/>
     </row>
     <row r="94" spans="2:17" ht="69.599999999999994">
       <c r="B94" s="40" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D94" s="49" t="s">
         <v>1164</v>
       </c>
       <c r="E94" s="59" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="F94" s="44" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="I94" s="42" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="J94" s="42"/>
       <c r="Q94" s="38"/>
     </row>
     <row r="95" spans="2:17" ht="17.399999999999999">
       <c r="B95" s="40" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D95" s="49" t="s">
         <v>1164</v>
       </c>
       <c r="E95" s="59" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="F95" s="44" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="J95" s="42"/>
       <c r="P95" s="42" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="Q95" s="38"/>
     </row>
-    <row r="96" spans="2:17" ht="34.799999999999997">
+    <row r="96" spans="2:17" ht="17.399999999999999">
       <c r="B96" s="40" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D96" s="49" t="s">
         <v>1164</v>
       </c>
       <c r="E96" s="59" t="s">
+        <v>1476</v>
+      </c>
+      <c r="F96" s="44" t="s">
         <v>1477</v>
       </c>
-      <c r="F96" s="44" t="s">
-        <v>1478</v>
-      </c>
       <c r="H96" s="42" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="J96" s="42"/>
       <c r="Q96" s="38"/>
     </row>
-    <row r="97" spans="2:17" ht="52.2">
+    <row r="97" spans="2:17" ht="34.799999999999997">
       <c r="B97" s="40" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D97" s="49" t="s">
         <v>1164</v>
       </c>
       <c r="E97" s="59" t="s">
+        <v>1535</v>
+      </c>
+      <c r="F97" s="44" t="s">
+        <v>1478</v>
+      </c>
+      <c r="H97" s="42" t="s">
         <v>1536</v>
-      </c>
-      <c r="F97" s="44" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H97" s="42" t="s">
-        <v>1537</v>
       </c>
       <c r="J97" s="42"/>
       <c r="Q97" s="38"/>
     </row>
     <row r="98" spans="2:17" ht="17.399999999999999">
       <c r="B98" s="40" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D98" s="49" t="s">
         <v>1164</v>
       </c>
       <c r="E98" s="59" t="s">
+        <v>1479</v>
+      </c>
+      <c r="F98" s="44" t="s">
         <v>1480</v>
       </c>
-      <c r="F98" s="44" t="s">
+      <c r="H98" s="42" t="s">
         <v>1481</v>
-      </c>
-      <c r="H98" s="42" t="s">
-        <v>1482</v>
       </c>
       <c r="J98" s="42"/>
       <c r="Q98" s="38"/>
     </row>
     <row r="99" spans="2:17" ht="69.599999999999994">
       <c r="B99" s="40" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D99" s="49" t="s">
         <v>327</v>
       </c>
       <c r="E99" s="59" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="F99" s="44" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="G99" s="44" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="J99" s="42"/>
       <c r="Q99" s="38"/>
     </row>
     <row r="100" spans="2:17" ht="313.2">
       <c r="B100" s="40" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D100" s="49" t="s">
         <v>463</v>
       </c>
       <c r="E100" s="59" t="s">
+        <v>1483</v>
+      </c>
+      <c r="F100" s="44" t="s">
         <v>1484</v>
       </c>
-      <c r="F100" s="44" t="s">
+      <c r="I100" s="42" t="s">
         <v>1485</v>
-      </c>
-      <c r="I100" s="42" t="s">
-        <v>1486</v>
       </c>
       <c r="J100" s="42"/>
       <c r="Q100" s="38"/>
     </row>
     <row r="101" spans="2:17" ht="104.4">
       <c r="B101" s="40" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D101" s="49" t="s">
         <v>463</v>
       </c>
       <c r="E101" s="59" t="s">
+        <v>1486</v>
+      </c>
+      <c r="F101" s="44" t="s">
         <v>1487</v>
       </c>
-      <c r="F101" s="44" t="s">
+      <c r="I101" s="42" t="s">
         <v>1488</v>
-      </c>
-      <c r="I101" s="42" t="s">
-        <v>1489</v>
       </c>
       <c r="J101" s="42"/>
       <c r="Q101" s="38"/>
     </row>
     <row r="102" spans="2:17" ht="226.2">
       <c r="B102" s="40" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D102" s="49" t="s">
         <v>463</v>
       </c>
       <c r="E102" s="59" t="s">
+        <v>1489</v>
+      </c>
+      <c r="F102" s="44" t="s">
         <v>1490</v>
       </c>
-      <c r="F102" s="44" t="s">
+      <c r="I102" s="42" t="s">
         <v>1491</v>
       </c>
-      <c r="I102" s="42" t="s">
-        <v>1492</v>
-      </c>
       <c r="J102" s="42" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="P102" s="42" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="Q102" s="38"/>
     </row>
     <row r="103" spans="2:17" ht="34.799999999999997">
       <c r="B103" s="40" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D103" s="49" t="s">
         <v>463</v>
       </c>
       <c r="E103" s="59" t="s">
+        <v>1492</v>
+      </c>
+      <c r="F103" s="44" t="s">
         <v>1493</v>
       </c>
-      <c r="F103" s="44" t="s">
-        <v>1494</v>
-      </c>
       <c r="H103" s="44" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="J103" s="42" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="Q103" s="38"/>
     </row>
     <row r="104" spans="2:17" ht="52.2">
       <c r="B104" s="40" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D104" s="49" t="s">
         <v>463</v>
       </c>
       <c r="E104" s="59" t="s">
+        <v>1494</v>
+      </c>
+      <c r="F104" s="44" t="s">
         <v>1495</v>
       </c>
-      <c r="F104" s="44" t="s">
+      <c r="H104" s="42" t="s">
         <v>1496</v>
       </c>
-      <c r="H104" s="42" t="s">
-        <v>1497</v>
-      </c>
       <c r="J104" s="42" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="Q104" s="38"/>
     </row>
     <row r="105" spans="2:17" ht="34.799999999999997">
       <c r="B105" s="40" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D105" s="49" t="s">
         <v>463</v>
       </c>
       <c r="E105" s="59" t="s">
+        <v>1499</v>
+      </c>
+      <c r="F105" s="44" t="s">
         <v>1500</v>
       </c>
-      <c r="F105" s="44" t="s">
-        <v>1501</v>
-      </c>
       <c r="H105" s="42" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="Q105" s="38"/>
     </row>
     <row r="106" spans="2:17" ht="261">
       <c r="B106" s="40" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D106" s="49" t="s">
         <v>463</v>
       </c>
       <c r="E106" s="59" t="s">
+        <v>1501</v>
+      </c>
+      <c r="F106" s="44" t="s">
         <v>1502</v>
       </c>
-      <c r="F106" s="44" t="s">
-        <v>1503</v>
-      </c>
       <c r="I106" s="42" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="Q106" s="38"/>
     </row>
     <row r="107" spans="2:17" ht="34.799999999999997">
       <c r="B107" s="40" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D107" s="49" t="s">
         <v>463</v>
       </c>
       <c r="E107" s="59" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F107" s="44" t="s">
         <v>1504</v>
       </c>
-      <c r="F107" s="44" t="s">
-        <v>1505</v>
-      </c>
       <c r="H107" s="42" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="Q107" s="38"/>
     </row>
     <row r="108" spans="2:17" ht="55.2" customHeight="1">
       <c r="B108" s="40"/>
       <c r="C108" s="40" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="D108" s="57" t="s">
         <v>1274</v>
@@ -18942,35 +18941,35 @@
         <v>1294</v>
       </c>
       <c r="F108" s="43" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="G108" s="43"/>
       <c r="H108" s="41"/>
       <c r="I108" s="42" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="109" spans="2:17">
       <c r="B109" s="40" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D109" s="49" t="s">
         <v>620</v>
       </c>
       <c r="E109" s="58" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="F109" s="44" t="s">
         <v>653</v>
       </c>
       <c r="H109" s="42" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="Q109" s="38"/>
     </row>
-    <row r="110" spans="2:17" ht="57.6">
+    <row r="110" spans="2:17" ht="76.8">
       <c r="B110" s="40" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D110" s="49" t="s">
         <v>620</v>
@@ -18983,47 +18982,47 @@
       </c>
       <c r="G110" s="64"/>
       <c r="H110" s="42" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="J110" s="47" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="Q110" s="38"/>
     </row>
     <row r="111" spans="2:17" ht="34.799999999999997">
       <c r="B111" s="40" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D111" s="49" t="s">
         <v>620</v>
       </c>
       <c r="E111" s="58" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="F111" s="44" t="s">
         <v>658</v>
       </c>
       <c r="H111" s="42" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="Q111" s="38"/>
     </row>
     <row r="112" spans="2:17" ht="34.799999999999997">
       <c r="B112" s="40" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D112" s="49" t="s">
         <v>620</v>
       </c>
       <c r="E112" s="60" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="F112" s="64" t="s">
         <v>641</v>
       </c>
       <c r="G112" s="64"/>
       <c r="H112" s="42" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="Q112" s="38"/>
     </row>
@@ -19077,7 +19076,7 @@
   <sheetData>
     <row r="1" spans="1:16" s="3" customFormat="1" ht="33.450000000000003" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>1297</v>
@@ -19089,19 +19088,19 @@
         <v>1300</v>
       </c>
       <c r="E1" s="27" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F1" s="28" t="s">
         <v>1388</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="G1" s="28" t="s">
         <v>1389</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="H1" s="28" t="s">
         <v>1390</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="I1" s="25" t="s">
         <v>1391</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>1392</v>
       </c>
       <c r="J1" s="12" t="s">
         <v>1305</v>
@@ -19146,7 +19145,7 @@
       <c r="N2" s="20"/>
       <c r="O2" s="20"/>
       <c r="P2" s="17" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="3" customFormat="1" ht="76.05" customHeight="1">
@@ -19154,41 +19153,41 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>1274</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="F3" s="17" t="s">
         <v>1290</v>
       </c>
       <c r="G3" s="11" t="s">
+        <v>1395</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>1317</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>1396</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>1318</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>1397</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>1319</v>
       </c>
       <c r="K3" s="21"/>
       <c r="L3" s="5" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="M3" s="22"/>
       <c r="N3" s="6"/>
       <c r="O3" s="24"/>
       <c r="P3" s="17" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="3" customFormat="1" ht="61.8" customHeight="1">
@@ -19196,16 +19195,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>1274</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>1293</v>
@@ -19214,13 +19213,13 @@
         <v>55</v>
       </c>
       <c r="H4" s="10" t="s">
+        <v>1319</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>1396</v>
+      </c>
+      <c r="J4" s="10" t="s">
         <v>1320</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>1397</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>1321</v>
       </c>
       <c r="K4" s="21"/>
       <c r="L4" s="5"/>
@@ -19234,10 +19233,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>91</v>
@@ -19252,17 +19251,17 @@
         <v>55</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="K5" s="21"/>
       <c r="L5" s="5" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="M5" s="23"/>
       <c r="N5" s="6"/>
@@ -19274,94 +19273,94 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>1181</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="F6" s="17" t="s">
         <v>1186</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="20"/>
       <c r="L6" s="10"/>
       <c r="M6" s="18"/>
       <c r="N6" s="10" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="O6" s="18"/>
       <c r="P6" s="10" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="2" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="2" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="2" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="2" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="2" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="2" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="2" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="2" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
   </sheetData>

--- a/instance/zyjk/SAAS/iSwagger/i_sassuser_swagger_case.xlsx
+++ b/instance/zyjk/SAAS/iSwagger/i_sassuser_swagger_case.xlsx
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3480" uniqueCount="1586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3480" uniqueCount="1594">
   <si>
     <t>tags</t>
   </si>
@@ -3755,9 +3755,6 @@
   </si>
   <si>
     <t>根据机构id，分页查询患者信息-pc、app</t>
-  </si>
-  <si>
-    <t>/saasuser/tPatientInfo/queryPatientPageByOrgId</t>
   </si>
   <si>
     <t>单个患者查询-app</t>
@@ -4138,20 +4135,6 @@
   </si>
   <si>
     <t>{"empiId":"$.data.list[0].empiId","itemId":"$.data.list[0].itemId"}</t>
-  </si>
-  <si>
-    <t>{
- "beginAge": 1,
- "currentPage": 1,
- "docName": "dc",
- "endAge": 0,
- "groupType": "1",
- "name": "",
- "orgId":  {{orgId}},
- "orgIdList": [],
- "pageSize": 10,
- "statusList": []
-}</t>
   </si>
   <si>
     <t>设置请求头</t>
@@ -5941,6 +5924,71 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>orgCode={{orgId}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d:/sfqk6.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"saveToFile":"d:/sfqk6.xlsx"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>application/x-www-form-urlencoded</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随访情况统计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/auth/login</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"coordinate": "1",
+ "isEasyPSW": 10,
+ "newFirstPassword": "",
+ "newSecondPassword": "",
+ "password": "123456",
+ "secretCardCode": "1",
+ "userNo":"{{userNo}}"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "jsCode": "013ZFHkl2Ym7c94Kxtnl2ko52B4ZFHkn",
+ "loginEnum": "ACCOUNT",
+ "password": "123456",
+ "userNo": "16766667777"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询高血压首页数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高血压首页-PC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/saasuser/home/queryHomeData</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"userNo":"16766667777","orgno":"\'wgzx\' + str(Data_PO.getFigures(3))","orgId":"select orgCode from sys_user_detail where userNo='16766667777'"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"orgId":"select orgCode from sys_user_detail where userNo='16766667777'"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>{
  "beginAge": 1,
  "currentPage": 1,
@@ -5956,31 +6004,30 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>orgCode={{orgId}}</t>
+    <t>{
+ "beginAge": 1,
+ "currentPage": 1,
+ "docName": "dc",
+ "endAge": 0,
+ "groupType": "1",
+ "name": "",
+ "orgId":  {{orgId}},
+ "orgIdList": [],
+ "pageSize": 10,
+ "statusList": []
+}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>d:/sfqk6.xlsx</t>
+    <t>高血压患者信息</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{"saveToFile":"d:/sfqk6.xlsx"}</t>
+    <t>根据机构id，分页查询患者信息-pc、app</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>application/x-www-form-urlencoded</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>随访情况统计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"userNo":"16766667777","orgno":"\'wgzx\' + str(Data_PO.getFigures(3))","orgId":"select orgCode from sys_user_detail where userNo='16766667777'"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"orgId":"select orgCode from sys_user_detail where userNo='16766667777'"}</t>
+    <t>/saasuser/tPatientInfo/queryPatientPageByOrgId</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6840,7 +6887,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -11195,8 +11242,8 @@
   <dimension ref="A1:H264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
+      <pane ySplit="1" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C241" sqref="C241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -11216,7 +11263,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="53" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="D1" s="53" t="s">
         <v>3</v>
@@ -12197,7 +12244,7 @@
         <v>11</v>
       </c>
       <c r="E50" s="51" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="F50" s="51" t="s">
         <v>75</v>
@@ -12220,7 +12267,7 @@
         <v>11</v>
       </c>
       <c r="E51" s="51" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="F51" s="51" t="s">
         <v>79</v>
@@ -12300,7 +12347,7 @@
         <v>92</v>
       </c>
       <c r="C55" s="51" t="s">
-        <v>690</v>
+        <v>1586</v>
       </c>
       <c r="D55" s="51" t="s">
         <v>55</v>
@@ -13879,7 +13926,7 @@
         <v>909</v>
       </c>
       <c r="B135" s="55" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="C135" s="51" t="s">
         <v>911</v>
@@ -14455,7 +14502,7 @@
         <v>986</v>
       </c>
       <c r="C165" s="51" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="D165" s="51" t="s">
         <v>11</v>
@@ -15244,7 +15291,7 @@
       </c>
       <c r="F204" s="51"/>
       <c r="G204" s="51" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="26.4">
@@ -15255,7 +15302,7 @@
         <v>1108</v>
       </c>
       <c r="C205" s="51" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="D205" s="51" t="s">
         <v>55</v>
@@ -15265,7 +15312,7 @@
       </c>
       <c r="F205" s="51"/>
       <c r="G205" s="51" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="39.6">
@@ -15975,7 +16022,7 @@
         <v>1214</v>
       </c>
       <c r="C241" s="51" t="s">
-        <v>1215</v>
+        <v>1593</v>
       </c>
       <c r="D241" s="51" t="s">
         <v>55</v>
@@ -15993,10 +16040,10 @@
         <v>1181</v>
       </c>
       <c r="B242" s="51" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C242" s="51" t="s">
         <v>1216</v>
-      </c>
-      <c r="C242" s="51" t="s">
-        <v>1217</v>
       </c>
       <c r="D242" s="51" t="s">
         <v>11</v>
@@ -16005,7 +16052,7 @@
         <v>213</v>
       </c>
       <c r="H242" s="51" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="243" spans="1:8" ht="26.4">
@@ -16013,10 +16060,10 @@
         <v>1181</v>
       </c>
       <c r="B243" s="51" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C243" s="51" t="s">
         <v>1219</v>
-      </c>
-      <c r="C243" s="51" t="s">
-        <v>1220</v>
       </c>
       <c r="D243" s="51" t="s">
         <v>60</v>
@@ -16036,10 +16083,10 @@
         <v>1181</v>
       </c>
       <c r="B244" s="51" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C244" s="51" t="s">
         <v>1221</v>
-      </c>
-      <c r="C244" s="51" t="s">
-        <v>1222</v>
       </c>
       <c r="D244" s="51" t="s">
         <v>55</v>
@@ -16049,7 +16096,7 @@
       </c>
       <c r="F244" s="51"/>
       <c r="G244" s="51" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="245" spans="1:8" ht="39.6">
@@ -16057,10 +16104,10 @@
         <v>1181</v>
       </c>
       <c r="B245" s="51" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C245" s="51" t="s">
         <v>1224</v>
-      </c>
-      <c r="C245" s="51" t="s">
-        <v>1225</v>
       </c>
       <c r="D245" s="51" t="s">
         <v>55</v>
@@ -16078,10 +16125,10 @@
         <v>463</v>
       </c>
       <c r="B246" s="51" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C246" s="51" t="s">
         <v>1226</v>
-      </c>
-      <c r="C246" s="51" t="s">
-        <v>1227</v>
       </c>
       <c r="D246" s="51" t="s">
         <v>55</v>
@@ -16099,10 +16146,10 @@
         <v>1181</v>
       </c>
       <c r="B247" s="51" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C247" s="51" t="s">
         <v>1228</v>
-      </c>
-      <c r="C247" s="51" t="s">
-        <v>1229</v>
       </c>
       <c r="D247" s="51" t="s">
         <v>55</v>
@@ -16120,10 +16167,10 @@
         <v>463</v>
       </c>
       <c r="B248" s="51" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C248" s="51" t="s">
         <v>1230</v>
-      </c>
-      <c r="C248" s="51" t="s">
-        <v>1231</v>
       </c>
       <c r="D248" s="51" t="s">
         <v>55</v>
@@ -16133,18 +16180,18 @@
       </c>
       <c r="F248" s="51"/>
       <c r="G248" s="51" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="249" spans="1:8" ht="26.4">
       <c r="A249" s="51" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B249" s="51" t="s">
         <v>1233</v>
       </c>
-      <c r="B249" s="51" t="s">
+      <c r="C249" s="51" t="s">
         <v>1234</v>
-      </c>
-      <c r="C249" s="51" t="s">
-        <v>1235</v>
       </c>
       <c r="D249" s="51" t="s">
         <v>55</v>
@@ -16154,18 +16201,18 @@
       </c>
       <c r="F249" s="51"/>
       <c r="H249" s="51" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="250" spans="1:8" ht="26.4">
       <c r="A250" s="51" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B250" s="51" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C250" s="51" t="s">
         <v>1237</v>
-      </c>
-      <c r="C250" s="51" t="s">
-        <v>1238</v>
       </c>
       <c r="D250" s="51" t="s">
         <v>155</v>
@@ -16177,18 +16224,18 @@
         <v>20</v>
       </c>
       <c r="H250" s="51" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="251" spans="1:8" ht="26.4">
       <c r="A251" s="51" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B251" s="51" t="s">
         <v>165</v>
       </c>
       <c r="C251" s="51" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="D251" s="51" t="s">
         <v>11</v>
@@ -16197,38 +16244,38 @@
         <v>180</v>
       </c>
       <c r="H251" s="51" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="252" spans="1:8" ht="26.4">
       <c r="A252" s="51" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B252" s="51" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C252" s="51" t="s">
         <v>1242</v>
       </c>
-      <c r="C252" s="51" t="s">
+      <c r="D252" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="F252" s="51" t="s">
         <v>1243</v>
       </c>
-      <c r="D252" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="F252" s="51" t="s">
+      <c r="H252" s="51" t="s">
         <v>1244</v>
-      </c>
-      <c r="H252" s="51" t="s">
-        <v>1245</v>
       </c>
     </row>
     <row r="253" spans="1:8" ht="39.6">
       <c r="A253" s="51" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B253" s="51" t="s">
         <v>340</v>
       </c>
       <c r="C253" s="51" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D253" s="51" t="s">
         <v>11</v>
@@ -16242,13 +16289,13 @@
     </row>
     <row r="254" spans="1:8" ht="26.4">
       <c r="A254" s="51" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B254" s="51" t="s">
         <v>394</v>
       </c>
       <c r="C254" s="51" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D254" s="51" t="s">
         <v>11</v>
@@ -16256,13 +16303,13 @@
     </row>
     <row r="255" spans="1:8" ht="52.8">
       <c r="A255" s="51" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B255" s="51" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C255" s="51" t="s">
         <v>1248</v>
-      </c>
-      <c r="C255" s="51" t="s">
-        <v>1249</v>
       </c>
       <c r="D255" s="51" t="s">
         <v>11</v>
@@ -16273,33 +16320,33 @@
     </row>
     <row r="256" spans="1:8" ht="26.4">
       <c r="A256" s="51" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B256" s="51" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C256" s="51" t="s">
         <v>1250</v>
       </c>
-      <c r="C256" s="51" t="s">
+      <c r="D256" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="F256" s="51" t="s">
+        <v>1243</v>
+      </c>
+      <c r="H256" s="51" t="s">
         <v>1251</v>
-      </c>
-      <c r="D256" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="F256" s="51" t="s">
-        <v>1244</v>
-      </c>
-      <c r="H256" s="51" t="s">
-        <v>1252</v>
       </c>
     </row>
     <row r="257" spans="1:8" ht="39.6">
       <c r="A257" s="51" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B257" s="51" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C257" s="51" t="s">
         <v>1253</v>
-      </c>
-      <c r="C257" s="51" t="s">
-        <v>1254</v>
       </c>
       <c r="D257" s="51" t="s">
         <v>55</v>
@@ -16309,18 +16356,18 @@
       </c>
       <c r="F257" s="51"/>
       <c r="H257" s="51" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="258" spans="1:8" ht="198">
       <c r="A258" s="51" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B258" s="51" t="s">
         <v>1070</v>
       </c>
       <c r="C258" s="51" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D258" s="51" t="s">
         <v>55</v>
@@ -16330,18 +16377,18 @@
       </c>
       <c r="F258" s="51"/>
       <c r="G258" s="51" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="259" spans="1:8" ht="26.4">
       <c r="A259" s="51" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B259" s="51" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C259" s="51" t="s">
         <v>1258</v>
-      </c>
-      <c r="C259" s="51" t="s">
-        <v>1259</v>
       </c>
       <c r="D259" s="51" t="s">
         <v>55</v>
@@ -16352,13 +16399,13 @@
     </row>
     <row r="260" spans="1:8" ht="66">
       <c r="A260" s="51" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B260" s="51" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C260" s="51" t="s">
         <v>1260</v>
-      </c>
-      <c r="C260" s="51" t="s">
-        <v>1261</v>
       </c>
       <c r="D260" s="51" t="s">
         <v>60</v>
@@ -16367,21 +16414,21 @@
         <v>694</v>
       </c>
       <c r="F260" s="51" t="s">
+        <v>1261</v>
+      </c>
+      <c r="H260" s="51" t="s">
         <v>1262</v>
-      </c>
-      <c r="H260" s="51" t="s">
-        <v>1263</v>
       </c>
     </row>
     <row r="261" spans="1:8" ht="39.6">
       <c r="A261" s="51" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B261" s="51" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C261" s="51" t="s">
         <v>1264</v>
-      </c>
-      <c r="C261" s="51" t="s">
-        <v>1265</v>
       </c>
       <c r="D261" s="51" t="s">
         <v>55</v>
@@ -16391,18 +16438,18 @@
       </c>
       <c r="F261" s="51"/>
       <c r="H261" s="51" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="262" spans="1:8" ht="198">
       <c r="A262" s="51" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B262" s="51" t="s">
         <v>1106</v>
       </c>
       <c r="C262" s="51" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="D262" s="51" t="s">
         <v>60</v>
@@ -16412,18 +16459,18 @@
       </c>
       <c r="F262" s="51"/>
       <c r="G262" s="51" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="263" spans="1:8" ht="39.6">
       <c r="A263" s="51" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B263" s="51" t="s">
         <v>1109</v>
       </c>
       <c r="C263" s="51" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="D263" s="51" t="s">
         <v>60</v>
@@ -16432,21 +16479,21 @@
         <v>694</v>
       </c>
       <c r="F263" s="51" t="s">
+        <v>1268</v>
+      </c>
+      <c r="H263" s="51" t="s">
         <v>1269</v>
-      </c>
-      <c r="H263" s="51" t="s">
-        <v>1270</v>
       </c>
     </row>
     <row r="264" spans="1:8" ht="26.4">
       <c r="A264" s="51" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B264" s="51" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C264" s="51" t="s">
         <v>1271</v>
-      </c>
-      <c r="C264" s="51" t="s">
-        <v>1272</v>
       </c>
       <c r="D264" s="51" t="s">
         <v>55</v>
@@ -16456,7 +16503,7 @@
       </c>
       <c r="F264" s="51"/>
       <c r="H264" s="51" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
   </sheetData>
@@ -16471,7 +16518,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -16509,13 +16556,13 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="51" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B2" s="51" t="s">
         <v>1274</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="C2" s="51" t="s">
         <v>1275</v>
-      </c>
-      <c r="C2" s="51" t="s">
-        <v>1276</v>
       </c>
       <c r="D2" s="51" t="s">
         <v>55</v>
@@ -16525,18 +16572,18 @@
       </c>
       <c r="F2" s="51"/>
       <c r="H2" s="51" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="39.6">
       <c r="A3" s="51" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B3" s="51" t="s">
         <v>1278</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="C3" s="51" t="s">
         <v>1279</v>
-      </c>
-      <c r="C3" s="51" t="s">
-        <v>1280</v>
       </c>
       <c r="D3" s="51" t="s">
         <v>55</v>
@@ -16545,59 +16592,59 @@
         <v>56</v>
       </c>
       <c r="F3" s="51" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H3" s="51" t="s">
         <v>1281</v>
-      </c>
-      <c r="H3" s="51" t="s">
-        <v>1282</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="52.8">
       <c r="A4" s="51" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B4" s="51" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C4" s="51" t="s">
         <v>1283</v>
-      </c>
-      <c r="C4" s="51" t="s">
-        <v>1284</v>
       </c>
       <c r="D4" s="51" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="51"/>
       <c r="H4" s="51" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="51" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B5" s="51" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C5" s="51" t="s">
         <v>1285</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="D5" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="51" t="s">
         <v>1286</v>
       </c>
-      <c r="D5" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="51" t="s">
+      <c r="H5" s="51" t="s">
         <v>1287</v>
-      </c>
-      <c r="H5" s="51" t="s">
-        <v>1288</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="52.8">
       <c r="A6" s="51" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>1290</v>
+        <v>1581</v>
       </c>
       <c r="D6" s="51" t="s">
         <v>55</v>
@@ -16607,18 +16654,18 @@
       </c>
       <c r="F6" s="51"/>
       <c r="G6" s="51" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="51" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B7" s="51" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C7" s="51" t="s">
         <v>1292</v>
-      </c>
-      <c r="C7" s="51" t="s">
-        <v>1293</v>
       </c>
       <c r="D7" s="51" t="s">
         <v>55</v>
@@ -16628,18 +16675,18 @@
       </c>
       <c r="F7" s="51"/>
       <c r="H7" s="51" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="26.4">
       <c r="A8" s="51" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B8" s="51" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C8" s="51" t="s">
         <v>1294</v>
-      </c>
-      <c r="C8" s="51" t="s">
-        <v>1295</v>
       </c>
       <c r="D8" s="51" t="s">
         <v>55</v>
@@ -16649,7 +16696,7 @@
       </c>
       <c r="F8" s="51"/>
       <c r="G8" s="51" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
   </sheetData>
@@ -16667,8 +16714,8 @@
   <dimension ref="A1:Q112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N100" sqref="N100"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="19.2"/>
@@ -16677,10 +16724,10 @@
     <col min="2" max="2" width="9.5546875" style="38" customWidth="1"/>
     <col min="3" max="3" width="10.44140625" style="38" customWidth="1"/>
     <col min="4" max="4" width="18.77734375" style="57" customWidth="1"/>
-    <col min="5" max="5" width="20.88671875" style="57" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="57" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" style="44" customWidth="1"/>
     <col min="7" max="7" width="16" style="44" customWidth="1"/>
-    <col min="8" max="8" width="33" style="42" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" style="42" customWidth="1"/>
     <col min="9" max="9" width="27.5546875" style="42" customWidth="1"/>
     <col min="10" max="10" width="20.44140625" style="47" customWidth="1"/>
     <col min="11" max="11" width="2.44140625" style="42" customWidth="1"/>
@@ -16696,55 +16743,55 @@
   <sheetData>
     <row r="1" spans="1:17" ht="33.450000000000003" customHeight="1">
       <c r="A1" s="32" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B1" s="32" t="s">
         <v>1297</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="C1" s="32" t="s">
         <v>1298</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="D1" s="56" t="s">
         <v>1299</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="E1" s="56" t="s">
         <v>1300</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="F1" s="61" t="s">
         <v>1301</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="G1" s="61" t="s">
+        <v>1542</v>
+      </c>
+      <c r="H1" s="33" t="s">
         <v>1302</v>
       </c>
-      <c r="G1" s="61" t="s">
-        <v>1544</v>
-      </c>
-      <c r="H1" s="33" t="s">
+      <c r="I1" s="33" t="s">
         <v>1303</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="J1" s="46" t="s">
         <v>1304</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="K1" s="34" t="s">
         <v>1305</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="L1" s="35" t="s">
         <v>1306</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="M1" s="35" t="s">
         <v>1307</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="N1" s="36" t="s">
         <v>1308</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="O1" s="36" t="s">
         <v>1309</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="P1" s="37" t="s">
         <v>1310</v>
       </c>
-      <c r="P1" s="37" t="s">
+      <c r="Q1" s="37" t="s">
         <v>1311</v>
-      </c>
-      <c r="Q1" s="37" t="s">
-        <v>1312</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="67.8" customHeight="1">
@@ -16754,7 +16801,7 @@
       <c r="D2" s="49"/>
       <c r="E2" s="49"/>
       <c r="F2" s="67" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="G2" s="67"/>
       <c r="H2" s="68"/>
@@ -16766,12 +16813,12 @@
       <c r="N2" s="68"/>
       <c r="O2" s="68"/>
       <c r="P2" s="67" t="s">
-        <v>1584</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="118.2" customHeight="1">
       <c r="A3" s="38" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -16785,7 +16832,7 @@
       <c r="G3" s="67"/>
       <c r="H3" s="68"/>
       <c r="I3" s="70" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="J3" s="69"/>
       <c r="K3" s="68"/>
@@ -16795,24 +16842,24 @@
       <c r="O3" s="68"/>
       <c r="P3" s="67"/>
     </row>
-    <row r="4" spans="1:17" ht="54.6" customHeight="1">
+    <row r="4" spans="1:17" ht="85.8" customHeight="1">
       <c r="B4" s="40"/>
       <c r="C4" s="40" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="G4" s="41"/>
       <c r="H4" s="41"/>
       <c r="I4" s="42" t="s">
-        <v>1317</v>
+        <v>1582</v>
       </c>
       <c r="J4" s="71"/>
       <c r="L4" s="30"/>
@@ -16823,24 +16870,24 @@
     </row>
     <row r="5" spans="1:17" ht="42.45" customHeight="1">
       <c r="A5" s="38" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B5" s="40"/>
       <c r="C5" s="40"/>
       <c r="D5" s="41" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="E5" s="41" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="F5" s="62"/>
       <c r="G5" s="62"/>
       <c r="H5" s="41"/>
       <c r="I5" s="42" t="s">
+        <v>1318</v>
+      </c>
+      <c r="J5" s="47" t="s">
         <v>1319</v>
-      </c>
-      <c r="J5" s="47" t="s">
-        <v>1320</v>
       </c>
       <c r="L5" s="30"/>
       <c r="M5" s="30"/>
@@ -16851,19 +16898,19 @@
       <c r="B6" s="40"/>
       <c r="C6" s="40"/>
       <c r="D6" s="41" t="s">
-        <v>689</v>
+        <v>1585</v>
       </c>
       <c r="E6" s="41" t="s">
-        <v>92</v>
+        <v>1584</v>
       </c>
       <c r="F6" s="41"/>
       <c r="G6" s="41"/>
       <c r="H6" s="41"/>
       <c r="I6" s="41" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="L6" s="30" t="s">
-        <v>1585</v>
+        <v>1588</v>
       </c>
       <c r="M6" s="30"/>
       <c r="N6" s="31"/>
@@ -16872,7 +16919,7 @@
     </row>
     <row r="7" spans="1:17" ht="40.799999999999997" customHeight="1">
       <c r="B7" s="40" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="C7" s="40"/>
       <c r="D7" s="41" t="s">
@@ -16882,15 +16929,15 @@
         <v>92</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="G7" s="41"/>
       <c r="H7" s="41"/>
       <c r="I7" s="41" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="J7" s="47" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="L7" s="30"/>
       <c r="M7" s="30"/>
@@ -16900,7 +16947,7 @@
     </row>
     <row r="8" spans="1:17" ht="40.799999999999997" customHeight="1">
       <c r="A8" s="38" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B8" s="40"/>
       <c r="C8" s="40"/>
@@ -16908,22 +16955,22 @@
         <v>1181</v>
       </c>
       <c r="E8" s="41" t="s">
+        <v>1325</v>
+      </c>
+      <c r="F8" s="41" t="s">
         <v>1326</v>
-      </c>
-      <c r="F8" s="41" t="s">
-        <v>1327</v>
       </c>
       <c r="G8" s="41"/>
       <c r="H8" s="41"/>
       <c r="I8" s="41" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="N8" s="42" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="O8" s="42"/>
       <c r="P8" s="42" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="33" customHeight="1">
@@ -16933,24 +16980,24 @@
         <v>1181</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="G9" s="42"/>
       <c r="H9" s="41"/>
       <c r="I9" s="42" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="L9" s="38"/>
       <c r="M9" s="38"/>
       <c r="N9" s="42" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="O9" s="42"/>
       <c r="P9" s="42" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="75" customHeight="1">
@@ -16960,24 +17007,24 @@
         <v>1181</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="F10" s="42" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="G10" s="42"/>
       <c r="H10" s="41"/>
       <c r="I10" s="42" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="L10" s="38"/>
       <c r="M10" s="38"/>
       <c r="N10" s="42" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="O10" s="42"/>
       <c r="P10" s="42" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="32.549999999999997" customHeight="1">
@@ -16990,12 +17037,12 @@
         <v>676</v>
       </c>
       <c r="F11" s="42" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="G11" s="42"/>
       <c r="H11" s="41"/>
       <c r="I11" s="42" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="L11" s="30"/>
       <c r="M11" s="30"/>
@@ -17010,12 +17057,12 @@
         <v>676</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="G12" s="42"/>
       <c r="H12" s="41"/>
       <c r="I12" s="42" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="L12" s="30"/>
       <c r="M12" s="30"/>
@@ -17030,21 +17077,21 @@
         <v>679</v>
       </c>
       <c r="F13" s="42" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="G13" s="42"/>
       <c r="H13" s="41"/>
       <c r="I13" s="42" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="L13" s="38"/>
       <c r="M13" s="38"/>
       <c r="N13" s="42" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="O13" s="42"/>
       <c r="P13" s="42" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="30" customHeight="1">
@@ -17057,21 +17104,21 @@
         <v>679</v>
       </c>
       <c r="F14" s="42" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="G14" s="42"/>
       <c r="H14" s="41"/>
       <c r="I14" s="42" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="L14" s="38"/>
       <c r="M14" s="38"/>
       <c r="N14" s="42" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="O14" s="42"/>
       <c r="P14" s="42" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="85.8" customHeight="1">
@@ -17081,23 +17128,23 @@
         <v>675</v>
       </c>
       <c r="E15" s="41" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="F15" s="42" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="G15" s="42"/>
       <c r="H15" s="41" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="L15" s="38"/>
       <c r="M15" s="38"/>
       <c r="N15" s="42" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="O15" s="42"/>
       <c r="P15" s="42" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="50.55" customHeight="1">
@@ -17107,43 +17154,43 @@
         <v>675</v>
       </c>
       <c r="E16" s="41" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="F16" s="42"/>
       <c r="G16" s="42"/>
       <c r="H16" s="42" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="L16" s="38"/>
       <c r="M16" s="38"/>
       <c r="N16" s="42" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="O16" s="42"/>
       <c r="P16" s="42" t="s">
-        <v>1581</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" s="40" customFormat="1" ht="61.8" customHeight="1">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" s="40" customFormat="1" ht="119.4" customHeight="1">
       <c r="A17" s="38"/>
       <c r="D17" s="41" t="s">
-        <v>1181</v>
+        <v>1591</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>1214</v>
+        <v>1592</v>
       </c>
       <c r="F17" s="41" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="G17" s="41"/>
       <c r="H17" s="41"/>
       <c r="I17" s="41" t="s">
-        <v>1578</v>
+        <v>1589</v>
       </c>
       <c r="J17" s="47"/>
       <c r="K17" s="42"/>
       <c r="P17" s="41" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="Q17" s="41"/>
     </row>
@@ -17156,12 +17203,12 @@
         <v>1214</v>
       </c>
       <c r="F18" s="41" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="G18" s="41"/>
       <c r="H18" s="41"/>
       <c r="I18" s="41" t="s">
-        <v>1335</v>
+        <v>1590</v>
       </c>
       <c r="J18" s="47"/>
       <c r="K18" s="42"/>
@@ -17174,7 +17221,7 @@
       <c r="D19" s="72"/>
       <c r="E19" s="72"/>
       <c r="F19" s="67" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="G19" s="67"/>
       <c r="H19" s="67"/>
@@ -17186,7 +17233,7 @@
       <c r="N19" s="68"/>
       <c r="O19" s="68"/>
       <c r="P19" s="41" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="Q19" s="41"/>
     </row>
@@ -17196,12 +17243,12 @@
       <c r="D20" s="72"/>
       <c r="E20" s="72"/>
       <c r="F20" s="67" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="G20" s="67"/>
       <c r="H20" s="67"/>
       <c r="I20" s="67" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="J20" s="69"/>
       <c r="K20" s="68"/>
@@ -17213,21 +17260,21 @@
     <row r="21" spans="1:17" ht="60.45" customHeight="1">
       <c r="B21" s="40"/>
       <c r="C21" s="40" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D21" s="72" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E21" s="72" t="s">
+        <v>1293</v>
+      </c>
+      <c r="F21" s="73" t="s">
         <v>1315</v>
-      </c>
-      <c r="D21" s="72" t="s">
-        <v>1274</v>
-      </c>
-      <c r="E21" s="72" t="s">
-        <v>1294</v>
-      </c>
-      <c r="F21" s="73" t="s">
-        <v>1316</v>
       </c>
       <c r="G21" s="73"/>
       <c r="H21" s="67"/>
       <c r="I21" s="68" t="s">
-        <v>1550</v>
+        <v>1583</v>
       </c>
       <c r="J21" s="69"/>
       <c r="K21" s="68"/>
@@ -17238,33 +17285,33 @@
     </row>
     <row r="22" spans="1:17" ht="78.45" customHeight="1">
       <c r="A22" s="38" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B22" s="40"/>
       <c r="C22" s="40" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="D22" s="57" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="E22" s="57" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="F22" s="43" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="G22" s="43"/>
       <c r="H22" s="41"/>
       <c r="I22" s="42" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="P22" s="42" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="46.2" customHeight="1">
       <c r="A23" s="38" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B23" s="40"/>
       <c r="C23" s="40"/>
@@ -17272,15 +17319,15 @@
         <v>1181</v>
       </c>
       <c r="E23" s="57" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="F23" s="43" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="G23" s="43"/>
       <c r="H23" s="41"/>
       <c r="I23" s="42" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="60.45" customHeight="1">
@@ -17290,21 +17337,21 @@
         <v>1181</v>
       </c>
       <c r="E24" s="57" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="F24" s="43" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="G24" s="43"/>
       <c r="H24" s="41"/>
       <c r="I24" s="42" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="P24" s="41"/>
     </row>
     <row r="25" spans="1:17" ht="58.8" customHeight="1">
       <c r="A25" s="38" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B25" s="40"/>
       <c r="C25" s="40"/>
@@ -17312,15 +17359,15 @@
         <v>1181</v>
       </c>
       <c r="E25" s="57" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="F25" s="43" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G25" s="43"/>
       <c r="H25" s="41"/>
       <c r="I25" s="42" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="109.2" customHeight="1">
@@ -17333,15 +17380,15 @@
         <v>1212</v>
       </c>
       <c r="F26" s="43" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="G26" s="43"/>
       <c r="H26" s="41"/>
       <c r="I26" s="42" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="P26" s="42" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="52.2" customHeight="1">
@@ -17351,19 +17398,19 @@
         <v>1181</v>
       </c>
       <c r="E27" s="57" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="F27" s="43" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="G27" s="43"/>
       <c r="H27" s="41" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="169.8" customHeight="1">
       <c r="A28" s="38" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B28" s="40"/>
       <c r="C28" s="40"/>
@@ -17371,17 +17418,17 @@
         <v>1181</v>
       </c>
       <c r="F28" s="43" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="G28" s="43"/>
       <c r="H28" s="41"/>
       <c r="I28" s="42" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="52.2" customHeight="1">
       <c r="A29" s="38" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B29" s="40"/>
       <c r="C29" s="40"/>
@@ -17389,14 +17436,14 @@
         <v>1181</v>
       </c>
       <c r="F29" s="43" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="G29" s="43"/>
       <c r="H29" s="41" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="P29" s="42" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="52.2" customHeight="1">
@@ -17409,11 +17456,11 @@
         <v>1187</v>
       </c>
       <c r="F30" s="43" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="G30" s="43"/>
       <c r="H30" s="41" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="99.45" customHeight="1">
@@ -17423,15 +17470,15 @@
         <v>1181</v>
       </c>
       <c r="E31" s="57" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="F31" s="43" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="G31" s="43"/>
       <c r="H31" s="41"/>
       <c r="I31" s="42" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="99.6" customHeight="1">
@@ -17444,12 +17491,12 @@
         <v>1182</v>
       </c>
       <c r="F32" s="45" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="G32" s="45"/>
       <c r="H32" s="45"/>
       <c r="I32" s="45" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="J32" s="48"/>
       <c r="K32" s="45"/>
@@ -17464,7 +17511,7 @@
         <v>1197</v>
       </c>
       <c r="F33" s="43" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="G33" s="43"/>
       <c r="H33" s="41"/>
@@ -17479,7 +17526,7 @@
         <v>1210</v>
       </c>
       <c r="F34" s="43" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="G34" s="43"/>
       <c r="H34" s="41"/>
@@ -17494,11 +17541,11 @@
         <v>61</v>
       </c>
       <c r="F35" s="43" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="G35" s="43"/>
       <c r="H35" s="41" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="36" spans="2:16" ht="87" customHeight="1">
@@ -17511,11 +17558,11 @@
         <v>26</v>
       </c>
       <c r="F36" s="43" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="G36" s="43"/>
       <c r="H36" s="41" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="37" spans="2:16" ht="52.2" customHeight="1">
@@ -17528,7 +17575,7 @@
         <v>30</v>
       </c>
       <c r="F37" s="43" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="G37" s="43"/>
       <c r="H37" s="41"/>
@@ -17543,11 +17590,11 @@
         <v>38</v>
       </c>
       <c r="F38" s="43" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="G38" s="43"/>
       <c r="H38" s="41" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="39" spans="2:16" ht="69.599999999999994" customHeight="1">
@@ -17560,11 +17607,11 @@
         <v>38</v>
       </c>
       <c r="F39" s="43" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="G39" s="43"/>
       <c r="H39" s="41" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="40" spans="2:16" ht="52.2" customHeight="1">
@@ -17577,11 +17624,11 @@
         <v>42</v>
       </c>
       <c r="F40" s="43" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="G40" s="43"/>
       <c r="H40" s="41" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="41" spans="2:16" ht="52.2" customHeight="1">
@@ -17594,11 +17641,11 @@
         <v>46</v>
       </c>
       <c r="F41" s="43" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="G41" s="43"/>
       <c r="H41" s="41" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="42" spans="2:16" ht="128.55000000000001" customHeight="1">
@@ -17611,15 +17658,15 @@
         <v>714</v>
       </c>
       <c r="F42" s="43" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="G42" s="43"/>
       <c r="H42" s="41"/>
       <c r="I42" s="42" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="P42" s="42" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="43" spans="2:16" ht="52.2" customHeight="1">
@@ -17632,14 +17679,14 @@
         <v>744</v>
       </c>
       <c r="F43" s="43" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="G43" s="43"/>
       <c r="H43" s="41" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="J43" s="47" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="44" spans="2:16" ht="52.2" customHeight="1">
@@ -17652,11 +17699,11 @@
         <v>742</v>
       </c>
       <c r="F44" s="43" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="G44" s="43"/>
       <c r="H44" s="42" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="45" spans="2:16" ht="104.4" customHeight="1">
@@ -17669,12 +17716,12 @@
         <v>735</v>
       </c>
       <c r="F45" s="43" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="G45" s="43"/>
       <c r="H45" s="41"/>
       <c r="I45" s="42" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="46" spans="2:16" ht="52.2" customHeight="1">
@@ -17687,11 +17734,11 @@
         <v>733</v>
       </c>
       <c r="F46" s="43" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="G46" s="43"/>
       <c r="H46" s="42" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="47" spans="2:16" ht="52.2" customHeight="1">
@@ -17704,14 +17751,14 @@
         <v>744</v>
       </c>
       <c r="F47" s="43" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="G47" s="43"/>
       <c r="H47" s="41" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="J47" s="47" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="48" spans="2:16" ht="52.2" customHeight="1">
@@ -17724,14 +17771,14 @@
         <v>730</v>
       </c>
       <c r="F48" s="43" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="G48" s="43"/>
       <c r="H48" s="41" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="J48" s="47" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="49" spans="2:17" ht="52.2" customHeight="1">
@@ -17744,14 +17791,14 @@
         <v>746</v>
       </c>
       <c r="F49" s="43" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="G49" s="43"/>
       <c r="H49" s="41" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="J49" s="47" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="50" spans="2:17" ht="52.2" customHeight="1">
@@ -17764,16 +17811,16 @@
         <v>717</v>
       </c>
       <c r="F50" s="43" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="G50" s="43"/>
       <c r="H50" s="41" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="51" spans="2:17" ht="139.19999999999999">
       <c r="B51" s="40" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D51" s="49" t="s">
         <v>713</v>
@@ -17782,18 +17829,18 @@
         <v>714</v>
       </c>
       <c r="F51" s="43" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="G51" s="43"/>
       <c r="I51" s="42" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="J51" s="42"/>
       <c r="Q51" s="38"/>
     </row>
     <row r="52" spans="2:17" ht="34.799999999999997">
       <c r="B52" s="40" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D52" s="49" t="s">
         <v>713</v>
@@ -17802,23 +17849,23 @@
         <v>724</v>
       </c>
       <c r="F52" s="43" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="G52" s="43"/>
       <c r="H52" s="41" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="J52" s="47" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="P52" s="42" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="Q52" s="38"/>
     </row>
     <row r="53" spans="2:17" ht="26.4">
       <c r="B53" s="40" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D53" s="49" t="s">
         <v>713</v>
@@ -17827,18 +17874,18 @@
         <v>717</v>
       </c>
       <c r="F53" s="43" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="G53" s="43"/>
       <c r="H53" s="42" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="J53" s="42"/>
       <c r="Q53" s="38"/>
     </row>
     <row r="54" spans="2:17" ht="243.6">
       <c r="B54" s="40" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D54" s="49" t="s">
         <v>713</v>
@@ -17851,14 +17898,14 @@
       </c>
       <c r="G54" s="43"/>
       <c r="I54" s="42" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="J54" s="42"/>
       <c r="Q54" s="38"/>
     </row>
     <row r="55" spans="2:17">
       <c r="B55" s="40" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D55" s="49" t="s">
         <v>713</v>
@@ -17867,17 +17914,17 @@
         <v>720</v>
       </c>
       <c r="F55" s="43" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="G55" s="43"/>
       <c r="J55" s="47" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="Q55" s="38"/>
     </row>
     <row r="56" spans="2:17">
       <c r="B56" s="40" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D56" s="49" t="s">
         <v>713</v>
@@ -17886,17 +17933,17 @@
         <v>722</v>
       </c>
       <c r="F56" s="43" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="G56" s="43"/>
       <c r="J56" s="47" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="Q56" s="38"/>
     </row>
     <row r="57" spans="2:17" ht="52.2">
       <c r="B57" s="40" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D57" s="49" t="s">
         <v>812</v>
@@ -17905,20 +17952,20 @@
         <v>98</v>
       </c>
       <c r="F57" s="43" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="G57" s="43"/>
       <c r="H57" s="42" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="J57" s="47" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="Q57" s="38"/>
     </row>
     <row r="58" spans="2:17" ht="34.799999999999997">
       <c r="B58" s="40" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D58" s="49" t="s">
         <v>812</v>
@@ -17927,20 +17974,20 @@
         <v>102</v>
       </c>
       <c r="F58" s="43" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="G58" s="43"/>
       <c r="H58" s="41" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="J58" s="47" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="Q58" s="38"/>
     </row>
     <row r="59" spans="2:17" ht="52.2">
       <c r="B59" s="40" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D59" s="49" t="s">
         <v>812</v>
@@ -17949,60 +17996,60 @@
         <v>106</v>
       </c>
       <c r="F59" s="43" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="G59" s="43"/>
       <c r="H59" s="42" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="J59" s="47" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="Q59" s="38"/>
     </row>
     <row r="60" spans="2:17">
       <c r="B60" s="40" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D60" s="49" t="s">
         <v>463</v>
       </c>
       <c r="E60" s="59" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="F60" s="44" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="Q60" s="38"/>
     </row>
     <row r="61" spans="2:17" ht="69.599999999999994">
       <c r="B61" s="40" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="C61" s="42" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="D61" s="60" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="E61" s="49" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="F61" s="43" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="G61" s="43"/>
       <c r="I61" s="42" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="J61" s="47" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="Q61" s="38"/>
     </row>
     <row r="62" spans="2:17" ht="52.2">
       <c r="B62" s="40" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D62" s="49" t="s">
         <v>817</v>
@@ -18015,16 +18062,16 @@
       </c>
       <c r="G62" s="43"/>
       <c r="I62" s="42" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="J62" s="47" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="Q62" s="38"/>
     </row>
     <row r="63" spans="2:17" ht="34.799999999999997">
       <c r="B63" s="40" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D63" s="49" t="s">
         <v>817</v>
@@ -18037,82 +18084,82 @@
       </c>
       <c r="G63" s="43"/>
       <c r="J63" s="47" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="P63" s="42" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="Q63" s="38"/>
     </row>
     <row r="64" spans="2:17" ht="69.599999999999994">
       <c r="B64" s="40" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D64" s="49" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="E64" s="49" t="s">
         <v>838</v>
       </c>
       <c r="F64" s="43" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="G64" s="43"/>
       <c r="I64" s="42" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="J64" s="47" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="Q64" s="38"/>
     </row>
     <row r="65" spans="1:17" ht="34.799999999999997">
       <c r="B65" s="40" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D65" s="49" t="s">
         <v>817</v>
       </c>
       <c r="E65" s="60" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="F65" s="43" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="G65" s="43"/>
       <c r="I65" s="42" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="J65" s="47" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="Q65" s="38"/>
     </row>
     <row r="66" spans="1:17" ht="34.799999999999997">
       <c r="B66" s="40" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D66" s="49" t="s">
         <v>817</v>
       </c>
       <c r="E66" s="58" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="F66" s="43" t="s">
         <v>827</v>
       </c>
       <c r="G66" s="43"/>
       <c r="H66" s="42" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="J66" s="47" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="Q66" s="38"/>
     </row>
     <row r="67" spans="1:17" ht="26.4">
       <c r="B67" s="40" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D67" s="49" t="s">
         <v>817</v>
@@ -18121,17 +18168,17 @@
         <v>825</v>
       </c>
       <c r="F67" s="43" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="G67" s="43"/>
       <c r="J67" s="47" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="Q67" s="38"/>
     </row>
     <row r="68" spans="1:17" ht="26.4">
       <c r="B68" s="40" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D68" s="49" t="s">
         <v>817</v>
@@ -18140,20 +18187,20 @@
         <v>821</v>
       </c>
       <c r="F68" s="43" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="G68" s="43"/>
       <c r="H68" s="42" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="J68" s="47" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="Q68" s="38"/>
     </row>
     <row r="69" spans="1:17" ht="26.4">
       <c r="B69" s="40" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D69" s="49" t="s">
         <v>817</v>
@@ -18162,20 +18209,20 @@
         <v>818</v>
       </c>
       <c r="F69" s="43" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="G69" s="43"/>
       <c r="H69" s="43" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="J69" s="47" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="Q69" s="38"/>
     </row>
     <row r="70" spans="1:17" ht="39.6">
       <c r="B70" s="40" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D70" s="49" t="s">
         <v>749</v>
@@ -18184,20 +18231,20 @@
         <v>760</v>
       </c>
       <c r="F70" s="43" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="G70" s="43"/>
       <c r="H70" s="42" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="J70" s="47" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="Q70" s="38"/>
     </row>
     <row r="71" spans="1:17" ht="30">
       <c r="B71" s="40" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D71" s="49" t="s">
         <v>749</v>
@@ -18206,17 +18253,17 @@
         <v>758</v>
       </c>
       <c r="F71" s="63" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="G71" s="63"/>
       <c r="J71" s="47" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="Q71" s="38"/>
     </row>
     <row r="72" spans="1:17" ht="30">
       <c r="B72" s="40" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D72" s="49" t="s">
         <v>749</v>
@@ -18225,20 +18272,20 @@
         <v>754</v>
       </c>
       <c r="F72" s="63" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="G72" s="63"/>
       <c r="H72" s="42" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="J72" s="47" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="Q72" s="38"/>
     </row>
     <row r="73" spans="1:17" ht="26.4">
       <c r="B73" s="40" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D73" s="49" t="s">
         <v>749</v>
@@ -18251,16 +18298,16 @@
       </c>
       <c r="G73" s="64"/>
       <c r="H73" s="42" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="J73" s="47" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="Q73" s="38"/>
     </row>
     <row r="74" spans="1:17" ht="261">
       <c r="B74" s="40" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D74" s="49" t="s">
         <v>859</v>
@@ -18269,20 +18316,20 @@
         <v>869</v>
       </c>
       <c r="F74" s="63" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="G74" s="63"/>
       <c r="I74" s="42" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="J74" s="47" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="Q74" s="38"/>
     </row>
     <row r="75" spans="1:17" ht="52.2">
       <c r="B75" s="40" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D75" s="49" t="s">
         <v>859</v>
@@ -18295,16 +18342,16 @@
       </c>
       <c r="G75" s="64"/>
       <c r="H75" s="42" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="J75" s="47" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="Q75" s="38"/>
     </row>
     <row r="76" spans="1:17" ht="26.4">
       <c r="B76" s="40" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D76" s="49" t="s">
         <v>859</v>
@@ -18313,42 +18360,42 @@
         <v>860</v>
       </c>
       <c r="F76" s="63" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="G76" s="63"/>
       <c r="H76" s="42" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="J76" s="47" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="Q76" s="38"/>
     </row>
     <row r="77" spans="1:17" ht="25.2">
       <c r="A77" s="38" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B77" s="40" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D77" s="49" t="s">
+        <v>1521</v>
+      </c>
+      <c r="E77" s="60" t="s">
         <v>1523</v>
-      </c>
-      <c r="E77" s="60" t="s">
-        <v>1525</v>
       </c>
       <c r="F77" s="65" t="s">
         <v>910</v>
       </c>
       <c r="G77" s="65"/>
       <c r="J77" s="47" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="Q77" s="38"/>
     </row>
     <row r="78" spans="1:17" ht="34.799999999999997">
       <c r="B78" s="40" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D78" s="49" t="s">
         <v>1069</v>
@@ -18361,40 +18408,40 @@
       </c>
       <c r="G78" s="64"/>
       <c r="H78" s="42" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="J78" s="47" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="P78" s="42" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="Q78" s="38"/>
     </row>
     <row r="79" spans="1:17" ht="30">
       <c r="B79" s="40" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D79" s="49" t="s">
         <v>846</v>
       </c>
       <c r="E79" s="59" t="s">
+        <v>1446</v>
+      </c>
+      <c r="F79" s="44" t="s">
+        <v>1447</v>
+      </c>
+      <c r="H79" s="42" t="s">
         <v>1448</v>
       </c>
-      <c r="F79" s="44" t="s">
-        <v>1449</v>
-      </c>
-      <c r="H79" s="42" t="s">
-        <v>1450</v>
-      </c>
       <c r="J79" s="47" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="Q79" s="38"/>
     </row>
     <row r="80" spans="1:17" ht="26.4">
       <c r="B80" s="40" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D80" s="49" t="s">
         <v>846</v>
@@ -18407,108 +18454,108 @@
       </c>
       <c r="G80" s="64"/>
       <c r="H80" s="42" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="J80" s="47" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="Q80" s="38"/>
     </row>
     <row r="81" spans="2:17" ht="39.6" customHeight="1">
       <c r="B81" s="40" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D81" s="49" t="s">
         <v>1069</v>
       </c>
       <c r="E81" s="58" t="s">
+        <v>1449</v>
+      </c>
+      <c r="F81" s="44" t="s">
+        <v>1450</v>
+      </c>
+      <c r="H81" s="42" t="s">
         <v>1451</v>
-      </c>
-      <c r="F81" s="44" t="s">
-        <v>1452</v>
-      </c>
-      <c r="H81" s="42" t="s">
-        <v>1453</v>
       </c>
       <c r="J81" s="42"/>
       <c r="Q81" s="38"/>
     </row>
     <row r="82" spans="2:17" ht="39.6" customHeight="1">
       <c r="B82" s="40" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D82" s="49" t="s">
         <v>1069</v>
       </c>
       <c r="E82" s="58" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="F82" s="44" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="J82" s="42"/>
       <c r="Q82" s="38"/>
     </row>
     <row r="83" spans="2:17" ht="39.6" customHeight="1">
       <c r="B83" s="40" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D83" s="49" t="s">
         <v>1069</v>
       </c>
       <c r="E83" s="59" t="s">
+        <v>1454</v>
+      </c>
+      <c r="F83" s="44" t="s">
+        <v>1455</v>
+      </c>
+      <c r="H83" s="42" t="s">
         <v>1456</v>
-      </c>
-      <c r="F83" s="44" t="s">
-        <v>1457</v>
-      </c>
-      <c r="H83" s="42" t="s">
-        <v>1458</v>
       </c>
       <c r="J83" s="42"/>
       <c r="Q83" s="38"/>
     </row>
     <row r="84" spans="2:17" ht="409.6">
       <c r="B84" s="40" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D84" s="49" t="s">
         <v>1069</v>
       </c>
       <c r="E84" s="58" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="F84" s="44" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="I84" s="42" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="J84" s="42"/>
       <c r="Q84" s="38"/>
     </row>
     <row r="85" spans="2:17" ht="156.6">
       <c r="B85" s="40" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D85" s="49" t="s">
         <v>1069</v>
       </c>
       <c r="E85" s="58" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="F85" s="44" t="s">
         <v>1106</v>
       </c>
       <c r="I85" s="42" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="J85" s="42"/>
       <c r="Q85" s="38"/>
     </row>
     <row r="86" spans="2:17" ht="26.4">
       <c r="B86" s="40" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D86" s="49" t="s">
         <v>1069</v>
@@ -18521,14 +18568,14 @@
       </c>
       <c r="G86" s="64"/>
       <c r="H86" s="42" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="J86" s="42"/>
       <c r="Q86" s="38"/>
     </row>
     <row r="87" spans="2:17" ht="26.4">
       <c r="B87" s="40" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D87" s="49" t="s">
         <v>1069</v>
@@ -18541,34 +18588,34 @@
       </c>
       <c r="G87" s="64"/>
       <c r="H87" s="42" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="J87" s="42"/>
       <c r="Q87" s="38"/>
     </row>
     <row r="88" spans="2:17" ht="34.799999999999997">
       <c r="B88" s="40" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D88" s="49" t="s">
         <v>1069</v>
       </c>
       <c r="E88" s="60" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="F88" s="64" t="s">
         <v>1095</v>
       </c>
       <c r="G88" s="64"/>
       <c r="I88" s="42" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="J88" s="42"/>
       <c r="Q88" s="38"/>
     </row>
     <row r="89" spans="2:17" ht="26.4">
       <c r="B89" s="40" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D89" s="49" t="s">
         <v>1069</v>
@@ -18581,23 +18628,23 @@
       </c>
       <c r="G89" s="64"/>
       <c r="H89" s="42" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="J89" s="42"/>
       <c r="Q89" s="38"/>
     </row>
     <row r="90" spans="2:17" ht="25.35" customHeight="1">
       <c r="B90" s="40" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D90" s="49" t="s">
         <v>1069</v>
       </c>
       <c r="E90" s="59" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="F90" s="66" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="G90" s="66"/>
       <c r="J90" s="42"/>
@@ -18605,13 +18652,13 @@
     </row>
     <row r="91" spans="2:17" ht="34.799999999999997">
       <c r="B91" s="40" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D91" s="49" t="s">
         <v>1069</v>
       </c>
       <c r="E91" s="58" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="F91" s="44" t="s">
         <v>1081</v>
@@ -18621,355 +18668,355 @@
     </row>
     <row r="92" spans="2:17" ht="34.799999999999997">
       <c r="B92" s="40" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D92" s="49" t="s">
         <v>1069</v>
       </c>
       <c r="E92" s="58" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="F92" s="44" t="s">
         <v>1074</v>
       </c>
       <c r="H92" s="42" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="J92" s="42"/>
       <c r="Q92" s="38"/>
     </row>
     <row r="93" spans="2:17" ht="139.19999999999999">
       <c r="B93" s="40" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D93" s="49" t="s">
         <v>1069</v>
       </c>
       <c r="E93" s="59" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="F93" s="44" t="s">
         <v>236</v>
       </c>
       <c r="I93" s="42" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="J93" s="42"/>
       <c r="Q93" s="38"/>
     </row>
     <row r="94" spans="2:17" ht="69.599999999999994">
       <c r="B94" s="40" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D94" s="49" t="s">
         <v>1164</v>
       </c>
       <c r="E94" s="59" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="F94" s="44" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="I94" s="42" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="J94" s="42"/>
       <c r="Q94" s="38"/>
     </row>
     <row r="95" spans="2:17" ht="17.399999999999999">
       <c r="B95" s="40" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D95" s="49" t="s">
         <v>1164</v>
       </c>
       <c r="E95" s="59" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="F95" s="44" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="J95" s="42"/>
       <c r="P95" s="42" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="Q95" s="38"/>
     </row>
     <row r="96" spans="2:17" ht="17.399999999999999">
       <c r="B96" s="40" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D96" s="49" t="s">
         <v>1164</v>
       </c>
       <c r="E96" s="59" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="F96" s="44" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="H96" s="42" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="J96" s="42"/>
       <c r="Q96" s="38"/>
     </row>
     <row r="97" spans="2:17" ht="34.799999999999997">
       <c r="B97" s="40" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D97" s="49" t="s">
         <v>1164</v>
       </c>
       <c r="E97" s="59" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="F97" s="44" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="H97" s="42" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="J97" s="42"/>
       <c r="Q97" s="38"/>
     </row>
     <row r="98" spans="2:17" ht="17.399999999999999">
       <c r="B98" s="40" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D98" s="49" t="s">
         <v>1164</v>
       </c>
       <c r="E98" s="59" t="s">
+        <v>1477</v>
+      </c>
+      <c r="F98" s="44" t="s">
+        <v>1478</v>
+      </c>
+      <c r="H98" s="42" t="s">
         <v>1479</v>
-      </c>
-      <c r="F98" s="44" t="s">
-        <v>1480</v>
-      </c>
-      <c r="H98" s="42" t="s">
-        <v>1481</v>
       </c>
       <c r="J98" s="42"/>
       <c r="Q98" s="38"/>
     </row>
     <row r="99" spans="2:17" ht="69.599999999999994">
       <c r="B99" s="40" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D99" s="49" t="s">
         <v>327</v>
       </c>
       <c r="E99" s="59" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="F99" s="44" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="G99" s="44" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="J99" s="42"/>
       <c r="Q99" s="38"/>
     </row>
     <row r="100" spans="2:17" ht="313.2">
       <c r="B100" s="40" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D100" s="49" t="s">
         <v>463</v>
       </c>
       <c r="E100" s="59" t="s">
+        <v>1481</v>
+      </c>
+      <c r="F100" s="44" t="s">
+        <v>1482</v>
+      </c>
+      <c r="I100" s="42" t="s">
         <v>1483</v>
-      </c>
-      <c r="F100" s="44" t="s">
-        <v>1484</v>
-      </c>
-      <c r="I100" s="42" t="s">
-        <v>1485</v>
       </c>
       <c r="J100" s="42"/>
       <c r="Q100" s="38"/>
     </row>
     <row r="101" spans="2:17" ht="104.4">
       <c r="B101" s="40" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D101" s="49" t="s">
         <v>463</v>
       </c>
       <c r="E101" s="59" t="s">
+        <v>1484</v>
+      </c>
+      <c r="F101" s="44" t="s">
+        <v>1485</v>
+      </c>
+      <c r="I101" s="42" t="s">
         <v>1486</v>
-      </c>
-      <c r="F101" s="44" t="s">
-        <v>1487</v>
-      </c>
-      <c r="I101" s="42" t="s">
-        <v>1488</v>
       </c>
       <c r="J101" s="42"/>
       <c r="Q101" s="38"/>
     </row>
     <row r="102" spans="2:17" ht="226.2">
       <c r="B102" s="40" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D102" s="49" t="s">
         <v>463</v>
       </c>
       <c r="E102" s="59" t="s">
+        <v>1487</v>
+      </c>
+      <c r="F102" s="44" t="s">
+        <v>1488</v>
+      </c>
+      <c r="I102" s="42" t="s">
         <v>1489</v>
       </c>
-      <c r="F102" s="44" t="s">
-        <v>1490</v>
-      </c>
-      <c r="I102" s="42" t="s">
-        <v>1491</v>
-      </c>
       <c r="J102" s="42" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="P102" s="42" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="Q102" s="38"/>
     </row>
     <row r="103" spans="2:17" ht="34.799999999999997">
       <c r="B103" s="40" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D103" s="49" t="s">
         <v>463</v>
       </c>
       <c r="E103" s="59" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="F103" s="44" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="H103" s="44" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="J103" s="42" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="Q103" s="38"/>
     </row>
     <row r="104" spans="2:17" ht="52.2">
       <c r="B104" s="40" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D104" s="49" t="s">
         <v>463</v>
       </c>
       <c r="E104" s="59" t="s">
+        <v>1492</v>
+      </c>
+      <c r="F104" s="44" t="s">
+        <v>1493</v>
+      </c>
+      <c r="H104" s="42" t="s">
         <v>1494</v>
       </c>
-      <c r="F104" s="44" t="s">
-        <v>1495</v>
-      </c>
-      <c r="H104" s="42" t="s">
-        <v>1496</v>
-      </c>
       <c r="J104" s="42" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="Q104" s="38"/>
     </row>
     <row r="105" spans="2:17" ht="34.799999999999997">
       <c r="B105" s="40" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D105" s="49" t="s">
         <v>463</v>
       </c>
       <c r="E105" s="59" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="F105" s="44" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="H105" s="42" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="Q105" s="38"/>
     </row>
     <row r="106" spans="2:17" ht="261">
       <c r="B106" s="40" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D106" s="49" t="s">
         <v>463</v>
       </c>
       <c r="E106" s="59" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="F106" s="44" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="I106" s="42" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="Q106" s="38"/>
     </row>
     <row r="107" spans="2:17" ht="34.799999999999997">
       <c r="B107" s="40" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D107" s="49" t="s">
         <v>463</v>
       </c>
       <c r="E107" s="59" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="F107" s="44" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="H107" s="42" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="Q107" s="38"/>
     </row>
     <row r="108" spans="2:17" ht="55.2" customHeight="1">
       <c r="B108" s="40"/>
       <c r="C108" s="40" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D108" s="57" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E108" s="57" t="s">
+        <v>1293</v>
+      </c>
+      <c r="F108" s="43" t="s">
         <v>1315</v>
-      </c>
-      <c r="D108" s="57" t="s">
-        <v>1274</v>
-      </c>
-      <c r="E108" s="57" t="s">
-        <v>1294</v>
-      </c>
-      <c r="F108" s="43" t="s">
-        <v>1316</v>
       </c>
       <c r="G108" s="43"/>
       <c r="H108" s="41"/>
       <c r="I108" s="42" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="109" spans="2:17">
       <c r="B109" s="40" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D109" s="49" t="s">
         <v>620</v>
       </c>
       <c r="E109" s="58" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="F109" s="44" t="s">
         <v>653</v>
       </c>
       <c r="H109" s="42" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="Q109" s="38"/>
     </row>
     <row r="110" spans="2:17" ht="76.8">
       <c r="B110" s="40" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D110" s="49" t="s">
         <v>620</v>
@@ -18982,47 +19029,47 @@
       </c>
       <c r="G110" s="64"/>
       <c r="H110" s="42" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="J110" s="47" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="Q110" s="38"/>
     </row>
     <row r="111" spans="2:17" ht="34.799999999999997">
       <c r="B111" s="40" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D111" s="49" t="s">
         <v>620</v>
       </c>
       <c r="E111" s="58" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="F111" s="44" t="s">
         <v>658</v>
       </c>
       <c r="H111" s="42" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="Q111" s="38"/>
     </row>
     <row r="112" spans="2:17" ht="34.799999999999997">
       <c r="B112" s="40" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D112" s="49" t="s">
         <v>620</v>
       </c>
       <c r="E112" s="60" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="F112" s="64" t="s">
         <v>641</v>
       </c>
       <c r="G112" s="64"/>
       <c r="H112" s="42" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="Q112" s="38"/>
     </row>
@@ -19076,52 +19123,52 @@
   <sheetData>
     <row r="1" spans="1:16" s="3" customFormat="1" ht="33.450000000000003" customHeight="1">
       <c r="A1" s="25" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>1385</v>
+      </c>
+      <c r="F1" s="28" t="s">
         <v>1386</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>1297</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>1298</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>1300</v>
-      </c>
-      <c r="E1" s="27" t="s">
+      <c r="G1" s="28" t="s">
         <v>1387</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="H1" s="28" t="s">
         <v>1388</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="I1" s="25" t="s">
         <v>1389</v>
       </c>
-      <c r="H1" s="28" t="s">
-        <v>1390</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>1391</v>
-      </c>
       <c r="J1" s="12" t="s">
+        <v>1304</v>
+      </c>
+      <c r="K1" s="12" t="s">
         <v>1305</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="14" t="s">
         <v>1306</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>1307</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="13" t="s">
         <v>1308</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>1309</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="P1" s="9" t="s">
         <v>1310</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>1311</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="3" customFormat="1" ht="97.05" customHeight="1">
@@ -19132,7 +19179,7 @@
       <c r="C2" s="18"/>
       <c r="D2" s="19"/>
       <c r="E2" s="29" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
@@ -19145,7 +19192,7 @@
       <c r="N2" s="20"/>
       <c r="O2" s="20"/>
       <c r="P2" s="17" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="3" customFormat="1" ht="76.05" customHeight="1">
@@ -19153,41 +19200,41 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>1289</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>1393</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>1274</v>
-      </c>
-      <c r="E3" s="17" t="s">
+      <c r="H3" s="10" t="s">
+        <v>1316</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>1394</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>1290</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>1395</v>
-      </c>
-      <c r="H3" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>1317</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>1396</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>1318</v>
       </c>
       <c r="K3" s="21"/>
       <c r="L3" s="5" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="M3" s="22"/>
       <c r="N3" s="6"/>
       <c r="O3" s="24"/>
       <c r="P3" s="17" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="3" customFormat="1" ht="61.8" customHeight="1">
@@ -19195,31 +19242,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>55</v>
       </c>
       <c r="H4" s="10" t="s">
+        <v>1318</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>1394</v>
+      </c>
+      <c r="J4" s="10" t="s">
         <v>1319</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>1396</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>1320</v>
       </c>
       <c r="K4" s="21"/>
       <c r="L4" s="5"/>
@@ -19233,10 +19280,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>91</v>
@@ -19251,17 +19298,17 @@
         <v>55</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="K5" s="21"/>
       <c r="L5" s="5" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="M5" s="23"/>
       <c r="N5" s="6"/>
@@ -19273,94 +19320,94 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>1181</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="F6" s="17" t="s">
         <v>1186</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="20"/>
       <c r="L6" s="10"/>
       <c r="M6" s="18"/>
       <c r="N6" s="10" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="O6" s="18"/>
       <c r="P6" s="10" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="2" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="2" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="2" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="2" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="2" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="2" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="2" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="2" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="2" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
     </row>
   </sheetData>
